--- a/Stock_Parser/demo.xlsx
+++ b/Stock_Parser/demo.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8_29_2018 Stock List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily Stock List" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cumulative_Stock_List" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Changes" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -47,36 +48,36 @@
     <t>CRON</t>
   </si>
   <si>
+    <t>AMD</t>
+  </si>
+  <si>
     <t>AMZN</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>TQQQ</t>
+  </si>
+  <si>
     <t>TLRY</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>TQQQ</t>
-  </si>
-  <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>CRM</t>
-  </si>
-  <si>
     <t>SPY</t>
   </si>
   <si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>DKS</t>
+  </si>
+  <si>
+    <t>8/30/2018</t>
+  </si>
+  <si>
+    <t>Goog</t>
   </si>
 </sst>
 </file>
@@ -145,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,15 +196,78 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
       <color rgb="0000FF00"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -222,6 +292,20 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -500,7 +584,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -541,22 +625,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>12.74</v>
-      </c>
-      <c s="8" r="C4" t="n">
-        <v>1.66</v>
-      </c>
-      <c s="8" r="D4" t="n">
-        <v>13.03</v>
+        <v>11.31</v>
+      </c>
+      <c s="21" r="C4" t="n">
+        <v>-1.43</v>
+      </c>
+      <c s="21" r="D4" t="n">
+        <v>-12.64</v>
       </c>
       <c r="E4" t="n">
-        <v>2240</v>
+        <v>804</v>
       </c>
       <c r="F4" t="n">
-        <v>1400</v>
-      </c>
-      <c s="8" r="G4" t="n">
-        <v>0.62</v>
+        <v>395</v>
+      </c>
+      <c s="22" r="G4" t="n">
+        <v>0.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.95</v>
@@ -567,25 +651,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C5" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D5" t="n">
-        <v>3.27</v>
+        <v>25.25</v>
+      </c>
+      <c s="22" r="C5" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="22" r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>2791</v>
+        <v>537</v>
       </c>
       <c r="F5" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G5" t="n">
-        <v>0.51</v>
+        <v>375</v>
+      </c>
+      <c s="22" r="G5" t="n">
+        <v>0.59</v>
       </c>
       <c r="H5" t="n">
-        <v>1.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -593,48 +677,48 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C6" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D6" t="n">
-        <v>17.11</v>
+        <v>2001.13</v>
+      </c>
+      <c s="22" r="C6" t="n">
+        <v>3.03</v>
+      </c>
+      <c s="22" r="D6" t="n">
+        <v>0.15</v>
       </c>
       <c r="E6" t="n">
-        <v>2390</v>
+        <v>865</v>
       </c>
       <c r="F6" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
+        <v>711</v>
+      </c>
+      <c s="22" r="G6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C7" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D7" t="n">
-        <v>1.47</v>
+        <v>222.97</v>
+      </c>
+      <c s="21" r="C7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="22" r="D7" t="n">
+        <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>1715</v>
+        <v>656</v>
       </c>
       <c r="F7" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G7" t="n">
-        <v>0.6</v>
+        <v>394</v>
+      </c>
+      <c s="22" r="G7" t="n">
+        <v>0.62</v>
       </c>
       <c r="H7" t="n">
         <v>1.14</v>
@@ -642,33 +726,33 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C8" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D8" t="n">
-        <v>0.6</v>
+        <v>150.19</v>
+      </c>
+      <c s="21" r="C8" t="n">
+        <v>-4.61</v>
+      </c>
+      <c s="21" r="D8" t="n">
+        <v>-3.07</v>
       </c>
       <c r="E8" t="n">
-        <v>2477</v>
+        <v>916</v>
       </c>
       <c r="F8" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G8" t="n">
-        <v>0.5</v>
+        <v>660</v>
+      </c>
+      <c s="22" r="G8" t="n">
+        <v>0.58</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>222.98</v>
@@ -720,7 +804,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>175.9</v>
@@ -746,7 +830,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>278.49</v>
@@ -772,7 +856,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>72.5</v>
@@ -798,7 +882,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>62.13</v>
@@ -819,12 +903,12 @@
         <v>0.6</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>112.02</v>
@@ -850,7 +934,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
         <v>154.8</v>
@@ -1006,7 +1090,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
         <v>25.2</v>
@@ -1053,7 +1137,7 @@
         <v>0.49</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1162,7 +1246,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
         <v>1998.1</v>
@@ -1328,9 +1412,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="A13" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1541,693 +1625,1843 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C8" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D8" t="n">
-        <v>3.27</v>
+        <v>11.71</v>
+      </c>
+      <c s="9" r="C8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c s="9" r="D8" t="n">
+        <v>-8.800000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2791</v>
+        <v>349</v>
       </c>
       <c r="F8" t="n">
-        <v>2724</v>
+        <v>231</v>
       </c>
       <c s="8" r="G8" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C9" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D9" t="n">
-        <v>3.27</v>
+        <v>11.6</v>
+      </c>
+      <c s="10" r="C9" t="n">
+        <v>-1.14</v>
+      </c>
+      <c s="10" r="D9" t="n">
+        <v>-9.83</v>
       </c>
       <c r="E9" t="n">
-        <v>2791</v>
+        <v>655</v>
       </c>
       <c r="F9" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G9" t="n">
-        <v>0.51</v>
+        <v>327</v>
+      </c>
+      <c s="11" r="G9" t="n">
+        <v>0.67</v>
       </c>
       <c r="H9" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C10" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D10" t="n">
-        <v>17.11</v>
+        <v>11.6</v>
+      </c>
+      <c s="10" r="C10" t="n">
+        <v>-1.14</v>
+      </c>
+      <c s="10" r="D10" t="n">
+        <v>-9.83</v>
       </c>
       <c r="E10" t="n">
-        <v>2390</v>
+        <v>655</v>
       </c>
       <c r="F10" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
+        <v>327</v>
+      </c>
+      <c s="11" r="G10" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.95</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C11" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D11" t="n">
-        <v>17.11</v>
+        <v>11.48</v>
+      </c>
+      <c s="10" r="C11" t="n">
+        <v>-1.26</v>
+      </c>
+      <c s="10" r="D11" t="n">
+        <v>-10.98</v>
       </c>
       <c r="E11" t="n">
-        <v>2390</v>
+        <v>655</v>
       </c>
       <c r="F11" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
+        <v>327</v>
+      </c>
+      <c s="11" r="G11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.95</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C12" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D12" t="n">
-        <v>1.47</v>
+        <v>11.52</v>
+      </c>
+      <c s="10" r="C12" t="n">
+        <v>-1.22</v>
+      </c>
+      <c s="10" r="D12" t="n">
+        <v>-10.59</v>
       </c>
       <c r="E12" t="n">
-        <v>1715</v>
+        <v>655</v>
       </c>
       <c r="F12" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G12" t="n">
-        <v>0.6</v>
+        <v>327</v>
+      </c>
+      <c s="11" r="G12" t="n">
+        <v>0.67</v>
       </c>
       <c r="H12" t="n">
-        <v>1.14</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C13" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D13" t="n">
-        <v>1.47</v>
+        <v>11.42</v>
+      </c>
+      <c s="17" r="C13" t="n">
+        <v>-1.32</v>
+      </c>
+      <c s="17" r="D13" t="n">
+        <v>-11.56</v>
       </c>
       <c r="E13" t="n">
-        <v>1715</v>
+        <v>804</v>
       </c>
       <c r="F13" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G13" t="n">
-        <v>0.6</v>
+        <v>395</v>
+      </c>
+      <c s="18" r="G13" t="n">
+        <v>0.67</v>
       </c>
       <c r="H13" t="n">
-        <v>1.14</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C14" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D14" t="n">
-        <v>0.6</v>
+        <v>11.39</v>
+      </c>
+      <c s="19" r="C14" t="n">
+        <v>-1.35</v>
+      </c>
+      <c s="19" r="D14" t="n">
+        <v>-11.85</v>
       </c>
       <c r="E14" t="n">
-        <v>2477</v>
+        <v>804</v>
       </c>
       <c r="F14" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G14" t="n">
-        <v>0.5</v>
+        <v>395</v>
+      </c>
+      <c s="20" r="G14" t="n">
+        <v>0.67</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" t="n">
+        <v>11.31</v>
+      </c>
+      <c s="21" r="C15" t="n">
+        <v>-1.43</v>
+      </c>
+      <c s="21" r="D15" t="n">
+        <v>-12.64</v>
+      </c>
+      <c r="E15" t="n">
+        <v>804</v>
+      </c>
+      <c r="F15" t="n">
+        <v>395</v>
+      </c>
+      <c s="22" r="G15" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C16" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D16" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2724</v>
+      </c>
+      <c s="8" r="G16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C17" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D17" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2724</v>
+      </c>
+      <c s="8" r="G17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2005.03</v>
+      </c>
+      <c s="8" r="C18" t="n">
+        <v>6.93</v>
+      </c>
+      <c s="8" r="D18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E18" t="n">
+        <v>322</v>
+      </c>
+      <c r="F18" t="n">
+        <v>320</v>
+      </c>
+      <c s="8" r="G18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1999.03</v>
+      </c>
+      <c s="11" r="C19" t="n">
+        <v>0.93</v>
+      </c>
+      <c s="11" r="D19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>740</v>
+      </c>
+      <c r="F19" t="n">
+        <v>607</v>
+      </c>
+      <c s="11" r="G19" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1997.49</v>
+      </c>
+      <c s="10" r="C20" t="n">
+        <v>-0.61</v>
+      </c>
+      <c s="10" r="D20" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>740</v>
+      </c>
+      <c r="F20" t="n">
+        <v>607</v>
+      </c>
+      <c s="11" r="G20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1997.93</v>
+      </c>
+      <c s="10" r="C21" t="n">
+        <v>-0.17</v>
+      </c>
+      <c s="10" r="D21" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E21" t="n">
+        <v>740</v>
+      </c>
+      <c r="F21" t="n">
+        <v>607</v>
+      </c>
+      <c s="11" r="G21" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1999.18</v>
+      </c>
+      <c s="11" r="C22" t="n">
+        <v>1.08</v>
+      </c>
+      <c s="11" r="D22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E22" t="n">
+        <v>740</v>
+      </c>
+      <c r="F22" t="n">
+        <v>607</v>
+      </c>
+      <c s="11" r="G22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2002.77</v>
+      </c>
+      <c s="18" r="C23" t="n">
+        <v>4.67</v>
+      </c>
+      <c s="18" r="D23" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E23" t="n">
+        <v>865</v>
+      </c>
+      <c r="F23" t="n">
+        <v>711</v>
+      </c>
+      <c s="18" r="G23" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2002.22</v>
+      </c>
+      <c s="20" r="C24" t="n">
+        <v>4.12</v>
+      </c>
+      <c s="20" r="D24" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E24" t="n">
+        <v>865</v>
+      </c>
+      <c r="F24" t="n">
+        <v>711</v>
+      </c>
+      <c s="20" r="G24" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2001.13</v>
+      </c>
+      <c s="22" r="C25" t="n">
+        <v>3.03</v>
+      </c>
+      <c s="22" r="D25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>865</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c s="22" r="G25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="n">
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C26" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D26" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1583</v>
+      </c>
+      <c s="8" r="G26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="n">
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C27" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D27" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1583</v>
+      </c>
+      <c s="8" r="G27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C28" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1153</v>
+      </c>
+      <c s="8" r="G28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C29" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1153</v>
+      </c>
+      <c s="8" r="G29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="n">
+        <v>224.43</v>
+      </c>
+      <c s="8" r="C30" t="n">
+        <v>1.45</v>
+      </c>
+      <c s="8" r="D30" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E30" t="n">
+        <v>272</v>
+      </c>
+      <c r="F30" t="n">
+        <v>186</v>
+      </c>
+      <c s="8" r="G30" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="n">
+        <v>222.76</v>
+      </c>
+      <c s="10" r="C31" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D31" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>568</v>
+      </c>
+      <c r="F31" t="n">
+        <v>345</v>
+      </c>
+      <c s="11" r="G31" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="n">
+        <v>222.8</v>
+      </c>
+      <c s="10" r="C32" t="n">
+        <v>-0.18</v>
+      </c>
+      <c s="10" r="D32" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>568</v>
+      </c>
+      <c r="F32" t="n">
+        <v>345</v>
+      </c>
+      <c s="11" r="G32" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="n">
+        <v>222.76</v>
+      </c>
+      <c s="10" r="C33" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D33" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>568</v>
+      </c>
+      <c r="F33" t="n">
+        <v>345</v>
+      </c>
+      <c s="11" r="G33" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="n">
+        <v>222.43</v>
+      </c>
+      <c s="10" r="C34" t="n">
+        <v>-0.55</v>
+      </c>
+      <c s="10" r="D34" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>568</v>
+      </c>
+      <c r="F34" t="n">
+        <v>345</v>
+      </c>
+      <c s="11" r="G34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="n">
+        <v>223.03</v>
+      </c>
+      <c s="18" r="C35" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="18" r="D35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E35" t="n">
+        <v>656</v>
+      </c>
+      <c r="F35" t="n">
+        <v>394</v>
+      </c>
+      <c s="18" r="G35" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="n">
+        <v>222.91</v>
+      </c>
+      <c s="19" r="C36" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c s="19" r="D36" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E36" t="n">
+        <v>656</v>
+      </c>
+      <c r="F36" t="n">
+        <v>394</v>
+      </c>
+      <c s="20" r="G36" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="n">
+        <v>222.97</v>
+      </c>
+      <c s="21" r="C37" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="22" r="D37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>656</v>
+      </c>
+      <c r="F37" t="n">
+        <v>394</v>
+      </c>
+      <c s="22" r="G37" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="n">
         <v>25.2</v>
       </c>
-      <c s="8" r="C15" t="n">
+      <c s="8" r="C38" t="n">
         <v>0.15</v>
       </c>
-      <c s="8" r="D15" t="n">
+      <c s="8" r="D38" t="n">
         <v>0.6</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E38" t="n">
         <v>2477</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F38" t="n">
         <v>2465</v>
       </c>
-      <c s="8" r="G15" t="n">
+      <c s="8" r="G38" t="n">
         <v>0.5</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H38" t="n">
         <v>3.6</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c s="5" r="C16" t="n"/>
-      <c s="5" r="D16" t="n"/>
-      <c s="5" r="G16" t="n"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c s="6" r="C17" t="n"/>
-      <c s="6" r="D17" t="n"/>
-      <c s="5" r="G17" t="n"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c s="6" r="C18" t="n"/>
-      <c s="6" r="D18" t="n"/>
-      <c s="5" r="G18" t="n"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c s="6" r="C19" t="n"/>
-      <c s="6" r="D19" t="n"/>
-      <c s="6" r="G19" t="n"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c s="7" r="C20" t="n"/>
-      <c s="7" r="D20" t="n"/>
-      <c s="7" r="G20" t="n"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c s="6" r="C21" t="n"/>
-      <c s="6" r="D21" t="n"/>
-      <c s="5" r="G21" t="n"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c s="6" r="C22" t="n"/>
-      <c s="6" r="D22" t="n"/>
-      <c s="6" r="G22" t="n"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c s="6" r="C23" t="n"/>
-      <c s="6" r="D23" t="n"/>
-      <c s="6" r="G23" t="n"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c s="5" r="C24" t="n"/>
-      <c s="5" r="D24" t="n"/>
-      <c s="6" r="G24" t="n"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c s="5" r="C25" t="n"/>
-      <c s="5" r="D25" t="n"/>
-      <c s="6" r="G25" t="n"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c s="5" r="C26" t="n"/>
-      <c s="5" r="D26" t="n"/>
-      <c s="5" r="G26" t="n"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c s="6" r="C27" t="n"/>
-      <c s="6" r="D27" t="n"/>
-      <c s="6" r="G27" t="n"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c s="6" r="C28" t="n"/>
-      <c s="6" r="D28" t="n"/>
-      <c s="6" r="G28" t="n"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c s="7" r="C29" t="n"/>
-      <c s="7" r="D29" t="n"/>
-      <c s="7" r="G29" t="n"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c s="5" r="C30" t="n"/>
-      <c s="5" r="D30" t="n"/>
-      <c s="5" r="G30" t="n"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c s="6" r="C31" t="n"/>
-      <c s="6" r="D31" t="n"/>
-      <c s="5" r="G31" t="n"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c s="6" r="C32" t="n"/>
-      <c s="6" r="D32" t="n"/>
-      <c s="6" r="G32" t="n"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c s="6" r="C33" t="n"/>
-      <c s="6" r="D33" t="n"/>
-      <c s="6" r="G33" t="n"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c s="5" r="C34" t="n"/>
-      <c s="5" r="D34" t="n"/>
-      <c s="6" r="G34" t="n"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c s="6" r="C35" t="n"/>
-      <c s="6" r="D35" t="n"/>
-      <c s="6" r="G35" t="n"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c s="7" r="C36" t="n"/>
-      <c s="7" r="D36" t="n"/>
-      <c s="7" r="G36" t="n"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c s="5" r="C37" t="n"/>
-      <c s="5" r="D37" t="n"/>
-      <c s="6" r="G37" t="n"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c s="6" r="C38" t="n"/>
-      <c s="6" r="D38" t="n"/>
-      <c s="5" r="G38" t="n"/>
-    </row>
     <row r="39" spans="1:9">
-      <c s="6" r="C39" t="n"/>
-      <c s="6" r="D39" t="n"/>
-      <c s="6" r="G39" t="n"/>
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C39" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2477</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2465</v>
+      </c>
+      <c s="8" r="G39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
-      <c s="6" r="C40" t="n"/>
-      <c s="6" r="D40" t="n"/>
-      <c s="5" r="G40" t="n"/>
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="n">
+        <v>24.98</v>
+      </c>
+      <c s="10" r="C40" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D40" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E40" t="n">
+        <v>449</v>
+      </c>
+      <c r="F40" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G40" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
-      <c s="5" r="C41" t="n"/>
-      <c s="5" r="D41" t="n"/>
-      <c s="6" r="G41" t="n"/>
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>24.99</v>
+      </c>
+      <c s="10" r="C41" t="n">
+        <v>-0.21</v>
+      </c>
+      <c s="10" r="D41" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E41" t="n">
+        <v>449</v>
+      </c>
+      <c r="F41" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G41" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
-      <c s="1" r="C42" t="n"/>
-      <c s="1" r="D42" t="n"/>
-      <c s="2" r="G42" t="n"/>
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25.04</v>
+      </c>
+      <c s="10" r="C42" t="n">
+        <v>-0.16</v>
+      </c>
+      <c s="10" r="D42" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="E42" t="n">
+        <v>449</v>
+      </c>
+      <c r="F42" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G42" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
-      <c s="2" r="C43" t="n"/>
-      <c s="2" r="D43" t="n"/>
-      <c s="2" r="G43" t="n"/>
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>25.1</v>
+      </c>
+      <c s="10" r="C43" t="n">
+        <v>-0.1</v>
+      </c>
+      <c s="10" r="D43" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>449</v>
+      </c>
+      <c r="F43" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G43" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
-      <c s="1" r="C44" t="n"/>
-      <c s="1" r="D44" t="n"/>
-      <c s="2" r="G44" t="n"/>
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="n">
+        <v>25.25</v>
+      </c>
+      <c s="18" r="C44" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="18" r="D44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>537</v>
+      </c>
+      <c r="F44" t="n">
+        <v>375</v>
+      </c>
+      <c s="18" r="G44" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c s="2" r="C45" t="n"/>
-      <c s="2" r="D45" t="n"/>
-      <c s="2" r="G45" t="n"/>
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="n">
+        <v>25.33</v>
+      </c>
+      <c s="20" r="C45" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="20" r="D45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E45" t="n">
+        <v>537</v>
+      </c>
+      <c r="F45" t="n">
+        <v>375</v>
+      </c>
+      <c s="20" r="G45" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
-      <c s="2" r="C46" t="n"/>
-      <c s="2" r="D46" t="n"/>
-      <c s="2" r="G46" t="n"/>
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="n">
+        <v>25.25</v>
+      </c>
+      <c s="22" r="C46" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="22" r="D46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>537</v>
+      </c>
+      <c r="F46" t="n">
+        <v>375</v>
+      </c>
+      <c s="22" r="G46" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
-      <c s="2" r="C47" t="n"/>
-      <c s="2" r="D47" t="n"/>
-      <c s="2" r="G47" t="n"/>
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44.69</v>
+      </c>
+      <c s="9" r="C47" t="n">
+        <v>-1.71</v>
+      </c>
+      <c s="9" r="D47" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="E47" t="n">
+        <v>255</v>
+      </c>
+      <c r="F47" t="n">
+        <v>147</v>
+      </c>
+      <c s="8" r="G47" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c s="1" r="C48" t="n"/>
-      <c s="1" r="D48" t="n"/>
-      <c s="2" r="G48" t="n"/>
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="n">
+        <v>152.61</v>
+      </c>
+      <c s="9" r="C48" t="n">
+        <v>-2.19</v>
+      </c>
+      <c s="9" r="D48" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E48" t="n">
+        <v>599</v>
+      </c>
+      <c r="F48" t="n">
+        <v>414</v>
+      </c>
+      <c s="8" r="G48" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
-      <c s="3" r="C49" t="n"/>
-      <c s="3" r="D49" t="n"/>
-      <c s="4" r="G49" t="n"/>
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="n">
+        <v>150.99</v>
+      </c>
+      <c s="10" r="C49" t="n">
+        <v>-3.81</v>
+      </c>
+      <c s="10" r="D49" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="E49" t="n">
+        <v>823</v>
+      </c>
+      <c r="F49" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G49" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
-      <c s="4" r="C50" t="n"/>
-      <c s="4" r="D50" t="n"/>
-      <c s="4" r="G50" t="n"/>
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="n">
+        <v>150.54</v>
+      </c>
+      <c s="10" r="C50" t="n">
+        <v>-4.25</v>
+      </c>
+      <c s="10" r="D50" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="E50" t="n">
+        <v>823</v>
+      </c>
+      <c r="F50" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G50" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
-      <c s="3" r="C51" t="n"/>
-      <c s="3" r="D51" t="n"/>
-      <c s="3" r="G51" t="n"/>
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="n">
+        <v>150.46</v>
+      </c>
+      <c s="10" r="C51" t="n">
+        <v>-4.34</v>
+      </c>
+      <c s="10" r="D51" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E51" t="n">
+        <v>823</v>
+      </c>
+      <c r="F51" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G51" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
-      <c s="3" r="C52" t="n"/>
-      <c s="3" r="D52" t="n"/>
-      <c s="3" r="G52" t="n"/>
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="n">
+        <v>150.12</v>
+      </c>
+      <c s="10" r="C52" t="n">
+        <v>-4.68</v>
+      </c>
+      <c s="10" r="D52" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="E52" t="n">
+        <v>823</v>
+      </c>
+      <c r="F52" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G52" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
-      <c s="4" r="C53" t="n"/>
-      <c s="4" r="D53" t="n"/>
-      <c s="4" r="G53" t="n"/>
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="n">
+        <v>150.31</v>
+      </c>
+      <c s="17" r="C53" t="n">
+        <v>-4.49</v>
+      </c>
+      <c s="17" r="D53" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="E53" t="n">
+        <v>916</v>
+      </c>
+      <c r="F53" t="n">
+        <v>660</v>
+      </c>
+      <c s="18" r="G53" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
-      <c s="4" r="C54" t="n"/>
-      <c s="4" r="D54" t="n"/>
-      <c s="4" r="G54" t="n"/>
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>150.17</v>
+      </c>
+      <c s="19" r="C54" t="n">
+        <v>-4.63</v>
+      </c>
+      <c s="19" r="D54" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="E54" t="n">
+        <v>916</v>
+      </c>
+      <c r="F54" t="n">
+        <v>660</v>
+      </c>
+      <c s="20" r="G54" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
-      <c s="4" r="C55" t="n"/>
-      <c s="4" r="D55" t="n"/>
-      <c s="4" r="G55" t="n"/>
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="n">
+        <v>150.19</v>
+      </c>
+      <c s="21" r="C55" t="n">
+        <v>-4.61</v>
+      </c>
+      <c s="21" r="D55" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="E55" t="n">
+        <v>916</v>
+      </c>
+      <c r="F55" t="n">
+        <v>660</v>
+      </c>
+      <c s="22" r="G55" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
-      <c s="3" r="C56" t="n"/>
-      <c s="3" r="D56" t="n"/>
-      <c s="3" r="G56" t="n"/>
+      <c s="6" r="C56" t="n"/>
+      <c s="6" r="D56" t="n"/>
+      <c s="5" r="G56" t="n"/>
     </row>
     <row r="57" spans="1:9">
-      <c s="4" r="C57" t="n"/>
-      <c s="4" r="D57" t="n"/>
-      <c s="3" r="G57" t="n"/>
+      <c s="6" r="C57" t="n"/>
+      <c s="6" r="D57" t="n"/>
+      <c s="6" r="G57" t="n"/>
     </row>
     <row r="58" spans="1:9">
-      <c s="4" r="C58" t="n"/>
-      <c s="4" r="D58" t="n"/>
-      <c s="3" r="G58" t="n"/>
+      <c s="7" r="C58" t="n"/>
+      <c s="7" r="D58" t="n"/>
+      <c s="7" r="G58" t="n"/>
     </row>
     <row r="59" spans="1:9">
-      <c s="4" r="C59" t="n"/>
-      <c s="4" r="D59" t="n"/>
-      <c s="4" r="G59" t="n"/>
+      <c s="6" r="C59" t="n"/>
+      <c s="6" r="D59" t="n"/>
+      <c s="5" r="G59" t="n"/>
     </row>
     <row r="60" spans="1:9">
-      <c s="4" r="C60" t="n"/>
-      <c s="4" r="D60" t="n"/>
-      <c s="3" r="G60" t="n"/>
+      <c s="6" r="C60" t="n"/>
+      <c s="6" r="D60" t="n"/>
+      <c s="6" r="G60" t="n"/>
     </row>
     <row r="61" spans="1:9">
-      <c s="4" r="C61" t="n"/>
-      <c s="4" r="D61" t="n"/>
-      <c s="4" r="G61" t="n"/>
+      <c s="6" r="C61" t="n"/>
+      <c s="6" r="D61" t="n"/>
+      <c s="6" r="G61" t="n"/>
     </row>
     <row r="62" spans="1:9">
-      <c s="4" r="C62" t="n"/>
-      <c s="4" r="D62" t="n"/>
-      <c s="4" r="G62" t="n"/>
+      <c s="5" r="C62" t="n"/>
+      <c s="5" r="D62" t="n"/>
+      <c s="6" r="G62" t="n"/>
     </row>
     <row r="63" spans="1:9">
-      <c s="3" r="C63" t="n"/>
-      <c s="3" r="D63" t="n"/>
-      <c s="4" r="G63" t="n"/>
+      <c s="5" r="C63" t="n"/>
+      <c s="5" r="D63" t="n"/>
+      <c s="6" r="G63" t="n"/>
     </row>
     <row r="64" spans="1:9">
-      <c s="3" r="C64" t="n"/>
-      <c s="3" r="D64" t="n"/>
-      <c s="4" r="G64" t="n"/>
+      <c s="5" r="C64" t="n"/>
+      <c s="5" r="D64" t="n"/>
+      <c s="5" r="G64" t="n"/>
     </row>
     <row r="65" spans="1:9">
-      <c s="3" r="C65" t="n"/>
-      <c s="3" r="D65" t="n"/>
-      <c s="3" r="G65" t="n"/>
+      <c s="6" r="C65" t="n"/>
+      <c s="6" r="D65" t="n"/>
+      <c s="6" r="G65" t="n"/>
     </row>
     <row r="66" spans="1:9">
-      <c s="4" r="C66" t="n"/>
-      <c s="4" r="D66" t="n"/>
-      <c s="4" r="G66" t="n"/>
+      <c s="6" r="C66" t="n"/>
+      <c s="6" r="D66" t="n"/>
+      <c s="6" r="G66" t="n"/>
     </row>
     <row r="67" spans="1:9">
-      <c s="4" r="C67" t="n"/>
-      <c s="4" r="D67" t="n"/>
-      <c s="4" r="G67" t="n"/>
+      <c s="7" r="C67" t="n"/>
+      <c s="7" r="D67" t="n"/>
+      <c s="7" r="G67" t="n"/>
     </row>
     <row r="68" spans="1:9">
-      <c s="3" r="C68" t="n"/>
-      <c s="3" r="D68" t="n"/>
-      <c s="3" r="G68" t="n"/>
+      <c s="5" r="C68" t="n"/>
+      <c s="5" r="D68" t="n"/>
+      <c s="5" r="G68" t="n"/>
     </row>
     <row r="69" spans="1:9">
-      <c s="4" r="C69" t="n"/>
-      <c s="4" r="D69" t="n"/>
-      <c s="3" r="G69" t="n"/>
+      <c s="6" r="C69" t="n"/>
+      <c s="6" r="D69" t="n"/>
+      <c s="5" r="G69" t="n"/>
     </row>
     <row r="70" spans="1:9">
-      <c s="4" r="C70" t="n"/>
-      <c s="4" r="D70" t="n"/>
-      <c s="4" r="G70" t="n"/>
+      <c s="6" r="C70" t="n"/>
+      <c s="6" r="D70" t="n"/>
+      <c s="6" r="G70" t="n"/>
     </row>
     <row r="71" spans="1:9">
-      <c s="4" r="C71" t="n"/>
-      <c s="4" r="D71" t="n"/>
-      <c s="4" r="G71" t="n"/>
+      <c s="6" r="C71" t="n"/>
+      <c s="6" r="D71" t="n"/>
+      <c s="6" r="G71" t="n"/>
     </row>
     <row r="72" spans="1:9">
-      <c s="3" r="C72" t="n"/>
-      <c s="3" r="D72" t="n"/>
-      <c s="4" r="G72" t="n"/>
+      <c s="5" r="C72" t="n"/>
+      <c s="5" r="D72" t="n"/>
+      <c s="6" r="G72" t="n"/>
     </row>
     <row r="73" spans="1:9">
-      <c s="4" r="C73" t="n"/>
-      <c s="4" r="D73" t="n"/>
-      <c s="4" r="G73" t="n"/>
+      <c s="6" r="C73" t="n"/>
+      <c s="6" r="D73" t="n"/>
+      <c s="6" r="G73" t="n"/>
     </row>
     <row r="74" spans="1:9">
-      <c s="3" r="C74" t="n"/>
-      <c s="3" r="D74" t="n"/>
-      <c s="4" r="G74" t="n"/>
+      <c s="7" r="C74" t="n"/>
+      <c s="7" r="D74" t="n"/>
+      <c s="7" r="G74" t="n"/>
     </row>
     <row r="75" spans="1:9">
-      <c s="4" r="C75" t="n"/>
-      <c s="4" r="D75" t="n"/>
-      <c s="3" r="G75" t="n"/>
+      <c s="5" r="C75" t="n"/>
+      <c s="5" r="D75" t="n"/>
+      <c s="6" r="G75" t="n"/>
     </row>
     <row r="76" spans="1:9">
-      <c s="4" r="C76" t="n"/>
-      <c s="4" r="D76" t="n"/>
-      <c s="4" r="G76" t="n"/>
+      <c s="6" r="C76" t="n"/>
+      <c s="6" r="D76" t="n"/>
+      <c s="5" r="G76" t="n"/>
     </row>
     <row r="77" spans="1:9">
-      <c s="4" r="C77" t="n"/>
-      <c s="4" r="D77" t="n"/>
-      <c s="3" r="G77" t="n"/>
+      <c s="6" r="C77" t="n"/>
+      <c s="6" r="D77" t="n"/>
+      <c s="6" r="G77" t="n"/>
     </row>
     <row r="78" spans="1:9">
-      <c s="3" r="C78" t="n"/>
-      <c s="3" r="D78" t="n"/>
-      <c s="4" r="G78" t="n"/>
+      <c s="6" r="C78" t="n"/>
+      <c s="6" r="D78" t="n"/>
+      <c s="5" r="G78" t="n"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" t="s">
+      <c s="5" r="C79" t="n"/>
+      <c s="5" r="D79" t="n"/>
+      <c s="6" r="G79" t="n"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c s="1" r="C80" t="n"/>
+      <c s="1" r="D80" t="n"/>
+      <c s="2" r="G80" t="n"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c s="2" r="C81" t="n"/>
+      <c s="2" r="D81" t="n"/>
+      <c s="2" r="G81" t="n"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c s="1" r="C82" t="n"/>
+      <c s="1" r="D82" t="n"/>
+      <c s="2" r="G82" t="n"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c s="2" r="C83" t="n"/>
+      <c s="2" r="D83" t="n"/>
+      <c s="2" r="G83" t="n"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c s="2" r="C84" t="n"/>
+      <c s="2" r="D84" t="n"/>
+      <c s="2" r="G84" t="n"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c s="2" r="C85" t="n"/>
+      <c s="2" r="D85" t="n"/>
+      <c s="2" r="G85" t="n"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c s="1" r="C86" t="n"/>
+      <c s="1" r="D86" t="n"/>
+      <c s="2" r="G86" t="n"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c s="3" r="C87" t="n"/>
+      <c s="3" r="D87" t="n"/>
+      <c s="4" r="G87" t="n"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c s="4" r="C88" t="n"/>
+      <c s="4" r="D88" t="n"/>
+      <c s="4" r="G88" t="n"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c s="3" r="C89" t="n"/>
+      <c s="3" r="D89" t="n"/>
+      <c s="3" r="G89" t="n"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c s="3" r="C90" t="n"/>
+      <c s="3" r="D90" t="n"/>
+      <c s="3" r="G90" t="n"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c s="4" r="C91" t="n"/>
+      <c s="4" r="D91" t="n"/>
+      <c s="4" r="G91" t="n"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c s="4" r="C92" t="n"/>
+      <c s="4" r="D92" t="n"/>
+      <c s="4" r="G92" t="n"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c s="4" r="C93" t="n"/>
+      <c s="4" r="D93" t="n"/>
+      <c s="4" r="G93" t="n"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c s="3" r="C94" t="n"/>
+      <c s="3" r="D94" t="n"/>
+      <c s="3" r="G94" t="n"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c s="4" r="C95" t="n"/>
+      <c s="4" r="D95" t="n"/>
+      <c s="3" r="G95" t="n"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c s="4" r="C96" t="n"/>
+      <c s="4" r="D96" t="n"/>
+      <c s="3" r="G96" t="n"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c s="4" r="C97" t="n"/>
+      <c s="4" r="D97" t="n"/>
+      <c s="4" r="G97" t="n"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c s="4" r="C98" t="n"/>
+      <c s="4" r="D98" t="n"/>
+      <c s="3" r="G98" t="n"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c s="4" r="C99" t="n"/>
+      <c s="4" r="D99" t="n"/>
+      <c s="4" r="G99" t="n"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c s="4" r="C100" t="n"/>
+      <c s="4" r="D100" t="n"/>
+      <c s="4" r="G100" t="n"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c s="3" r="C101" t="n"/>
+      <c s="3" r="D101" t="n"/>
+      <c s="4" r="G101" t="n"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c s="3" r="C102" t="n"/>
+      <c s="3" r="D102" t="n"/>
+      <c s="4" r="G102" t="n"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c s="3" r="C103" t="n"/>
+      <c s="3" r="D103" t="n"/>
+      <c s="3" r="G103" t="n"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c s="4" r="C104" t="n"/>
+      <c s="4" r="D104" t="n"/>
+      <c s="4" r="G104" t="n"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c s="4" r="C105" t="n"/>
+      <c s="4" r="D105" t="n"/>
+      <c s="4" r="G105" t="n"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c s="3" r="C106" t="n"/>
+      <c s="3" r="D106" t="n"/>
+      <c s="3" r="G106" t="n"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c s="4" r="C107" t="n"/>
+      <c s="4" r="D107" t="n"/>
+      <c s="3" r="G107" t="n"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c s="4" r="C108" t="n"/>
+      <c s="4" r="D108" t="n"/>
+      <c s="4" r="G108" t="n"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c s="4" r="C109" t="n"/>
+      <c s="4" r="D109" t="n"/>
+      <c s="4" r="G109" t="n"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c s="3" r="C110" t="n"/>
+      <c s="3" r="D110" t="n"/>
+      <c s="4" r="G110" t="n"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c s="4" r="C111" t="n"/>
+      <c s="4" r="D111" t="n"/>
+      <c s="4" r="G111" t="n"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c s="3" r="C112" t="n"/>
+      <c s="3" r="D112" t="n"/>
+      <c s="4" r="G112" t="n"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c s="4" r="C113" t="n"/>
+      <c s="4" r="D113" t="n"/>
+      <c s="3" r="G113" t="n"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c s="4" r="C114" t="n"/>
+      <c s="4" r="D114" t="n"/>
+      <c s="4" r="G114" t="n"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c s="4" r="C115" t="n"/>
+      <c s="4" r="D115" t="n"/>
+      <c s="3" r="G115" t="n"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c s="3" r="C116" t="n"/>
+      <c s="3" r="D116" t="n"/>
+      <c s="4" r="G116" t="n"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
         <v>9</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B117" t="n">
         <v>12.74</v>
       </c>
-      <c s="8" r="C79" t="n">
+      <c s="8" r="C117" t="n">
         <v>1.66</v>
       </c>
-      <c s="8" r="D79" t="n">
+      <c s="8" r="D117" t="n">
         <v>13.03</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E117" t="n">
         <v>2240</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F117" t="n">
         <v>1400</v>
       </c>
-      <c s="8" r="G79" t="n">
+      <c s="8" r="G117" t="n">
         <v>0.62</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H117" t="n">
         <v>3.95</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I117" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C118" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D118" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2724</v>
+      </c>
+      <c s="8" r="G118" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="n">
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C119" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D119" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1583</v>
+      </c>
+      <c s="8" r="G119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H119" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="n">
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C120" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1153</v>
+      </c>
+      <c s="8" r="G120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
         <v>10</v>
       </c>
-      <c r="B80" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C80" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D80" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2791</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G80" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C81" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D81" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2390</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G81" t="n">
+      <c r="B121" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C121" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D121" t="n">
         <v>0.6</v>
       </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C82" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D82" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1715</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G82" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C83" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D83" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="E121" t="n">
         <v>2477</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F121" t="n">
         <v>2465</v>
       </c>
-      <c s="8" r="G83" t="n">
+      <c s="8" r="G121" t="n">
         <v>0.5</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H121" t="n">
         <v>3.6</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I121" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2235,4 +3469,87 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c s="12" r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c s="13" r="B2" t="n"/>
+      <c s="14" r="C2" t="n"/>
+      <c s="15" r="D2" t="n"/>
+      <c s="16" r="E2" t="n"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c s="12" r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c s="13" r="B3" t="n"/>
+      <c s="15" r="C3" t="n"/>
+      <c s="14" r="E3" t="n"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c s="16" r="C4" t="n"/>
+      <c s="15" r="D4" t="n"/>
+      <c s="15" r="E4" t="n"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c s="12" r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c s="16" r="D5" t="n"/>
+      <c s="14" r="E5" t="n"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Stock_Parser/demo.xlsx
+++ b/Stock_Parser/demo.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily Stock List" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cumulative_Stock_List" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Changes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="50 Day MA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="200 Day MA" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -48,13 +50,13 @@
     <t>CRON</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>AMD</t>
   </si>
   <si>
     <t>CRM</t>
@@ -144,6 +146,9 @@
     <t>8/30/2018</t>
   </si>
   <si>
+    <t>Stock/Date</t>
+  </si>
+  <si>
     <t>Goog</t>
   </si>
 </sst>
@@ -152,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -250,24 +255,48 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <color rgb="00FF0000"/>
     </font>
     <font>
       <color rgb="0000FF00"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -296,16 +325,20 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -625,22 +658,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>11.31</v>
-      </c>
-      <c s="21" r="C4" t="n">
-        <v>-1.43</v>
-      </c>
-      <c s="21" r="D4" t="n">
-        <v>-12.64</v>
+        <v>11.96</v>
+      </c>
+      <c s="25" r="C4" t="n">
+        <v>-0.79</v>
+      </c>
+      <c s="25" r="D4" t="n">
+        <v>-6.61</v>
       </c>
       <c r="E4" t="n">
-        <v>804</v>
+        <v>1266</v>
       </c>
       <c r="F4" t="n">
-        <v>395</v>
-      </c>
-      <c s="22" r="G4" t="n">
-        <v>0.67</v>
+        <v>690</v>
+      </c>
+      <c s="26" r="G4" t="n">
+        <v>0.65</v>
       </c>
       <c r="H4" t="n">
         <v>3.95</v>
@@ -651,25 +684,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>25.25</v>
-      </c>
-      <c s="22" r="C5" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="22" r="D5" t="n">
-        <v>0.2</v>
+        <v>2019.83</v>
+      </c>
+      <c s="26" r="C5" t="n">
+        <v>21.73</v>
+      </c>
+      <c s="26" r="D5" t="n">
+        <v>1.08</v>
       </c>
       <c r="E5" t="n">
-        <v>537</v>
+        <v>1526</v>
       </c>
       <c r="F5" t="n">
-        <v>375</v>
-      </c>
-      <c s="22" r="G5" t="n">
-        <v>0.59</v>
+        <v>1176</v>
+      </c>
+      <c s="26" r="G5" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -677,25 +710,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>2001.13</v>
-      </c>
-      <c s="22" r="C6" t="n">
-        <v>3.03</v>
-      </c>
-      <c s="22" r="D6" t="n">
-        <v>0.15</v>
+        <v>224.41</v>
+      </c>
+      <c s="26" r="C6" t="n">
+        <v>1.43</v>
+      </c>
+      <c s="26" r="D6" t="n">
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
-        <v>865</v>
+        <v>970</v>
       </c>
       <c r="F6" t="n">
-        <v>711</v>
-      </c>
-      <c s="22" r="G6" t="n">
-        <v>0.55</v>
+        <v>546</v>
+      </c>
+      <c s="26" r="G6" t="n">
+        <v>0.64</v>
       </c>
       <c r="H6" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -703,25 +736,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>222.97</v>
-      </c>
-      <c s="21" r="C7" t="n">
-        <v>-0.01</v>
-      </c>
-      <c s="22" r="D7" t="n">
-        <v>-0</v>
+        <v>25.33</v>
+      </c>
+      <c s="26" r="C7" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="26" r="D7" t="n">
+        <v>0.51</v>
       </c>
       <c r="E7" t="n">
-        <v>656</v>
+        <v>913</v>
       </c>
       <c r="F7" t="n">
-        <v>394</v>
-      </c>
-      <c s="22" r="G7" t="n">
-        <v>0.62</v>
+        <v>727</v>
+      </c>
+      <c s="26" r="G7" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1.14</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -729,22 +762,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>150.19</v>
-      </c>
-      <c s="21" r="C8" t="n">
-        <v>-4.61</v>
-      </c>
-      <c s="21" r="D8" t="n">
-        <v>-3.07</v>
+        <v>151.82</v>
+      </c>
+      <c s="25" r="C8" t="n">
+        <v>-2.98</v>
+      </c>
+      <c s="25" r="D8" t="n">
+        <v>-1.96</v>
       </c>
       <c r="E8" t="n">
-        <v>916</v>
+        <v>1112</v>
       </c>
       <c r="F8" t="n">
-        <v>660</v>
-      </c>
-      <c s="22" r="G8" t="n">
-        <v>0.58</v>
+        <v>787</v>
+      </c>
+      <c s="26" r="G8" t="n">
+        <v>0.59</v>
       </c>
       <c r="H8" t="n">
         <v>1.13</v>
@@ -752,7 +785,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
         <v>222.98</v>
@@ -1090,7 +1123,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
         <v>25.2</v>
@@ -1246,7 +1279,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="n">
         <v>1998.1</v>
@@ -1412,7 +1445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H13" sqref="H13"/>
@@ -1775,10 +1808,10 @@
       <c r="B13" t="n">
         <v>11.42</v>
       </c>
-      <c s="17" r="C13" t="n">
+      <c s="13" r="C13" t="n">
         <v>-1.32</v>
       </c>
-      <c s="17" r="D13" t="n">
+      <c s="13" r="D13" t="n">
         <v>-11.56</v>
       </c>
       <c r="E13" t="n">
@@ -1787,7 +1820,7 @@
       <c r="F13" t="n">
         <v>395</v>
       </c>
-      <c s="18" r="G13" t="n">
+      <c s="14" r="G13" t="n">
         <v>0.67</v>
       </c>
       <c r="H13" t="n">
@@ -1804,10 +1837,10 @@
       <c r="B14" t="n">
         <v>11.39</v>
       </c>
-      <c s="19" r="C14" t="n">
+      <c s="15" r="C14" t="n">
         <v>-1.35</v>
       </c>
-      <c s="19" r="D14" t="n">
+      <c s="15" r="D14" t="n">
         <v>-11.85</v>
       </c>
       <c r="E14" t="n">
@@ -1816,7 +1849,7 @@
       <c r="F14" t="n">
         <v>395</v>
       </c>
-      <c s="20" r="G14" t="n">
+      <c s="16" r="G14" t="n">
         <v>0.67</v>
       </c>
       <c r="H14" t="n">
@@ -1833,10 +1866,10 @@
       <c r="B15" t="n">
         <v>11.31</v>
       </c>
-      <c s="21" r="C15" t="n">
+      <c s="17" r="C15" t="n">
         <v>-1.43</v>
       </c>
-      <c s="21" r="D15" t="n">
+      <c s="17" r="D15" t="n">
         <v>-12.64</v>
       </c>
       <c r="E15" t="n">
@@ -1845,7 +1878,7 @@
       <c r="F15" t="n">
         <v>395</v>
       </c>
-      <c s="22" r="G15" t="n">
+      <c s="18" r="G15" t="n">
         <v>0.67</v>
       </c>
       <c r="H15" t="n">
@@ -1857,86 +1890,86 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C16" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D16" t="n">
-        <v>3.27</v>
+        <v>11.46</v>
+      </c>
+      <c s="21" r="C16" t="n">
+        <v>-1.28</v>
+      </c>
+      <c s="21" r="D16" t="n">
+        <v>-11.17</v>
       </c>
       <c r="E16" t="n">
-        <v>2791</v>
+        <v>1069</v>
       </c>
       <c r="F16" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G16" t="n">
-        <v>0.51</v>
+        <v>554</v>
+      </c>
+      <c s="22" r="G16" t="n">
+        <v>0.66</v>
       </c>
       <c r="H16" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C17" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D17" t="n">
-        <v>3.27</v>
+        <v>11.64</v>
+      </c>
+      <c s="23" r="C17" t="n">
+        <v>-1.1</v>
+      </c>
+      <c s="23" r="D17" t="n">
+        <v>-9.449999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>2791</v>
+        <v>1069</v>
       </c>
       <c r="F17" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G17" t="n">
-        <v>0.51</v>
+        <v>554</v>
+      </c>
+      <c s="24" r="G17" t="n">
+        <v>0.66</v>
       </c>
       <c r="H17" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>2005.03</v>
-      </c>
-      <c s="8" r="C18" t="n">
-        <v>6.93</v>
-      </c>
-      <c s="8" r="D18" t="n">
-        <v>0.35</v>
+        <v>11.69</v>
+      </c>
+      <c s="23" r="C18" t="n">
+        <v>-1.05</v>
+      </c>
+      <c s="23" r="D18" t="n">
+        <v>-8.98</v>
       </c>
       <c r="E18" t="n">
-        <v>322</v>
+        <v>1069</v>
       </c>
       <c r="F18" t="n">
-        <v>320</v>
-      </c>
-      <c s="8" r="G18" t="n">
-        <v>0.5</v>
+        <v>554</v>
+      </c>
+      <c s="24" r="G18" t="n">
+        <v>0.66</v>
       </c>
       <c r="H18" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="s">
         <v>41</v>
@@ -1944,28 +1977,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>1999.03</v>
-      </c>
-      <c s="11" r="C19" t="n">
-        <v>0.93</v>
-      </c>
-      <c s="11" r="D19" t="n">
-        <v>0.05</v>
+        <v>11.9</v>
+      </c>
+      <c s="23" r="C19" t="n">
+        <v>-0.84</v>
+      </c>
+      <c s="23" r="D19" t="n">
+        <v>-7.06</v>
       </c>
       <c r="E19" t="n">
-        <v>740</v>
+        <v>1266</v>
       </c>
       <c r="F19" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G19" t="n">
-        <v>0.55</v>
+        <v>690</v>
+      </c>
+      <c s="24" r="G19" t="n">
+        <v>0.65</v>
       </c>
       <c r="H19" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="s">
         <v>41</v>
@@ -1973,28 +2006,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="n">
-        <v>1997.49</v>
-      </c>
-      <c s="10" r="C20" t="n">
-        <v>-0.61</v>
-      </c>
-      <c s="10" r="D20" t="n">
-        <v>-0.03</v>
+        <v>11.94</v>
+      </c>
+      <c s="23" r="C20" t="n">
+        <v>-0.8</v>
+      </c>
+      <c s="23" r="D20" t="n">
+        <v>-6.7</v>
       </c>
       <c r="E20" t="n">
-        <v>740</v>
+        <v>1266</v>
       </c>
       <c r="F20" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G20" t="n">
-        <v>0.55</v>
+        <v>690</v>
+      </c>
+      <c s="24" r="G20" t="n">
+        <v>0.65</v>
       </c>
       <c r="H20" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I20" t="s">
         <v>41</v>
@@ -2002,28 +2035,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="n">
-        <v>1997.93</v>
-      </c>
-      <c s="10" r="C21" t="n">
-        <v>-0.17</v>
-      </c>
-      <c s="10" r="D21" t="n">
-        <v>-0.01</v>
+        <v>11.96</v>
+      </c>
+      <c s="25" r="C21" t="n">
+        <v>-0.79</v>
+      </c>
+      <c s="25" r="D21" t="n">
+        <v>-6.61</v>
       </c>
       <c r="E21" t="n">
-        <v>740</v>
+        <v>1266</v>
       </c>
       <c r="F21" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G21" t="n">
-        <v>0.55</v>
+        <v>690</v>
+      </c>
+      <c s="26" r="G21" t="n">
+        <v>0.65</v>
       </c>
       <c r="H21" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2031,83 +2064,83 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>1999.18</v>
-      </c>
-      <c s="11" r="C22" t="n">
-        <v>1.08</v>
-      </c>
-      <c s="11" r="D22" t="n">
-        <v>0.05</v>
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C22" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D22" t="n">
+        <v>3.27</v>
       </c>
       <c r="E22" t="n">
-        <v>740</v>
+        <v>2791</v>
       </c>
       <c r="F22" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G22" t="n">
-        <v>0.55</v>
+        <v>2724</v>
+      </c>
+      <c s="8" r="G22" t="n">
+        <v>0.51</v>
       </c>
       <c r="H22" t="n">
         <v>1.61</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>2002.77</v>
-      </c>
-      <c s="18" r="C23" t="n">
-        <v>4.67</v>
-      </c>
-      <c s="18" r="D23" t="n">
-        <v>0.23</v>
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C23" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D23" t="n">
+        <v>3.27</v>
       </c>
       <c r="E23" t="n">
-        <v>865</v>
+        <v>2791</v>
       </c>
       <c r="F23" t="n">
-        <v>711</v>
-      </c>
-      <c s="18" r="G23" t="n">
-        <v>0.55</v>
+        <v>2724</v>
+      </c>
+      <c s="8" r="G23" t="n">
+        <v>0.51</v>
       </c>
       <c r="H23" t="n">
         <v>1.61</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
-        <v>2002.22</v>
-      </c>
-      <c s="20" r="C24" t="n">
-        <v>4.12</v>
-      </c>
-      <c s="20" r="D24" t="n">
-        <v>0.21</v>
+        <v>2005.03</v>
+      </c>
+      <c s="8" r="C24" t="n">
+        <v>6.93</v>
+      </c>
+      <c s="8" r="D24" t="n">
+        <v>0.35</v>
       </c>
       <c r="E24" t="n">
-        <v>865</v>
+        <v>322</v>
       </c>
       <c r="F24" t="n">
-        <v>711</v>
-      </c>
-      <c s="20" r="G24" t="n">
-        <v>0.55</v>
+        <v>320</v>
+      </c>
+      <c s="8" r="G24" t="n">
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>1.61</v>
@@ -2118,24 +2151,24 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>2001.13</v>
-      </c>
-      <c s="22" r="C25" t="n">
-        <v>3.03</v>
-      </c>
-      <c s="22" r="D25" t="n">
-        <v>0.15</v>
+        <v>1999.03</v>
+      </c>
+      <c s="11" r="C25" t="n">
+        <v>0.93</v>
+      </c>
+      <c s="11" r="D25" t="n">
+        <v>0.05</v>
       </c>
       <c r="E25" t="n">
-        <v>865</v>
+        <v>740</v>
       </c>
       <c r="F25" t="n">
-        <v>711</v>
-      </c>
-      <c s="22" r="G25" t="n">
+        <v>607</v>
+      </c>
+      <c s="11" r="G25" t="n">
         <v>0.55</v>
       </c>
       <c r="H25" t="n">
@@ -2147,144 +2180,144 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B26" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C26" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D26" t="n">
-        <v>17.11</v>
+        <v>1997.49</v>
+      </c>
+      <c s="10" r="C26" t="n">
+        <v>-0.61</v>
+      </c>
+      <c s="10" r="D26" t="n">
+        <v>-0.03</v>
       </c>
       <c r="E26" t="n">
-        <v>2390</v>
+        <v>740</v>
       </c>
       <c r="F26" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G26" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.61</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C27" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D27" t="n">
-        <v>17.11</v>
+        <v>1997.93</v>
+      </c>
+      <c s="10" r="C27" t="n">
+        <v>-0.17</v>
+      </c>
+      <c s="10" r="D27" t="n">
+        <v>-0.01</v>
       </c>
       <c r="E27" t="n">
-        <v>2390</v>
+        <v>740</v>
       </c>
       <c r="F27" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G27" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.61</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C28" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D28" t="n">
-        <v>1.47</v>
+        <v>1999.18</v>
+      </c>
+      <c s="11" r="C28" t="n">
+        <v>1.08</v>
+      </c>
+      <c s="11" r="D28" t="n">
+        <v>0.05</v>
       </c>
       <c r="E28" t="n">
-        <v>1715</v>
+        <v>740</v>
       </c>
       <c r="F28" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G28" t="n">
-        <v>0.6</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G28" t="n">
+        <v>0.55</v>
       </c>
       <c r="H28" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C29" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D29" t="n">
-        <v>1.47</v>
+        <v>2002.77</v>
+      </c>
+      <c s="14" r="C29" t="n">
+        <v>4.67</v>
+      </c>
+      <c s="14" r="D29" t="n">
+        <v>0.23</v>
       </c>
       <c r="E29" t="n">
-        <v>1715</v>
+        <v>865</v>
       </c>
       <c r="F29" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G29" t="n">
-        <v>0.6</v>
+        <v>711</v>
+      </c>
+      <c s="14" r="G29" t="n">
+        <v>0.55</v>
       </c>
       <c r="H29" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>224.43</v>
-      </c>
-      <c s="8" r="C30" t="n">
-        <v>1.45</v>
-      </c>
-      <c s="8" r="D30" t="n">
-        <v>0.65</v>
+        <v>2002.22</v>
+      </c>
+      <c s="16" r="C30" t="n">
+        <v>4.12</v>
+      </c>
+      <c s="16" r="D30" t="n">
+        <v>0.21</v>
       </c>
       <c r="E30" t="n">
-        <v>272</v>
+        <v>865</v>
       </c>
       <c r="F30" t="n">
-        <v>186</v>
-      </c>
-      <c s="8" r="G30" t="n">
-        <v>0.59</v>
+        <v>711</v>
+      </c>
+      <c s="16" r="G30" t="n">
+        <v>0.55</v>
       </c>
       <c r="H30" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I30" t="s">
         <v>41</v>
@@ -2292,28 +2325,28 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>222.76</v>
-      </c>
-      <c s="10" r="C31" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D31" t="n">
-        <v>-0.1</v>
+        <v>2001.13</v>
+      </c>
+      <c s="18" r="C31" t="n">
+        <v>3.03</v>
+      </c>
+      <c s="18" r="D31" t="n">
+        <v>0.15</v>
       </c>
       <c r="E31" t="n">
-        <v>568</v>
+        <v>865</v>
       </c>
       <c r="F31" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G31" t="n">
-        <v>0.62</v>
+        <v>711</v>
+      </c>
+      <c s="18" r="G31" t="n">
+        <v>0.55</v>
       </c>
       <c r="H31" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I31" t="s">
         <v>41</v>
@@ -2321,28 +2354,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>222.8</v>
-      </c>
-      <c s="10" r="C32" t="n">
-        <v>-0.18</v>
-      </c>
-      <c s="10" r="D32" t="n">
-        <v>-0.08</v>
+        <v>2016.01</v>
+      </c>
+      <c s="22" r="C32" t="n">
+        <v>17.91</v>
+      </c>
+      <c s="22" r="D32" t="n">
+        <v>0.89</v>
       </c>
       <c r="E32" t="n">
-        <v>568</v>
+        <v>1152</v>
       </c>
       <c r="F32" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G32" t="n">
-        <v>0.62</v>
+        <v>877</v>
+      </c>
+      <c s="22" r="G32" t="n">
+        <v>0.57</v>
       </c>
       <c r="H32" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I32" t="s">
         <v>41</v>
@@ -2350,28 +2383,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>222.76</v>
-      </c>
-      <c s="10" r="C33" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D33" t="n">
-        <v>-0.1</v>
+        <v>2016.85</v>
+      </c>
+      <c s="24" r="C33" t="n">
+        <v>18.75</v>
+      </c>
+      <c s="24" r="D33" t="n">
+        <v>0.93</v>
       </c>
       <c r="E33" t="n">
-        <v>568</v>
+        <v>1152</v>
       </c>
       <c r="F33" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G33" t="n">
-        <v>0.62</v>
+        <v>877</v>
+      </c>
+      <c s="24" r="G33" t="n">
+        <v>0.57</v>
       </c>
       <c r="H33" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I33" t="s">
         <v>41</v>
@@ -2379,28 +2412,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>222.43</v>
-      </c>
-      <c s="10" r="C34" t="n">
-        <v>-0.55</v>
-      </c>
-      <c s="10" r="D34" t="n">
-        <v>-0.25</v>
+        <v>2017.24</v>
+      </c>
+      <c s="24" r="C34" t="n">
+        <v>19.14</v>
+      </c>
+      <c s="24" r="D34" t="n">
+        <v>0.95</v>
       </c>
       <c r="E34" t="n">
-        <v>568</v>
+        <v>1152</v>
       </c>
       <c r="F34" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G34" t="n">
-        <v>0.62</v>
+        <v>877</v>
+      </c>
+      <c s="24" r="G34" t="n">
+        <v>0.57</v>
       </c>
       <c r="H34" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I34" t="s">
         <v>41</v>
@@ -2408,28 +2441,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>223.03</v>
-      </c>
-      <c s="18" r="C35" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="18" r="D35" t="n">
-        <v>0.02</v>
+        <v>2018.63</v>
+      </c>
+      <c s="24" r="C35" t="n">
+        <v>20.53</v>
+      </c>
+      <c s="24" r="D35" t="n">
+        <v>1.02</v>
       </c>
       <c r="E35" t="n">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="F35" t="n">
-        <v>394</v>
-      </c>
-      <c s="18" r="G35" t="n">
-        <v>0.62</v>
+        <v>1176</v>
+      </c>
+      <c s="24" r="G35" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I35" t="s">
         <v>41</v>
@@ -2437,28 +2470,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>222.91</v>
-      </c>
-      <c s="19" r="C36" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c s="19" r="D36" t="n">
-        <v>-0.03</v>
+        <v>2016.54</v>
+      </c>
+      <c s="24" r="C36" t="n">
+        <v>18.44</v>
+      </c>
+      <c s="24" r="D36" t="n">
+        <v>0.91</v>
       </c>
       <c r="E36" t="n">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="F36" t="n">
-        <v>394</v>
-      </c>
-      <c s="20" r="G36" t="n">
-        <v>0.62</v>
+        <v>1176</v>
+      </c>
+      <c s="24" r="G36" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I36" t="s">
         <v>41</v>
@@ -2466,28 +2499,28 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" t="n">
-        <v>222.97</v>
-      </c>
-      <c s="21" r="C37" t="n">
-        <v>-0.01</v>
-      </c>
-      <c s="22" r="D37" t="n">
-        <v>-0</v>
+        <v>2019.83</v>
+      </c>
+      <c s="26" r="C37" t="n">
+        <v>21.73</v>
+      </c>
+      <c s="26" r="D37" t="n">
+        <v>1.08</v>
       </c>
       <c r="E37" t="n">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="F37" t="n">
-        <v>394</v>
-      </c>
-      <c s="22" r="G37" t="n">
-        <v>0.62</v>
+        <v>1176</v>
+      </c>
+      <c s="26" r="G37" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I37" t="s">
         <v>41</v>
@@ -2495,28 +2528,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>25.2</v>
+        <v>62.13</v>
       </c>
       <c s="8" r="C38" t="n">
-        <v>0.15</v>
+        <v>10.63</v>
       </c>
       <c s="8" r="D38" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1583</v>
+      </c>
+      <c s="8" r="G38" t="n">
         <v>0.6</v>
       </c>
-      <c r="E38" t="n">
-        <v>2477</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.6</v>
+      <c r="H38" t="s">
+        <v>18</v>
       </c>
       <c r="I38" t="s">
         <v>37</v>
@@ -2524,28 +2557,28 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>25.2</v>
+        <v>62.13</v>
       </c>
       <c s="8" r="C39" t="n">
-        <v>0.15</v>
+        <v>10.63</v>
       </c>
       <c s="8" r="D39" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1583</v>
+      </c>
+      <c s="8" r="G39" t="n">
         <v>0.6</v>
       </c>
-      <c r="E39" t="n">
-        <v>2477</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.6</v>
+      <c r="H39" t="s">
+        <v>18</v>
       </c>
       <c r="I39" t="s">
         <v>37</v>
@@ -2553,86 +2586,86 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>24.98</v>
-      </c>
-      <c s="10" r="C40" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D40" t="n">
-        <v>-0.88</v>
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C40" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D40" t="n">
+        <v>1.47</v>
       </c>
       <c r="E40" t="n">
-        <v>449</v>
+        <v>1715</v>
       </c>
       <c r="F40" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G40" t="n">
-        <v>0.59</v>
+        <v>1153</v>
+      </c>
+      <c s="8" r="G40" t="n">
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
-        <v>24.99</v>
-      </c>
-      <c s="10" r="C41" t="n">
-        <v>-0.21</v>
-      </c>
-      <c s="10" r="D41" t="n">
-        <v>-0.84</v>
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C41" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D41" t="n">
+        <v>1.47</v>
       </c>
       <c r="E41" t="n">
-        <v>449</v>
+        <v>1715</v>
       </c>
       <c r="F41" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G41" t="n">
-        <v>0.59</v>
+        <v>1153</v>
+      </c>
+      <c s="8" r="G41" t="n">
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>25.04</v>
-      </c>
-      <c s="10" r="C42" t="n">
-        <v>-0.16</v>
-      </c>
-      <c s="10" r="D42" t="n">
-        <v>-0.64</v>
+        <v>224.43</v>
+      </c>
+      <c s="8" r="C42" t="n">
+        <v>1.45</v>
+      </c>
+      <c s="8" r="D42" t="n">
+        <v>0.65</v>
       </c>
       <c r="E42" t="n">
-        <v>449</v>
+        <v>272</v>
       </c>
       <c r="F42" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G42" t="n">
+        <v>186</v>
+      </c>
+      <c s="8" r="G42" t="n">
         <v>0.59</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I42" t="s">
         <v>41</v>
@@ -2640,28 +2673,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>25.1</v>
+        <v>222.76</v>
       </c>
       <c s="10" r="C43" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D43" t="n">
         <v>-0.1</v>
       </c>
-      <c s="10" r="D43" t="n">
-        <v>-0.4</v>
-      </c>
       <c r="E43" t="n">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="F43" t="n">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c s="11" r="G43" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I43" t="s">
         <v>41</v>
@@ -2669,28 +2702,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="n">
-        <v>25.25</v>
-      </c>
-      <c s="18" r="C44" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="18" r="D44" t="n">
-        <v>0.2</v>
+        <v>222.8</v>
+      </c>
+      <c s="10" r="C44" t="n">
+        <v>-0.18</v>
+      </c>
+      <c s="10" r="D44" t="n">
+        <v>-0.08</v>
       </c>
       <c r="E44" t="n">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="F44" t="n">
-        <v>375</v>
-      </c>
-      <c s="18" r="G44" t="n">
-        <v>0.59</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G44" t="n">
+        <v>0.62</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I44" t="s">
         <v>41</v>
@@ -2698,28 +2731,28 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="n">
-        <v>25.33</v>
-      </c>
-      <c s="20" r="C45" t="n">
-        <v>0.13</v>
-      </c>
-      <c s="20" r="D45" t="n">
-        <v>0.51</v>
+        <v>222.76</v>
+      </c>
+      <c s="10" r="C45" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D45" t="n">
+        <v>-0.1</v>
       </c>
       <c r="E45" t="n">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="F45" t="n">
-        <v>375</v>
-      </c>
-      <c s="20" r="G45" t="n">
-        <v>0.59</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G45" t="n">
+        <v>0.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I45" t="s">
         <v>41</v>
@@ -2727,28 +2760,28 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>25.25</v>
-      </c>
-      <c s="22" r="C46" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="22" r="D46" t="n">
-        <v>0.2</v>
+        <v>222.43</v>
+      </c>
+      <c s="10" r="C46" t="n">
+        <v>-0.55</v>
+      </c>
+      <c s="10" r="D46" t="n">
+        <v>-0.25</v>
       </c>
       <c r="E46" t="n">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="F46" t="n">
-        <v>375</v>
-      </c>
-      <c s="22" r="G46" t="n">
-        <v>0.59</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G46" t="n">
+        <v>0.62</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I46" t="s">
         <v>41</v>
@@ -2756,28 +2789,28 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B47" t="n">
-        <v>44.69</v>
-      </c>
-      <c s="9" r="C47" t="n">
-        <v>-1.71</v>
-      </c>
-      <c s="9" r="D47" t="n">
-        <v>-3.83</v>
+        <v>223.03</v>
+      </c>
+      <c s="14" r="C47" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="14" r="D47" t="n">
+        <v>0.02</v>
       </c>
       <c r="E47" t="n">
-        <v>255</v>
+        <v>656</v>
       </c>
       <c r="F47" t="n">
-        <v>147</v>
-      </c>
-      <c s="8" r="G47" t="n">
-        <v>0.63</v>
+        <v>394</v>
+      </c>
+      <c s="14" r="G47" t="n">
+        <v>0.62</v>
       </c>
       <c r="H47" t="n">
-        <v>2.93</v>
+        <v>1.14</v>
       </c>
       <c r="I47" t="s">
         <v>41</v>
@@ -2785,28 +2818,28 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>152.61</v>
-      </c>
-      <c s="9" r="C48" t="n">
-        <v>-2.19</v>
-      </c>
-      <c s="9" r="D48" t="n">
-        <v>-1.44</v>
+        <v>222.91</v>
+      </c>
+      <c s="15" r="C48" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c s="15" r="D48" t="n">
+        <v>-0.03</v>
       </c>
       <c r="E48" t="n">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="F48" t="n">
-        <v>414</v>
-      </c>
-      <c s="8" r="G48" t="n">
-        <v>0.59</v>
+        <v>394</v>
+      </c>
+      <c s="16" r="G48" t="n">
+        <v>0.62</v>
       </c>
       <c r="H48" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I48" t="s">
         <v>41</v>
@@ -2814,28 +2847,28 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" t="n">
-        <v>150.99</v>
-      </c>
-      <c s="10" r="C49" t="n">
-        <v>-3.81</v>
-      </c>
-      <c s="10" r="D49" t="n">
-        <v>-2.52</v>
+        <v>222.97</v>
+      </c>
+      <c s="17" r="C49" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="18" r="D49" t="n">
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>823</v>
+        <v>656</v>
       </c>
       <c r="F49" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G49" t="n">
-        <v>0.57</v>
+        <v>394</v>
+      </c>
+      <c s="18" r="G49" t="n">
+        <v>0.62</v>
       </c>
       <c r="H49" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I49" t="s">
         <v>41</v>
@@ -2843,28 +2876,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" t="n">
-        <v>150.54</v>
-      </c>
-      <c s="10" r="C50" t="n">
-        <v>-4.25</v>
-      </c>
-      <c s="10" r="D50" t="n">
-        <v>-2.82</v>
+        <v>223.05</v>
+      </c>
+      <c s="22" r="C50" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c s="22" r="D50" t="n">
+        <v>0.03</v>
       </c>
       <c r="E50" t="n">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F50" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G50" t="n">
-        <v>0.57</v>
+        <v>463</v>
+      </c>
+      <c s="22" r="G50" t="n">
+        <v>0.64</v>
       </c>
       <c r="H50" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I50" t="s">
         <v>41</v>
@@ -2872,28 +2905,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>150.46</v>
-      </c>
-      <c s="10" r="C51" t="n">
-        <v>-4.34</v>
-      </c>
-      <c s="10" r="D51" t="n">
-        <v>-2.88</v>
+        <v>223.19</v>
+      </c>
+      <c s="24" r="C51" t="n">
+        <v>0.21</v>
+      </c>
+      <c s="24" r="D51" t="n">
+        <v>0.09</v>
       </c>
       <c r="E51" t="n">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F51" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G51" t="n">
-        <v>0.57</v>
+        <v>463</v>
+      </c>
+      <c s="24" r="G51" t="n">
+        <v>0.64</v>
       </c>
       <c r="H51" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I51" t="s">
         <v>41</v>
@@ -2901,28 +2934,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" t="n">
-        <v>150.12</v>
-      </c>
-      <c s="10" r="C52" t="n">
-        <v>-4.68</v>
-      </c>
-      <c s="10" r="D52" t="n">
-        <v>-3.12</v>
+        <v>223.18</v>
+      </c>
+      <c s="24" r="C52" t="n">
+        <v>0.2</v>
+      </c>
+      <c s="24" r="D52" t="n">
+        <v>0.09</v>
       </c>
       <c r="E52" t="n">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F52" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G52" t="n">
-        <v>0.57</v>
+        <v>463</v>
+      </c>
+      <c s="24" r="G52" t="n">
+        <v>0.64</v>
       </c>
       <c r="H52" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I52" t="s">
         <v>41</v>
@@ -2930,28 +2963,28 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" t="n">
-        <v>150.31</v>
-      </c>
-      <c s="17" r="C53" t="n">
-        <v>-4.49</v>
-      </c>
-      <c s="17" r="D53" t="n">
-        <v>-2.99</v>
+        <v>223.68</v>
+      </c>
+      <c s="24" r="C53" t="n">
+        <v>0.7</v>
+      </c>
+      <c s="24" r="D53" t="n">
+        <v>0.31</v>
       </c>
       <c r="E53" t="n">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="F53" t="n">
-        <v>660</v>
-      </c>
-      <c s="18" r="G53" t="n">
-        <v>0.58</v>
+        <v>546</v>
+      </c>
+      <c s="24" r="G53" t="n">
+        <v>0.64</v>
       </c>
       <c r="H53" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I53" t="s">
         <v>41</v>
@@ -2959,28 +2992,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
-        <v>150.17</v>
-      </c>
-      <c s="19" r="C54" t="n">
-        <v>-4.63</v>
-      </c>
-      <c s="19" r="D54" t="n">
-        <v>-3.08</v>
+        <v>223.78</v>
+      </c>
+      <c s="24" r="C54" t="n">
+        <v>0.8</v>
+      </c>
+      <c s="24" r="D54" t="n">
+        <v>0.36</v>
       </c>
       <c r="E54" t="n">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="F54" t="n">
-        <v>660</v>
-      </c>
-      <c s="20" r="G54" t="n">
-        <v>0.58</v>
+        <v>546</v>
+      </c>
+      <c s="24" r="G54" t="n">
+        <v>0.64</v>
       </c>
       <c r="H54" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I54" t="s">
         <v>41</v>
@@ -2988,480 +3021,1350 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="n">
+        <v>224.41</v>
+      </c>
+      <c s="26" r="C55" t="n">
+        <v>1.43</v>
+      </c>
+      <c s="26" r="D55" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E55" t="n">
+        <v>970</v>
+      </c>
+      <c r="F55" t="n">
+        <v>546</v>
+      </c>
+      <c s="26" r="G55" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C56" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2477</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2465</v>
+      </c>
+      <c s="8" r="G56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C57" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2477</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2465</v>
+      </c>
+      <c s="8" r="G57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24.98</v>
+      </c>
+      <c s="10" r="C58" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D58" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E58" t="n">
+        <v>449</v>
+      </c>
+      <c r="F58" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G58" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="n">
+        <v>24.99</v>
+      </c>
+      <c s="10" r="C59" t="n">
+        <v>-0.21</v>
+      </c>
+      <c s="10" r="D59" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E59" t="n">
+        <v>449</v>
+      </c>
+      <c r="F59" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G59" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="n">
+        <v>25.04</v>
+      </c>
+      <c s="10" r="C60" t="n">
+        <v>-0.16</v>
+      </c>
+      <c s="10" r="D60" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="E60" t="n">
+        <v>449</v>
+      </c>
+      <c r="F60" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G60" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="n">
+        <v>25.1</v>
+      </c>
+      <c s="10" r="C61" t="n">
+        <v>-0.1</v>
+      </c>
+      <c s="10" r="D61" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>449</v>
+      </c>
+      <c r="F61" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G61" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="n">
+        <v>25.25</v>
+      </c>
+      <c s="14" r="C62" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="14" r="D62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>537</v>
+      </c>
+      <c r="F62" t="n">
+        <v>375</v>
+      </c>
+      <c s="14" r="G62" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="n">
+        <v>25.33</v>
+      </c>
+      <c s="16" r="C63" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="16" r="D63" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E63" t="n">
+        <v>537</v>
+      </c>
+      <c r="F63" t="n">
+        <v>375</v>
+      </c>
+      <c s="16" r="G63" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="n">
+        <v>25.25</v>
+      </c>
+      <c s="18" r="C64" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="18" r="D64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>537</v>
+      </c>
+      <c r="F64" t="n">
+        <v>375</v>
+      </c>
+      <c s="18" r="G64" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="n">
+        <v>25.57</v>
+      </c>
+      <c s="22" r="C65" t="n">
+        <v>0.38</v>
+      </c>
+      <c s="22" r="D65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E65" t="n">
+        <v>747</v>
+      </c>
+      <c r="F65" t="n">
+        <v>588</v>
+      </c>
+      <c s="22" r="G65" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="n">
+        <v>25.57</v>
+      </c>
+      <c s="24" r="C66" t="n">
+        <v>0.38</v>
+      </c>
+      <c s="24" r="D66" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E66" t="n">
+        <v>747</v>
+      </c>
+      <c r="F66" t="n">
+        <v>588</v>
+      </c>
+      <c s="24" r="G66" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="n">
+        <v>25.59</v>
+      </c>
+      <c s="24" r="C67" t="n">
+        <v>0.39</v>
+      </c>
+      <c s="24" r="D67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E67" t="n">
+        <v>747</v>
+      </c>
+      <c r="F67" t="n">
+        <v>588</v>
+      </c>
+      <c s="24" r="G67" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="n">
+        <v>25.19</v>
+      </c>
+      <c s="23" r="C68" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="23" r="D68" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E68" t="n">
+        <v>913</v>
+      </c>
+      <c r="F68" t="n">
+        <v>727</v>
+      </c>
+      <c s="24" r="G68" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="n">
+        <v>25.16</v>
+      </c>
+      <c s="23" r="C69" t="n">
+        <v>-0.04</v>
+      </c>
+      <c s="23" r="D69" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E69" t="n">
+        <v>913</v>
+      </c>
+      <c r="F69" t="n">
+        <v>727</v>
+      </c>
+      <c s="24" r="G69" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="n">
+        <v>25.33</v>
+      </c>
+      <c s="26" r="C70" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="26" r="D70" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E70" t="n">
+        <v>913</v>
+      </c>
+      <c r="F70" t="n">
+        <v>727</v>
+      </c>
+      <c s="26" r="G70" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="n">
+        <v>44.69</v>
+      </c>
+      <c s="9" r="C71" t="n">
+        <v>-1.71</v>
+      </c>
+      <c s="9" r="D71" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="E71" t="n">
+        <v>255</v>
+      </c>
+      <c r="F71" t="n">
+        <v>147</v>
+      </c>
+      <c s="8" r="G71" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
         <v>13</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B72" t="n">
+        <v>152.61</v>
+      </c>
+      <c s="9" r="C72" t="n">
+        <v>-2.19</v>
+      </c>
+      <c s="9" r="D72" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E72" t="n">
+        <v>599</v>
+      </c>
+      <c r="F72" t="n">
+        <v>414</v>
+      </c>
+      <c s="8" r="G72" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="n">
+        <v>150.99</v>
+      </c>
+      <c s="10" r="C73" t="n">
+        <v>-3.81</v>
+      </c>
+      <c s="10" r="D73" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="E73" t="n">
+        <v>823</v>
+      </c>
+      <c r="F73" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G73" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>150.54</v>
+      </c>
+      <c s="10" r="C74" t="n">
+        <v>-4.25</v>
+      </c>
+      <c s="10" r="D74" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="E74" t="n">
+        <v>823</v>
+      </c>
+      <c r="F74" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G74" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="n">
+        <v>150.46</v>
+      </c>
+      <c s="10" r="C75" t="n">
+        <v>-4.34</v>
+      </c>
+      <c s="10" r="D75" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E75" t="n">
+        <v>823</v>
+      </c>
+      <c r="F75" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G75" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="n">
+        <v>150.12</v>
+      </c>
+      <c s="10" r="C76" t="n">
+        <v>-4.68</v>
+      </c>
+      <c s="10" r="D76" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="E76" t="n">
+        <v>823</v>
+      </c>
+      <c r="F76" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G76" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="n">
+        <v>150.31</v>
+      </c>
+      <c s="13" r="C77" t="n">
+        <v>-4.49</v>
+      </c>
+      <c s="13" r="D77" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="E77" t="n">
+        <v>916</v>
+      </c>
+      <c r="F77" t="n">
+        <v>660</v>
+      </c>
+      <c s="14" r="G77" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="n">
+        <v>150.17</v>
+      </c>
+      <c s="15" r="C78" t="n">
+        <v>-4.63</v>
+      </c>
+      <c s="15" r="D78" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="E78" t="n">
+        <v>916</v>
+      </c>
+      <c r="F78" t="n">
+        <v>660</v>
+      </c>
+      <c s="16" r="G78" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="n">
         <v>150.19</v>
       </c>
-      <c s="21" r="C55" t="n">
+      <c s="17" r="C79" t="n">
         <v>-4.61</v>
       </c>
-      <c s="21" r="D55" t="n">
+      <c s="17" r="D79" t="n">
         <v>-3.07</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E79" t="n">
         <v>916</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F79" t="n">
         <v>660</v>
       </c>
-      <c s="22" r="G55" t="n">
+      <c s="18" r="G79" t="n">
         <v>0.58</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H79" t="n">
         <v>1.13</v>
       </c>
-      <c r="I55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c s="6" r="C56" t="n"/>
-      <c s="6" r="D56" t="n"/>
-      <c s="5" r="G56" t="n"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c s="6" r="C57" t="n"/>
-      <c s="6" r="D57" t="n"/>
-      <c s="6" r="G57" t="n"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c s="7" r="C58" t="n"/>
-      <c s="7" r="D58" t="n"/>
-      <c s="7" r="G58" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c s="6" r="C59" t="n"/>
-      <c s="6" r="D59" t="n"/>
-      <c s="5" r="G59" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c s="6" r="C60" t="n"/>
-      <c s="6" r="D60" t="n"/>
-      <c s="6" r="G60" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c s="6" r="C61" t="n"/>
-      <c s="6" r="D61" t="n"/>
-      <c s="6" r="G61" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c s="5" r="C62" t="n"/>
-      <c s="5" r="D62" t="n"/>
-      <c s="6" r="G62" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c s="5" r="C63" t="n"/>
-      <c s="5" r="D63" t="n"/>
-      <c s="6" r="G63" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c s="5" r="C64" t="n"/>
-      <c s="5" r="D64" t="n"/>
-      <c s="5" r="G64" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c s="6" r="C65" t="n"/>
-      <c s="6" r="D65" t="n"/>
-      <c s="6" r="G65" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c s="6" r="C66" t="n"/>
-      <c s="6" r="D66" t="n"/>
-      <c s="6" r="G66" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c s="7" r="C67" t="n"/>
-      <c s="7" r="D67" t="n"/>
-      <c s="7" r="G67" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c s="5" r="C68" t="n"/>
-      <c s="5" r="D68" t="n"/>
-      <c s="5" r="G68" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c s="6" r="C69" t="n"/>
-      <c s="6" r="D69" t="n"/>
-      <c s="5" r="G69" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c s="6" r="C70" t="n"/>
-      <c s="6" r="D70" t="n"/>
-      <c s="6" r="G70" t="n"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c s="6" r="C71" t="n"/>
-      <c s="6" r="D71" t="n"/>
-      <c s="6" r="G71" t="n"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c s="5" r="C72" t="n"/>
-      <c s="5" r="D72" t="n"/>
-      <c s="6" r="G72" t="n"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c s="6" r="C73" t="n"/>
-      <c s="6" r="D73" t="n"/>
-      <c s="6" r="G73" t="n"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c s="7" r="C74" t="n"/>
-      <c s="7" r="D74" t="n"/>
-      <c s="7" r="G74" t="n"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c s="5" r="C75" t="n"/>
-      <c s="5" r="D75" t="n"/>
-      <c s="6" r="G75" t="n"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c s="6" r="C76" t="n"/>
-      <c s="6" r="D76" t="n"/>
-      <c s="5" r="G76" t="n"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c s="6" r="C77" t="n"/>
-      <c s="6" r="D77" t="n"/>
-      <c s="6" r="G77" t="n"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c s="6" r="C78" t="n"/>
-      <c s="6" r="D78" t="n"/>
-      <c s="5" r="G78" t="n"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c s="5" r="C79" t="n"/>
-      <c s="5" r="D79" t="n"/>
-      <c s="6" r="G79" t="n"/>
+      <c r="I79" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="80" spans="1:9">
-      <c s="1" r="C80" t="n"/>
-      <c s="1" r="D80" t="n"/>
-      <c s="2" r="G80" t="n"/>
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="n">
+        <v>151.79</v>
+      </c>
+      <c s="21" r="C80" t="n">
+        <v>-3.01</v>
+      </c>
+      <c s="21" r="D80" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F80" t="n">
+        <v>736</v>
+      </c>
+      <c s="22" r="G80" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="81" spans="1:9">
-      <c s="2" r="C81" t="n"/>
-      <c s="2" r="D81" t="n"/>
-      <c s="2" r="G81" t="n"/>
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="n">
+        <v>152.28</v>
+      </c>
+      <c s="23" r="C81" t="n">
+        <v>-2.52</v>
+      </c>
+      <c s="23" r="D81" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F81" t="n">
+        <v>736</v>
+      </c>
+      <c s="24" r="G81" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
-      <c s="1" r="C82" t="n"/>
-      <c s="1" r="D82" t="n"/>
-      <c s="2" r="G82" t="n"/>
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="n">
+        <v>152.03</v>
+      </c>
+      <c s="23" r="C82" t="n">
+        <v>-2.77</v>
+      </c>
+      <c s="23" r="D82" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F82" t="n">
+        <v>736</v>
+      </c>
+      <c s="24" r="G82" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
-      <c s="2" r="C83" t="n"/>
-      <c s="2" r="D83" t="n"/>
-      <c s="2" r="G83" t="n"/>
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="n">
+        <v>152.02</v>
+      </c>
+      <c s="23" r="C83" t="n">
+        <v>-2.78</v>
+      </c>
+      <c s="23" r="D83" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F83" t="n">
+        <v>787</v>
+      </c>
+      <c s="24" r="G83" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
-      <c s="2" r="C84" t="n"/>
-      <c s="2" r="D84" t="n"/>
-      <c s="2" r="G84" t="n"/>
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="n">
+        <v>151.68</v>
+      </c>
+      <c s="23" r="C84" t="n">
+        <v>-3.12</v>
+      </c>
+      <c s="23" r="D84" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F84" t="n">
+        <v>787</v>
+      </c>
+      <c s="24" r="G84" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
-      <c s="2" r="C85" t="n"/>
-      <c s="2" r="D85" t="n"/>
-      <c s="2" r="G85" t="n"/>
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="n">
+        <v>151.82</v>
+      </c>
+      <c s="25" r="C85" t="n">
+        <v>-2.98</v>
+      </c>
+      <c s="25" r="D85" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F85" t="n">
+        <v>787</v>
+      </c>
+      <c s="26" r="G85" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
-      <c s="1" r="C86" t="n"/>
-      <c s="1" r="D86" t="n"/>
-      <c s="2" r="G86" t="n"/>
+      <c s="6" r="C86" t="n"/>
+      <c s="6" r="D86" t="n"/>
+      <c s="5" r="G86" t="n"/>
     </row>
     <row r="87" spans="1:9">
-      <c s="3" r="C87" t="n"/>
-      <c s="3" r="D87" t="n"/>
-      <c s="4" r="G87" t="n"/>
+      <c s="6" r="C87" t="n"/>
+      <c s="6" r="D87" t="n"/>
+      <c s="6" r="G87" t="n"/>
     </row>
     <row r="88" spans="1:9">
-      <c s="4" r="C88" t="n"/>
-      <c s="4" r="D88" t="n"/>
-      <c s="4" r="G88" t="n"/>
+      <c s="7" r="C88" t="n"/>
+      <c s="7" r="D88" t="n"/>
+      <c s="7" r="G88" t="n"/>
     </row>
     <row r="89" spans="1:9">
-      <c s="3" r="C89" t="n"/>
-      <c s="3" r="D89" t="n"/>
-      <c s="3" r="G89" t="n"/>
+      <c s="6" r="C89" t="n"/>
+      <c s="6" r="D89" t="n"/>
+      <c s="5" r="G89" t="n"/>
     </row>
     <row r="90" spans="1:9">
-      <c s="3" r="C90" t="n"/>
-      <c s="3" r="D90" t="n"/>
-      <c s="3" r="G90" t="n"/>
+      <c s="6" r="C90" t="n"/>
+      <c s="6" r="D90" t="n"/>
+      <c s="6" r="G90" t="n"/>
     </row>
     <row r="91" spans="1:9">
-      <c s="4" r="C91" t="n"/>
-      <c s="4" r="D91" t="n"/>
-      <c s="4" r="G91" t="n"/>
+      <c s="6" r="C91" t="n"/>
+      <c s="6" r="D91" t="n"/>
+      <c s="6" r="G91" t="n"/>
     </row>
     <row r="92" spans="1:9">
-      <c s="4" r="C92" t="n"/>
-      <c s="4" r="D92" t="n"/>
-      <c s="4" r="G92" t="n"/>
+      <c s="5" r="C92" t="n"/>
+      <c s="5" r="D92" t="n"/>
+      <c s="6" r="G92" t="n"/>
     </row>
     <row r="93" spans="1:9">
-      <c s="4" r="C93" t="n"/>
-      <c s="4" r="D93" t="n"/>
-      <c s="4" r="G93" t="n"/>
+      <c s="5" r="C93" t="n"/>
+      <c s="5" r="D93" t="n"/>
+      <c s="6" r="G93" t="n"/>
     </row>
     <row r="94" spans="1:9">
-      <c s="3" r="C94" t="n"/>
-      <c s="3" r="D94" t="n"/>
-      <c s="3" r="G94" t="n"/>
+      <c s="5" r="C94" t="n"/>
+      <c s="5" r="D94" t="n"/>
+      <c s="5" r="G94" t="n"/>
     </row>
     <row r="95" spans="1:9">
-      <c s="4" r="C95" t="n"/>
-      <c s="4" r="D95" t="n"/>
-      <c s="3" r="G95" t="n"/>
+      <c s="6" r="C95" t="n"/>
+      <c s="6" r="D95" t="n"/>
+      <c s="6" r="G95" t="n"/>
     </row>
     <row r="96" spans="1:9">
-      <c s="4" r="C96" t="n"/>
-      <c s="4" r="D96" t="n"/>
-      <c s="3" r="G96" t="n"/>
+      <c s="6" r="C96" t="n"/>
+      <c s="6" r="D96" t="n"/>
+      <c s="6" r="G96" t="n"/>
     </row>
     <row r="97" spans="1:9">
-      <c s="4" r="C97" t="n"/>
-      <c s="4" r="D97" t="n"/>
-      <c s="4" r="G97" t="n"/>
+      <c s="7" r="C97" t="n"/>
+      <c s="7" r="D97" t="n"/>
+      <c s="7" r="G97" t="n"/>
     </row>
     <row r="98" spans="1:9">
-      <c s="4" r="C98" t="n"/>
-      <c s="4" r="D98" t="n"/>
-      <c s="3" r="G98" t="n"/>
+      <c s="5" r="C98" t="n"/>
+      <c s="5" r="D98" t="n"/>
+      <c s="5" r="G98" t="n"/>
     </row>
     <row r="99" spans="1:9">
-      <c s="4" r="C99" t="n"/>
-      <c s="4" r="D99" t="n"/>
-      <c s="4" r="G99" t="n"/>
+      <c s="6" r="C99" t="n"/>
+      <c s="6" r="D99" t="n"/>
+      <c s="5" r="G99" t="n"/>
     </row>
     <row r="100" spans="1:9">
-      <c s="4" r="C100" t="n"/>
-      <c s="4" r="D100" t="n"/>
-      <c s="4" r="G100" t="n"/>
+      <c s="6" r="C100" t="n"/>
+      <c s="6" r="D100" t="n"/>
+      <c s="6" r="G100" t="n"/>
     </row>
     <row r="101" spans="1:9">
-      <c s="3" r="C101" t="n"/>
-      <c s="3" r="D101" t="n"/>
-      <c s="4" r="G101" t="n"/>
+      <c s="6" r="C101" t="n"/>
+      <c s="6" r="D101" t="n"/>
+      <c s="6" r="G101" t="n"/>
     </row>
     <row r="102" spans="1:9">
-      <c s="3" r="C102" t="n"/>
-      <c s="3" r="D102" t="n"/>
-      <c s="4" r="G102" t="n"/>
+      <c s="5" r="C102" t="n"/>
+      <c s="5" r="D102" t="n"/>
+      <c s="6" r="G102" t="n"/>
     </row>
     <row r="103" spans="1:9">
-      <c s="3" r="C103" t="n"/>
-      <c s="3" r="D103" t="n"/>
-      <c s="3" r="G103" t="n"/>
+      <c s="6" r="C103" t="n"/>
+      <c s="6" r="D103" t="n"/>
+      <c s="6" r="G103" t="n"/>
     </row>
     <row r="104" spans="1:9">
-      <c s="4" r="C104" t="n"/>
-      <c s="4" r="D104" t="n"/>
-      <c s="4" r="G104" t="n"/>
+      <c s="7" r="C104" t="n"/>
+      <c s="7" r="D104" t="n"/>
+      <c s="7" r="G104" t="n"/>
     </row>
     <row r="105" spans="1:9">
-      <c s="4" r="C105" t="n"/>
-      <c s="4" r="D105" t="n"/>
-      <c s="4" r="G105" t="n"/>
+      <c s="5" r="C105" t="n"/>
+      <c s="5" r="D105" t="n"/>
+      <c s="6" r="G105" t="n"/>
     </row>
     <row r="106" spans="1:9">
-      <c s="3" r="C106" t="n"/>
-      <c s="3" r="D106" t="n"/>
-      <c s="3" r="G106" t="n"/>
+      <c s="6" r="C106" t="n"/>
+      <c s="6" r="D106" t="n"/>
+      <c s="5" r="G106" t="n"/>
     </row>
     <row r="107" spans="1:9">
-      <c s="4" r="C107" t="n"/>
-      <c s="4" r="D107" t="n"/>
-      <c s="3" r="G107" t="n"/>
+      <c s="6" r="C107" t="n"/>
+      <c s="6" r="D107" t="n"/>
+      <c s="6" r="G107" t="n"/>
     </row>
     <row r="108" spans="1:9">
-      <c s="4" r="C108" t="n"/>
-      <c s="4" r="D108" t="n"/>
-      <c s="4" r="G108" t="n"/>
+      <c s="6" r="C108" t="n"/>
+      <c s="6" r="D108" t="n"/>
+      <c s="5" r="G108" t="n"/>
     </row>
     <row r="109" spans="1:9">
-      <c s="4" r="C109" t="n"/>
-      <c s="4" r="D109" t="n"/>
-      <c s="4" r="G109" t="n"/>
+      <c s="5" r="C109" t="n"/>
+      <c s="5" r="D109" t="n"/>
+      <c s="6" r="G109" t="n"/>
     </row>
     <row r="110" spans="1:9">
-      <c s="3" r="C110" t="n"/>
-      <c s="3" r="D110" t="n"/>
-      <c s="4" r="G110" t="n"/>
+      <c s="1" r="C110" t="n"/>
+      <c s="1" r="D110" t="n"/>
+      <c s="2" r="G110" t="n"/>
     </row>
     <row r="111" spans="1:9">
-      <c s="4" r="C111" t="n"/>
-      <c s="4" r="D111" t="n"/>
-      <c s="4" r="G111" t="n"/>
+      <c s="2" r="C111" t="n"/>
+      <c s="2" r="D111" t="n"/>
+      <c s="2" r="G111" t="n"/>
     </row>
     <row r="112" spans="1:9">
-      <c s="3" r="C112" t="n"/>
-      <c s="3" r="D112" t="n"/>
-      <c s="4" r="G112" t="n"/>
+      <c s="1" r="C112" t="n"/>
+      <c s="1" r="D112" t="n"/>
+      <c s="2" r="G112" t="n"/>
     </row>
     <row r="113" spans="1:9">
-      <c s="4" r="C113" t="n"/>
-      <c s="4" r="D113" t="n"/>
-      <c s="3" r="G113" t="n"/>
+      <c s="2" r="C113" t="n"/>
+      <c s="2" r="D113" t="n"/>
+      <c s="2" r="G113" t="n"/>
     </row>
     <row r="114" spans="1:9">
-      <c s="4" r="C114" t="n"/>
-      <c s="4" r="D114" t="n"/>
-      <c s="4" r="G114" t="n"/>
+      <c s="2" r="C114" t="n"/>
+      <c s="2" r="D114" t="n"/>
+      <c s="2" r="G114" t="n"/>
     </row>
     <row r="115" spans="1:9">
-      <c s="4" r="C115" t="n"/>
-      <c s="4" r="D115" t="n"/>
-      <c s="3" r="G115" t="n"/>
+      <c s="2" r="C115" t="n"/>
+      <c s="2" r="D115" t="n"/>
+      <c s="2" r="G115" t="n"/>
     </row>
     <row r="116" spans="1:9">
-      <c s="3" r="C116" t="n"/>
-      <c s="3" r="D116" t="n"/>
-      <c s="4" r="G116" t="n"/>
+      <c s="1" r="C116" t="n"/>
+      <c s="1" r="D116" t="n"/>
+      <c s="2" r="G116" t="n"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" t="s">
+      <c s="3" r="C117" t="n"/>
+      <c s="3" r="D117" t="n"/>
+      <c s="4" r="G117" t="n"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c s="4" r="C118" t="n"/>
+      <c s="4" r="D118" t="n"/>
+      <c s="4" r="G118" t="n"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c s="3" r="C119" t="n"/>
+      <c s="3" r="D119" t="n"/>
+      <c s="3" r="G119" t="n"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c s="3" r="C120" t="n"/>
+      <c s="3" r="D120" t="n"/>
+      <c s="3" r="G120" t="n"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c s="4" r="C121" t="n"/>
+      <c s="4" r="D121" t="n"/>
+      <c s="4" r="G121" t="n"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c s="4" r="C122" t="n"/>
+      <c s="4" r="D122" t="n"/>
+      <c s="4" r="G122" t="n"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c s="4" r="C123" t="n"/>
+      <c s="4" r="D123" t="n"/>
+      <c s="4" r="G123" t="n"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c s="3" r="C124" t="n"/>
+      <c s="3" r="D124" t="n"/>
+      <c s="3" r="G124" t="n"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c s="4" r="C125" t="n"/>
+      <c s="4" r="D125" t="n"/>
+      <c s="3" r="G125" t="n"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c s="4" r="C126" t="n"/>
+      <c s="4" r="D126" t="n"/>
+      <c s="3" r="G126" t="n"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c s="4" r="C127" t="n"/>
+      <c s="4" r="D127" t="n"/>
+      <c s="4" r="G127" t="n"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c s="4" r="C128" t="n"/>
+      <c s="4" r="D128" t="n"/>
+      <c s="3" r="G128" t="n"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c s="4" r="C129" t="n"/>
+      <c s="4" r="D129" t="n"/>
+      <c s="4" r="G129" t="n"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c s="4" r="C130" t="n"/>
+      <c s="4" r="D130" t="n"/>
+      <c s="4" r="G130" t="n"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c s="3" r="C131" t="n"/>
+      <c s="3" r="D131" t="n"/>
+      <c s="4" r="G131" t="n"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c s="3" r="C132" t="n"/>
+      <c s="3" r="D132" t="n"/>
+      <c s="4" r="G132" t="n"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c s="3" r="C133" t="n"/>
+      <c s="3" r="D133" t="n"/>
+      <c s="3" r="G133" t="n"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c s="4" r="C134" t="n"/>
+      <c s="4" r="D134" t="n"/>
+      <c s="4" r="G134" t="n"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c s="4" r="C135" t="n"/>
+      <c s="4" r="D135" t="n"/>
+      <c s="4" r="G135" t="n"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c s="3" r="C136" t="n"/>
+      <c s="3" r="D136" t="n"/>
+      <c s="3" r="G136" t="n"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c s="4" r="C137" t="n"/>
+      <c s="4" r="D137" t="n"/>
+      <c s="3" r="G137" t="n"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c s="4" r="C138" t="n"/>
+      <c s="4" r="D138" t="n"/>
+      <c s="4" r="G138" t="n"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c s="4" r="C139" t="n"/>
+      <c s="4" r="D139" t="n"/>
+      <c s="4" r="G139" t="n"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c s="3" r="C140" t="n"/>
+      <c s="3" r="D140" t="n"/>
+      <c s="4" r="G140" t="n"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c s="4" r="C141" t="n"/>
+      <c s="4" r="D141" t="n"/>
+      <c s="4" r="G141" t="n"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c s="3" r="C142" t="n"/>
+      <c s="3" r="D142" t="n"/>
+      <c s="4" r="G142" t="n"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c s="4" r="C143" t="n"/>
+      <c s="4" r="D143" t="n"/>
+      <c s="3" r="G143" t="n"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c s="4" r="C144" t="n"/>
+      <c s="4" r="D144" t="n"/>
+      <c s="4" r="G144" t="n"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c s="4" r="C145" t="n"/>
+      <c s="4" r="D145" t="n"/>
+      <c s="3" r="G145" t="n"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c s="3" r="C146" t="n"/>
+      <c s="3" r="D146" t="n"/>
+      <c s="4" r="G146" t="n"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
         <v>9</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B147" t="n">
         <v>12.74</v>
       </c>
-      <c s="8" r="C117" t="n">
+      <c s="8" r="C147" t="n">
         <v>1.66</v>
       </c>
-      <c s="8" r="D117" t="n">
+      <c s="8" r="D147" t="n">
         <v>13.03</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E147" t="n">
         <v>2240</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F147" t="n">
         <v>1400</v>
       </c>
-      <c s="8" r="G117" t="n">
+      <c s="8" r="G147" t="n">
         <v>0.62</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H147" t="n">
         <v>3.95</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I147" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C148" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D148" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2724</v>
+      </c>
+      <c s="8" r="G148" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I148" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" t="n">
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C149" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D149" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1583</v>
+      </c>
+      <c s="8" r="G149" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H149" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
         <v>11</v>
       </c>
-      <c r="B118" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C118" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D118" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2791</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G118" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="B150" t="n">
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C150" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D150" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1153</v>
+      </c>
+      <c s="8" r="G150" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I150" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C119" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D119" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2390</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G119" t="n">
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C151" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D151" t="n">
         <v>0.6</v>
       </c>
-      <c r="H119" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C120" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D120" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1715</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G120" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="I120" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C121" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D121" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E121" t="n">
+      <c r="E151" t="n">
         <v>2477</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F151" t="n">
         <v>2465</v>
       </c>
-      <c s="8" r="G121" t="n">
+      <c s="8" r="G151" t="n">
         <v>0.5</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H151" t="n">
         <v>3.6</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I151" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3477,78 +4380,205 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c s="12" r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c s="19" r="B2" t="n"/>
+      <c s="20" r="C2" t="n"/>
+      <c s="19" r="D2" t="n"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c s="12" r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c s="19" r="B3" t="n"/>
+      <c s="19" r="C3" t="n"/>
+      <c s="20" r="E3" t="n"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c s="19" r="D4" t="n"/>
+      <c s="19" r="E4" t="n"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c s="12" r="A5" t="s">
         <v>10</v>
       </c>
-      <c s="13" r="B2" t="n"/>
-      <c s="14" r="C2" t="n"/>
-      <c s="15" r="D2" t="n"/>
-      <c s="16" r="E2" t="n"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c s="20" r="E5" t="n"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c s="12" r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c s="19" r="B2" t="n"/>
+      <c s="20" r="C2" t="n"/>
+      <c s="19" r="D2" t="n"/>
+    </row>
+    <row r="3" spans="1:5">
       <c s="12" r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c s="19" r="B3" t="n"/>
+      <c s="19" r="C3" t="n"/>
+      <c s="20" r="E3" t="n"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c s="19" r="D4" t="n"/>
+      <c s="19" r="E4" t="n"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c s="12" r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c s="20" r="E5" t="n"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c s="13" r="B3" t="n"/>
-      <c s="15" r="C3" t="n"/>
-      <c s="14" r="E3" t="n"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c s="12" r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c s="19" r="B2" t="n"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c s="12" r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c s="19" r="B3" t="n"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c s="16" r="C4" t="n"/>
-      <c s="15" r="D4" t="n"/>
-      <c s="15" r="E4" t="n"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c s="12" r="A5" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c s="16" r="D5" t="n"/>
-      <c s="14" r="E5" t="n"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:3"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Stock_Parser/demo.xlsx
+++ b/Stock_Parser/demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily Stock List" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -53,13 +53,13 @@
     <t>AMZN</t>
   </si>
   <si>
+    <t>CRM</t>
+  </si>
+  <si>
     <t>AAPL</t>
   </si>
   <si>
     <t>AMD</t>
-  </si>
-  <si>
-    <t>CRM</t>
   </si>
   <si>
     <t>FB</t>
@@ -149,7 +149,25 @@
     <t>Stock/Date</t>
   </si>
   <si>
+    <t>25.35 (0.59%)</t>
+  </si>
+  <si>
     <t>Goog</t>
+  </si>
+  <si>
+    <t>1249.43 (0.01%)</t>
+  </si>
+  <si>
+    <t>11.42 (-11.56%)</t>
+  </si>
+  <si>
+    <t>2022.94 (1.23%)</t>
+  </si>
+  <si>
+    <t>151.95 (-1.88%)</t>
+  </si>
+  <si>
+    <t>225.8 (1.25%)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -285,6 +303,26 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <color rgb="00FF0000"/>
     </font>
     <font>
@@ -311,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -339,6 +377,10 @@
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -658,22 +700,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>11.96</v>
-      </c>
-      <c s="25" r="C4" t="n">
-        <v>-0.79</v>
-      </c>
-      <c s="25" r="D4" t="n">
-        <v>-6.61</v>
+        <v>11.44</v>
+      </c>
+      <c s="29" r="C4" t="n">
+        <v>-1.3</v>
+      </c>
+      <c s="29" r="D4" t="n">
+        <v>-11.36</v>
       </c>
       <c r="E4" t="n">
-        <v>1266</v>
+        <v>1569</v>
       </c>
       <c r="F4" t="n">
-        <v>690</v>
-      </c>
-      <c s="26" r="G4" t="n">
-        <v>0.65</v>
+        <v>1045</v>
+      </c>
+      <c s="30" r="G4" t="n">
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.95</v>
@@ -684,21 +726,21 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2019.83</v>
-      </c>
-      <c s="26" r="C5" t="n">
-        <v>21.73</v>
-      </c>
-      <c s="26" r="D5" t="n">
-        <v>1.08</v>
+        <v>2023.24</v>
+      </c>
+      <c s="30" r="C5" t="n">
+        <v>25.14</v>
+      </c>
+      <c s="30" r="D5" t="n">
+        <v>1.24</v>
       </c>
       <c r="E5" t="n">
-        <v>1526</v>
+        <v>2048</v>
       </c>
       <c r="F5" t="n">
-        <v>1176</v>
-      </c>
-      <c s="26" r="G5" t="n">
+        <v>1613</v>
+      </c>
+      <c s="30" r="G5" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="H5" t="n">
@@ -710,25 +752,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>224.41</v>
-      </c>
-      <c s="26" r="C6" t="n">
-        <v>1.43</v>
-      </c>
-      <c s="26" r="D6" t="n">
-        <v>0.64</v>
+        <v>151.95</v>
+      </c>
+      <c s="29" r="C6" t="n">
+        <v>-2.85</v>
+      </c>
+      <c s="29" r="D6" t="n">
+        <v>-1.88</v>
       </c>
       <c r="E6" t="n">
-        <v>970</v>
+        <v>1272</v>
       </c>
       <c r="F6" t="n">
-        <v>546</v>
-      </c>
-      <c s="26" r="G6" t="n">
-        <v>0.64</v>
+        <v>870</v>
+      </c>
+      <c s="30" r="G6" t="n">
+        <v>0.59</v>
       </c>
       <c r="H6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -736,25 +778,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>25.33</v>
-      </c>
-      <c s="26" r="C7" t="n">
-        <v>0.13</v>
-      </c>
-      <c s="26" r="D7" t="n">
-        <v>0.51</v>
+        <v>225.8</v>
+      </c>
+      <c s="30" r="C7" t="n">
+        <v>2.82</v>
+      </c>
+      <c s="30" r="D7" t="n">
+        <v>1.25</v>
       </c>
       <c r="E7" t="n">
-        <v>913</v>
+        <v>1633</v>
       </c>
       <c r="F7" t="n">
-        <v>727</v>
-      </c>
-      <c s="26" r="G7" t="n">
-        <v>0.5600000000000001</v>
+        <v>870</v>
+      </c>
+      <c s="30" r="G7" t="n">
+        <v>0.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -762,30 +804,30 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>151.82</v>
-      </c>
-      <c s="25" r="C8" t="n">
-        <v>-2.98</v>
-      </c>
-      <c s="25" r="D8" t="n">
-        <v>-1.96</v>
+        <v>25.34</v>
+      </c>
+      <c s="30" r="C8" t="n">
+        <v>0.14</v>
+      </c>
+      <c s="30" r="D8" t="n">
+        <v>0.55</v>
       </c>
       <c r="E8" t="n">
-        <v>1112</v>
+        <v>1211</v>
       </c>
       <c r="F8" t="n">
-        <v>787</v>
-      </c>
-      <c s="26" r="G8" t="n">
-        <v>0.59</v>
+        <v>932</v>
+      </c>
+      <c s="30" r="G8" t="n">
+        <v>0.57</v>
       </c>
       <c r="H8" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>222.98</v>
@@ -967,7 +1009,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="n">
         <v>154.8</v>
@@ -1123,7 +1165,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
         <v>25.2</v>
@@ -1445,7 +1487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H13" sqref="H13"/>
@@ -2064,86 +2106,86 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C22" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D22" t="n">
-        <v>3.27</v>
+        <v>11.56</v>
+      </c>
+      <c s="25" r="C22" t="n">
+        <v>-1.18</v>
+      </c>
+      <c s="25" r="D22" t="n">
+        <v>-10.21</v>
       </c>
       <c r="E22" t="n">
-        <v>2791</v>
+        <v>1373</v>
       </c>
       <c r="F22" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G22" t="n">
-        <v>0.51</v>
+        <v>813</v>
+      </c>
+      <c s="26" r="G22" t="n">
+        <v>0.63</v>
       </c>
       <c r="H22" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C23" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D23" t="n">
-        <v>3.27</v>
+        <v>11.57</v>
+      </c>
+      <c s="25" r="C23" t="n">
+        <v>-1.17</v>
+      </c>
+      <c s="25" r="D23" t="n">
+        <v>-10.11</v>
       </c>
       <c r="E23" t="n">
-        <v>2791</v>
+        <v>1373</v>
       </c>
       <c r="F23" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G23" t="n">
-        <v>0.51</v>
+        <v>813</v>
+      </c>
+      <c s="26" r="G23" t="n">
+        <v>0.63</v>
       </c>
       <c r="H23" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>2005.03</v>
-      </c>
-      <c s="8" r="C24" t="n">
-        <v>6.93</v>
-      </c>
-      <c s="8" r="D24" t="n">
-        <v>0.35</v>
+        <v>11.54</v>
+      </c>
+      <c s="25" r="C24" t="n">
+        <v>-1.2</v>
+      </c>
+      <c s="25" r="D24" t="n">
+        <v>-10.4</v>
       </c>
       <c r="E24" t="n">
-        <v>322</v>
+        <v>1373</v>
       </c>
       <c r="F24" t="n">
-        <v>320</v>
-      </c>
-      <c s="8" r="G24" t="n">
-        <v>0.5</v>
+        <v>813</v>
+      </c>
+      <c s="26" r="G24" t="n">
+        <v>0.63</v>
       </c>
       <c r="H24" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I24" t="s">
         <v>41</v>
@@ -2151,28 +2193,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="n">
-        <v>1999.03</v>
-      </c>
-      <c s="11" r="C25" t="n">
-        <v>0.93</v>
-      </c>
-      <c s="11" r="D25" t="n">
-        <v>0.05</v>
+        <v>11.57</v>
+      </c>
+      <c s="27" r="C25" t="n">
+        <v>-1.17</v>
+      </c>
+      <c s="27" r="D25" t="n">
+        <v>-10.11</v>
       </c>
       <c r="E25" t="n">
-        <v>740</v>
+        <v>1373</v>
       </c>
       <c r="F25" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G25" t="n">
-        <v>0.55</v>
+        <v>813</v>
+      </c>
+      <c s="28" r="G25" t="n">
+        <v>0.63</v>
       </c>
       <c r="H25" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I25" t="s">
         <v>41</v>
@@ -2180,28 +2222,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>1997.49</v>
-      </c>
-      <c s="10" r="C26" t="n">
-        <v>-0.61</v>
-      </c>
-      <c s="10" r="D26" t="n">
-        <v>-0.03</v>
+        <v>11.57</v>
+      </c>
+      <c s="27" r="C26" t="n">
+        <v>-1.17</v>
+      </c>
+      <c s="27" r="D26" t="n">
+        <v>-10.11</v>
       </c>
       <c r="E26" t="n">
-        <v>740</v>
+        <v>1373</v>
       </c>
       <c r="F26" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G26" t="n">
-        <v>0.55</v>
+        <v>813</v>
+      </c>
+      <c s="28" r="G26" t="n">
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I26" t="s">
         <v>41</v>
@@ -2209,28 +2251,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
-        <v>1997.93</v>
-      </c>
-      <c s="10" r="C27" t="n">
-        <v>-0.17</v>
-      </c>
-      <c s="10" r="D27" t="n">
-        <v>-0.01</v>
+        <v>11.43</v>
+      </c>
+      <c s="27" r="C27" t="n">
+        <v>-1.31</v>
+      </c>
+      <c s="27" r="D27" t="n">
+        <v>-11.46</v>
       </c>
       <c r="E27" t="n">
-        <v>740</v>
+        <v>1476</v>
       </c>
       <c r="F27" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G27" t="n">
-        <v>0.55</v>
+        <v>928</v>
+      </c>
+      <c s="28" r="G27" t="n">
+        <v>0.61</v>
       </c>
       <c r="H27" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I27" t="s">
         <v>41</v>
@@ -2238,28 +2280,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>1999.18</v>
-      </c>
-      <c s="11" r="C28" t="n">
-        <v>1.08</v>
-      </c>
-      <c s="11" r="D28" t="n">
-        <v>0.05</v>
+        <v>11.45</v>
+      </c>
+      <c s="27" r="C28" t="n">
+        <v>-1.29</v>
+      </c>
+      <c s="27" r="D28" t="n">
+        <v>-11.27</v>
       </c>
       <c r="E28" t="n">
-        <v>740</v>
+        <v>1476</v>
       </c>
       <c r="F28" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G28" t="n">
-        <v>0.55</v>
+        <v>928</v>
+      </c>
+      <c s="28" r="G28" t="n">
+        <v>0.61</v>
       </c>
       <c r="H28" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I28" t="s">
         <v>41</v>
@@ -2267,28 +2309,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>2002.77</v>
-      </c>
-      <c s="14" r="C29" t="n">
-        <v>4.67</v>
-      </c>
-      <c s="14" r="D29" t="n">
-        <v>0.23</v>
+        <v>11.4</v>
+      </c>
+      <c s="27" r="C29" t="n">
+        <v>-1.34</v>
+      </c>
+      <c s="27" r="D29" t="n">
+        <v>-11.75</v>
       </c>
       <c r="E29" t="n">
-        <v>865</v>
+        <v>1476</v>
       </c>
       <c r="F29" t="n">
-        <v>711</v>
-      </c>
-      <c s="14" r="G29" t="n">
-        <v>0.55</v>
+        <v>928</v>
+      </c>
+      <c s="28" r="G29" t="n">
+        <v>0.61</v>
       </c>
       <c r="H29" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I29" t="s">
         <v>41</v>
@@ -2296,28 +2338,28 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>2002.22</v>
-      </c>
-      <c s="16" r="C30" t="n">
-        <v>4.12</v>
-      </c>
-      <c s="16" r="D30" t="n">
-        <v>0.21</v>
+        <v>11.43</v>
+      </c>
+      <c s="27" r="C30" t="n">
+        <v>-1.31</v>
+      </c>
+      <c s="27" r="D30" t="n">
+        <v>-11.46</v>
       </c>
       <c r="E30" t="n">
-        <v>865</v>
+        <v>1569</v>
       </c>
       <c r="F30" t="n">
-        <v>711</v>
-      </c>
-      <c s="16" r="G30" t="n">
-        <v>0.55</v>
+        <v>1045</v>
+      </c>
+      <c s="28" r="G30" t="n">
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="s">
         <v>41</v>
@@ -2325,28 +2367,28 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>2001.13</v>
-      </c>
-      <c s="18" r="C31" t="n">
-        <v>3.03</v>
-      </c>
-      <c s="18" r="D31" t="n">
-        <v>0.15</v>
+        <v>11.43</v>
+      </c>
+      <c s="27" r="C31" t="n">
+        <v>-1.31</v>
+      </c>
+      <c s="27" r="D31" t="n">
+        <v>-11.46</v>
       </c>
       <c r="E31" t="n">
-        <v>865</v>
+        <v>1569</v>
       </c>
       <c r="F31" t="n">
-        <v>711</v>
-      </c>
-      <c s="18" r="G31" t="n">
-        <v>0.55</v>
+        <v>1045</v>
+      </c>
+      <c s="28" r="G31" t="n">
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I31" t="s">
         <v>41</v>
@@ -2354,28 +2396,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>2016.01</v>
-      </c>
-      <c s="22" r="C32" t="n">
-        <v>17.91</v>
-      </c>
-      <c s="22" r="D32" t="n">
-        <v>0.89</v>
+        <v>11.44</v>
+      </c>
+      <c s="27" r="C32" t="n">
+        <v>-1.3</v>
+      </c>
+      <c s="27" r="D32" t="n">
+        <v>-11.36</v>
       </c>
       <c r="E32" t="n">
-        <v>1152</v>
+        <v>1569</v>
       </c>
       <c r="F32" t="n">
-        <v>877</v>
-      </c>
-      <c s="22" r="G32" t="n">
-        <v>0.57</v>
+        <v>1045</v>
+      </c>
+      <c s="28" r="G32" t="n">
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I32" t="s">
         <v>41</v>
@@ -2383,28 +2425,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="n">
-        <v>2016.85</v>
-      </c>
-      <c s="24" r="C33" t="n">
-        <v>18.75</v>
-      </c>
-      <c s="24" r="D33" t="n">
-        <v>0.93</v>
+        <v>11.44</v>
+      </c>
+      <c s="29" r="C33" t="n">
+        <v>-1.3</v>
+      </c>
+      <c s="29" r="D33" t="n">
+        <v>-11.36</v>
       </c>
       <c r="E33" t="n">
-        <v>1152</v>
+        <v>1569</v>
       </c>
       <c r="F33" t="n">
-        <v>877</v>
-      </c>
-      <c s="24" r="G33" t="n">
-        <v>0.57</v>
+        <v>1045</v>
+      </c>
+      <c s="30" r="G33" t="n">
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I33" t="s">
         <v>41</v>
@@ -2415,28 +2457,28 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>2017.24</v>
-      </c>
-      <c s="24" r="C34" t="n">
-        <v>19.14</v>
-      </c>
-      <c s="24" r="D34" t="n">
-        <v>0.95</v>
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C34" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D34" t="n">
+        <v>3.27</v>
       </c>
       <c r="E34" t="n">
-        <v>1152</v>
+        <v>2791</v>
       </c>
       <c r="F34" t="n">
-        <v>877</v>
-      </c>
-      <c s="24" r="G34" t="n">
-        <v>0.57</v>
+        <v>2724</v>
+      </c>
+      <c s="8" r="G34" t="n">
+        <v>0.51</v>
       </c>
       <c r="H34" t="n">
         <v>1.61</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2444,28 +2486,28 @@
         <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>2018.63</v>
-      </c>
-      <c s="24" r="C35" t="n">
-        <v>20.53</v>
-      </c>
-      <c s="24" r="D35" t="n">
-        <v>1.02</v>
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C35" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D35" t="n">
+        <v>3.27</v>
       </c>
       <c r="E35" t="n">
-        <v>1526</v>
+        <v>2791</v>
       </c>
       <c r="F35" t="n">
-        <v>1176</v>
-      </c>
-      <c s="24" r="G35" t="n">
-        <v>0.5600000000000001</v>
+        <v>2724</v>
+      </c>
+      <c s="8" r="G35" t="n">
+        <v>0.51</v>
       </c>
       <c r="H35" t="n">
         <v>1.61</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2473,22 +2515,22 @@
         <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>2016.54</v>
-      </c>
-      <c s="24" r="C36" t="n">
-        <v>18.44</v>
-      </c>
-      <c s="24" r="D36" t="n">
-        <v>0.91</v>
+        <v>2005.03</v>
+      </c>
+      <c s="8" r="C36" t="n">
+        <v>6.93</v>
+      </c>
+      <c s="8" r="D36" t="n">
+        <v>0.35</v>
       </c>
       <c r="E36" t="n">
-        <v>1526</v>
+        <v>322</v>
       </c>
       <c r="F36" t="n">
-        <v>1176</v>
-      </c>
-      <c s="24" r="G36" t="n">
-        <v>0.5600000000000001</v>
+        <v>320</v>
+      </c>
+      <c s="8" r="G36" t="n">
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>1.61</v>
@@ -2502,22 +2544,22 @@
         <v>10</v>
       </c>
       <c r="B37" t="n">
-        <v>2019.83</v>
-      </c>
-      <c s="26" r="C37" t="n">
-        <v>21.73</v>
-      </c>
-      <c s="26" r="D37" t="n">
-        <v>1.08</v>
+        <v>1999.03</v>
+      </c>
+      <c s="11" r="C37" t="n">
+        <v>0.93</v>
+      </c>
+      <c s="11" r="D37" t="n">
+        <v>0.05</v>
       </c>
       <c r="E37" t="n">
-        <v>1526</v>
+        <v>740</v>
       </c>
       <c r="F37" t="n">
-        <v>1176</v>
-      </c>
-      <c s="26" r="G37" t="n">
-        <v>0.5600000000000001</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G37" t="n">
+        <v>0.55</v>
       </c>
       <c r="H37" t="n">
         <v>1.61</v>
@@ -2528,144 +2570,144 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B38" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C38" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D38" t="n">
-        <v>17.11</v>
+        <v>1997.49</v>
+      </c>
+      <c s="10" r="C38" t="n">
+        <v>-0.61</v>
+      </c>
+      <c s="10" r="D38" t="n">
+        <v>-0.03</v>
       </c>
       <c r="E38" t="n">
-        <v>2390</v>
+        <v>740</v>
       </c>
       <c r="F38" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H38" t="s">
-        <v>18</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G38" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.61</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C39" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D39" t="n">
-        <v>17.11</v>
+        <v>1997.93</v>
+      </c>
+      <c s="10" r="C39" t="n">
+        <v>-0.17</v>
+      </c>
+      <c s="10" r="D39" t="n">
+        <v>-0.01</v>
       </c>
       <c r="E39" t="n">
-        <v>2390</v>
+        <v>740</v>
       </c>
       <c r="F39" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G39" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.61</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C40" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D40" t="n">
-        <v>1.47</v>
+        <v>1999.18</v>
+      </c>
+      <c s="11" r="C40" t="n">
+        <v>1.08</v>
+      </c>
+      <c s="11" r="D40" t="n">
+        <v>0.05</v>
       </c>
       <c r="E40" t="n">
-        <v>1715</v>
+        <v>740</v>
       </c>
       <c r="F40" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G40" t="n">
-        <v>0.6</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G40" t="n">
+        <v>0.55</v>
       </c>
       <c r="H40" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C41" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D41" t="n">
-        <v>1.47</v>
+        <v>2002.77</v>
+      </c>
+      <c s="14" r="C41" t="n">
+        <v>4.67</v>
+      </c>
+      <c s="14" r="D41" t="n">
+        <v>0.23</v>
       </c>
       <c r="E41" t="n">
-        <v>1715</v>
+        <v>865</v>
       </c>
       <c r="F41" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G41" t="n">
-        <v>0.6</v>
+        <v>711</v>
+      </c>
+      <c s="14" r="G41" t="n">
+        <v>0.55</v>
       </c>
       <c r="H41" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>224.43</v>
-      </c>
-      <c s="8" r="C42" t="n">
-        <v>1.45</v>
-      </c>
-      <c s="8" r="D42" t="n">
-        <v>0.65</v>
+        <v>2002.22</v>
+      </c>
+      <c s="16" r="C42" t="n">
+        <v>4.12</v>
+      </c>
+      <c s="16" r="D42" t="n">
+        <v>0.21</v>
       </c>
       <c r="E42" t="n">
-        <v>272</v>
+        <v>865</v>
       </c>
       <c r="F42" t="n">
-        <v>186</v>
-      </c>
-      <c s="8" r="G42" t="n">
-        <v>0.59</v>
+        <v>711</v>
+      </c>
+      <c s="16" r="G42" t="n">
+        <v>0.55</v>
       </c>
       <c r="H42" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I42" t="s">
         <v>41</v>
@@ -2673,28 +2715,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="n">
-        <v>222.76</v>
-      </c>
-      <c s="10" r="C43" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D43" t="n">
-        <v>-0.1</v>
+        <v>2001.13</v>
+      </c>
+      <c s="18" r="C43" t="n">
+        <v>3.03</v>
+      </c>
+      <c s="18" r="D43" t="n">
+        <v>0.15</v>
       </c>
       <c r="E43" t="n">
-        <v>568</v>
+        <v>865</v>
       </c>
       <c r="F43" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G43" t="n">
-        <v>0.62</v>
+        <v>711</v>
+      </c>
+      <c s="18" r="G43" t="n">
+        <v>0.55</v>
       </c>
       <c r="H43" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I43" t="s">
         <v>41</v>
@@ -2702,28 +2744,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="n">
-        <v>222.8</v>
-      </c>
-      <c s="10" r="C44" t="n">
-        <v>-0.18</v>
-      </c>
-      <c s="10" r="D44" t="n">
-        <v>-0.08</v>
+        <v>2016.01</v>
+      </c>
+      <c s="22" r="C44" t="n">
+        <v>17.91</v>
+      </c>
+      <c s="22" r="D44" t="n">
+        <v>0.89</v>
       </c>
       <c r="E44" t="n">
-        <v>568</v>
+        <v>1152</v>
       </c>
       <c r="F44" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G44" t="n">
-        <v>0.62</v>
+        <v>877</v>
+      </c>
+      <c s="22" r="G44" t="n">
+        <v>0.57</v>
       </c>
       <c r="H44" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I44" t="s">
         <v>41</v>
@@ -2731,28 +2773,28 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>222.76</v>
-      </c>
-      <c s="10" r="C45" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D45" t="n">
-        <v>-0.1</v>
+        <v>2016.85</v>
+      </c>
+      <c s="24" r="C45" t="n">
+        <v>18.75</v>
+      </c>
+      <c s="24" r="D45" t="n">
+        <v>0.93</v>
       </c>
       <c r="E45" t="n">
-        <v>568</v>
+        <v>1152</v>
       </c>
       <c r="F45" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G45" t="n">
-        <v>0.62</v>
+        <v>877</v>
+      </c>
+      <c s="24" r="G45" t="n">
+        <v>0.57</v>
       </c>
       <c r="H45" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I45" t="s">
         <v>41</v>
@@ -2760,28 +2802,28 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
-        <v>222.43</v>
-      </c>
-      <c s="10" r="C46" t="n">
-        <v>-0.55</v>
-      </c>
-      <c s="10" r="D46" t="n">
-        <v>-0.25</v>
+        <v>2017.24</v>
+      </c>
+      <c s="24" r="C46" t="n">
+        <v>19.14</v>
+      </c>
+      <c s="24" r="D46" t="n">
+        <v>0.95</v>
       </c>
       <c r="E46" t="n">
-        <v>568</v>
+        <v>1152</v>
       </c>
       <c r="F46" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G46" t="n">
-        <v>0.62</v>
+        <v>877</v>
+      </c>
+      <c s="24" r="G46" t="n">
+        <v>0.57</v>
       </c>
       <c r="H46" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I46" t="s">
         <v>41</v>
@@ -2789,28 +2831,28 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>223.03</v>
-      </c>
-      <c s="14" r="C47" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="14" r="D47" t="n">
-        <v>0.02</v>
+        <v>2018.63</v>
+      </c>
+      <c s="24" r="C47" t="n">
+        <v>20.53</v>
+      </c>
+      <c s="24" r="D47" t="n">
+        <v>1.02</v>
       </c>
       <c r="E47" t="n">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="F47" t="n">
-        <v>394</v>
-      </c>
-      <c s="14" r="G47" t="n">
-        <v>0.62</v>
+        <v>1176</v>
+      </c>
+      <c s="24" r="G47" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I47" t="s">
         <v>41</v>
@@ -2818,28 +2860,28 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="n">
-        <v>222.91</v>
-      </c>
-      <c s="15" r="C48" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c s="15" r="D48" t="n">
-        <v>-0.03</v>
+        <v>2016.54</v>
+      </c>
+      <c s="24" r="C48" t="n">
+        <v>18.44</v>
+      </c>
+      <c s="24" r="D48" t="n">
+        <v>0.91</v>
       </c>
       <c r="E48" t="n">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="F48" t="n">
-        <v>394</v>
-      </c>
-      <c s="16" r="G48" t="n">
-        <v>0.62</v>
+        <v>1176</v>
+      </c>
+      <c s="24" r="G48" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I48" t="s">
         <v>41</v>
@@ -2847,28 +2889,28 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="n">
-        <v>222.97</v>
-      </c>
-      <c s="17" r="C49" t="n">
-        <v>-0.01</v>
-      </c>
-      <c s="18" r="D49" t="n">
-        <v>0</v>
+        <v>2019.83</v>
+      </c>
+      <c s="26" r="C49" t="n">
+        <v>21.73</v>
+      </c>
+      <c s="26" r="D49" t="n">
+        <v>1.08</v>
       </c>
       <c r="E49" t="n">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="F49" t="n">
-        <v>394</v>
-      </c>
-      <c s="18" r="G49" t="n">
-        <v>0.62</v>
+        <v>1176</v>
+      </c>
+      <c s="26" r="G49" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I49" t="s">
         <v>41</v>
@@ -2876,28 +2918,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="n">
-        <v>223.05</v>
-      </c>
-      <c s="22" r="C50" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c s="22" r="D50" t="n">
-        <v>0.03</v>
+        <v>2015.67</v>
+      </c>
+      <c s="26" r="C50" t="n">
+        <v>17.57</v>
+      </c>
+      <c s="26" r="D50" t="n">
+        <v>0.87</v>
       </c>
       <c r="E50" t="n">
-        <v>807</v>
+        <v>1738</v>
       </c>
       <c r="F50" t="n">
-        <v>463</v>
-      </c>
-      <c s="22" r="G50" t="n">
-        <v>0.64</v>
+        <v>1375</v>
+      </c>
+      <c s="26" r="G50" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I50" t="s">
         <v>41</v>
@@ -2905,28 +2947,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="n">
-        <v>223.19</v>
-      </c>
-      <c s="24" r="C51" t="n">
-        <v>0.21</v>
-      </c>
-      <c s="24" r="D51" t="n">
-        <v>0.09</v>
+        <v>2017.49</v>
+      </c>
+      <c s="26" r="C51" t="n">
+        <v>19.39</v>
+      </c>
+      <c s="26" r="D51" t="n">
+        <v>0.96</v>
       </c>
       <c r="E51" t="n">
-        <v>807</v>
+        <v>1738</v>
       </c>
       <c r="F51" t="n">
-        <v>463</v>
-      </c>
-      <c s="24" r="G51" t="n">
-        <v>0.64</v>
+        <v>1375</v>
+      </c>
+      <c s="26" r="G51" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I51" t="s">
         <v>41</v>
@@ -2934,28 +2976,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="n">
-        <v>223.18</v>
-      </c>
-      <c s="24" r="C52" t="n">
-        <v>0.2</v>
-      </c>
-      <c s="24" r="D52" t="n">
-        <v>0.09</v>
+        <v>2017.01</v>
+      </c>
+      <c s="26" r="C52" t="n">
+        <v>18.91</v>
+      </c>
+      <c s="26" r="D52" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>807</v>
+        <v>1738</v>
       </c>
       <c r="F52" t="n">
-        <v>463</v>
-      </c>
-      <c s="24" r="G52" t="n">
-        <v>0.64</v>
+        <v>1375</v>
+      </c>
+      <c s="26" r="G52" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I52" t="s">
         <v>41</v>
@@ -2963,28 +3005,28 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="n">
-        <v>223.68</v>
-      </c>
-      <c s="24" r="C53" t="n">
-        <v>0.7</v>
-      </c>
-      <c s="24" r="D53" t="n">
-        <v>0.31</v>
+        <v>2018.27</v>
+      </c>
+      <c s="28" r="C53" t="n">
+        <v>20.17</v>
+      </c>
+      <c s="28" r="D53" t="n">
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>970</v>
+        <v>1738</v>
       </c>
       <c r="F53" t="n">
-        <v>546</v>
-      </c>
-      <c s="24" r="G53" t="n">
-        <v>0.64</v>
+        <v>1375</v>
+      </c>
+      <c s="28" r="G53" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I53" t="s">
         <v>41</v>
@@ -2992,28 +3034,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>223.78</v>
-      </c>
-      <c s="24" r="C54" t="n">
-        <v>0.8</v>
-      </c>
-      <c s="24" r="D54" t="n">
-        <v>0.36</v>
+        <v>2016.38</v>
+      </c>
+      <c s="28" r="C54" t="n">
+        <v>18.28</v>
+      </c>
+      <c s="28" r="D54" t="n">
+        <v>0.91</v>
       </c>
       <c r="E54" t="n">
-        <v>970</v>
+        <v>1738</v>
       </c>
       <c r="F54" t="n">
-        <v>546</v>
-      </c>
-      <c s="24" r="G54" t="n">
-        <v>0.64</v>
+        <v>1375</v>
+      </c>
+      <c s="28" r="G54" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I54" t="s">
         <v>41</v>
@@ -3021,28 +3063,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="n">
-        <v>224.41</v>
-      </c>
-      <c s="26" r="C55" t="n">
-        <v>1.43</v>
-      </c>
-      <c s="26" r="D55" t="n">
-        <v>0.64</v>
+        <v>2020.82</v>
+      </c>
+      <c s="28" r="C55" t="n">
+        <v>22.72</v>
+      </c>
+      <c s="28" r="D55" t="n">
+        <v>1.12</v>
       </c>
       <c r="E55" t="n">
-        <v>970</v>
+        <v>1889</v>
       </c>
       <c r="F55" t="n">
-        <v>546</v>
-      </c>
-      <c s="26" r="G55" t="n">
-        <v>0.64</v>
+        <v>1520</v>
+      </c>
+      <c s="28" r="G55" t="n">
+        <v>0.55</v>
       </c>
       <c r="H55" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I55" t="s">
         <v>41</v>
@@ -3050,86 +3092,86 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C56" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D56" t="n">
-        <v>0.6</v>
+        <v>2021.78</v>
+      </c>
+      <c s="28" r="C56" t="n">
+        <v>23.68</v>
+      </c>
+      <c s="28" r="D56" t="n">
+        <v>1.17</v>
       </c>
       <c r="E56" t="n">
-        <v>2477</v>
+        <v>1889</v>
       </c>
       <c r="F56" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G56" t="n">
-        <v>0.5</v>
+        <v>1520</v>
+      </c>
+      <c s="28" r="G56" t="n">
+        <v>0.55</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>1.61</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C57" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D57" t="n">
-        <v>0.6</v>
+        <v>2023.05</v>
+      </c>
+      <c s="28" r="C57" t="n">
+        <v>24.95</v>
+      </c>
+      <c s="28" r="D57" t="n">
+        <v>1.23</v>
       </c>
       <c r="E57" t="n">
-        <v>2477</v>
+        <v>1889</v>
       </c>
       <c r="F57" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G57" t="n">
-        <v>0.5</v>
+        <v>1520</v>
+      </c>
+      <c s="28" r="G57" t="n">
+        <v>0.55</v>
       </c>
       <c r="H57" t="n">
-        <v>3.6</v>
+        <v>1.61</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>24.98</v>
-      </c>
-      <c s="10" r="C58" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D58" t="n">
-        <v>-0.88</v>
+        <v>2023.26</v>
+      </c>
+      <c s="28" r="C58" t="n">
+        <v>25.16</v>
+      </c>
+      <c s="28" r="D58" t="n">
+        <v>1.24</v>
       </c>
       <c r="E58" t="n">
-        <v>449</v>
+        <v>2048</v>
       </c>
       <c r="F58" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G58" t="n">
-        <v>0.59</v>
+        <v>1613</v>
+      </c>
+      <c s="28" r="G58" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>1.61</v>
       </c>
       <c r="I58" t="s">
         <v>41</v>
@@ -3137,28 +3179,28 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>24.99</v>
-      </c>
-      <c s="10" r="C59" t="n">
-        <v>-0.21</v>
-      </c>
-      <c s="10" r="D59" t="n">
-        <v>-0.84</v>
+        <v>2023.63</v>
+      </c>
+      <c s="28" r="C59" t="n">
+        <v>25.53</v>
+      </c>
+      <c s="28" r="D59" t="n">
+        <v>1.26</v>
       </c>
       <c r="E59" t="n">
-        <v>449</v>
+        <v>2048</v>
       </c>
       <c r="F59" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G59" t="n">
-        <v>0.59</v>
+        <v>1613</v>
+      </c>
+      <c s="28" r="G59" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>3.6</v>
+        <v>1.61</v>
       </c>
       <c r="I59" t="s">
         <v>41</v>
@@ -3166,28 +3208,28 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>25.04</v>
-      </c>
-      <c s="10" r="C60" t="n">
-        <v>-0.16</v>
-      </c>
-      <c s="10" r="D60" t="n">
-        <v>-0.64</v>
+        <v>2023.07</v>
+      </c>
+      <c s="28" r="C60" t="n">
+        <v>24.97</v>
+      </c>
+      <c s="28" r="D60" t="n">
+        <v>1.23</v>
       </c>
       <c r="E60" t="n">
-        <v>449</v>
+        <v>2048</v>
       </c>
       <c r="F60" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G60" t="n">
-        <v>0.59</v>
+        <v>1613</v>
+      </c>
+      <c s="28" r="G60" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>3.6</v>
+        <v>1.61</v>
       </c>
       <c r="I60" t="s">
         <v>41</v>
@@ -3195,28 +3237,28 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" t="n">
-        <v>25.1</v>
-      </c>
-      <c s="10" r="C61" t="n">
-        <v>-0.1</v>
-      </c>
-      <c s="10" r="D61" t="n">
-        <v>-0.4</v>
+        <v>2023.24</v>
+      </c>
+      <c s="30" r="C61" t="n">
+        <v>25.14</v>
+      </c>
+      <c s="30" r="D61" t="n">
+        <v>1.24</v>
       </c>
       <c r="E61" t="n">
-        <v>449</v>
+        <v>2048</v>
       </c>
       <c r="F61" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G61" t="n">
-        <v>0.59</v>
+        <v>1613</v>
+      </c>
+      <c s="30" r="G61" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>1.61</v>
       </c>
       <c r="I61" t="s">
         <v>41</v>
@@ -3224,60 +3266,60 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>25.25</v>
-      </c>
-      <c s="14" r="C62" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="14" r="D62" t="n">
-        <v>0.2</v>
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C62" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D62" t="n">
+        <v>17.11</v>
       </c>
       <c r="E62" t="n">
-        <v>537</v>
+        <v>2390</v>
       </c>
       <c r="F62" t="n">
-        <v>375</v>
-      </c>
-      <c s="14" r="G62" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3.6</v>
+        <v>1583</v>
+      </c>
+      <c s="8" r="G62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B63" t="n">
-        <v>25.33</v>
-      </c>
-      <c s="16" r="C63" t="n">
-        <v>0.13</v>
-      </c>
-      <c s="16" r="D63" t="n">
-        <v>0.51</v>
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C63" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D63" t="n">
+        <v>17.11</v>
       </c>
       <c r="E63" t="n">
-        <v>537</v>
+        <v>2390</v>
       </c>
       <c r="F63" t="n">
-        <v>375</v>
-      </c>
-      <c s="16" r="G63" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3.6</v>
+        <v>1583</v>
+      </c>
+      <c s="8" r="G63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3285,28 +3327,28 @@
         <v>12</v>
       </c>
       <c r="B64" t="n">
-        <v>25.25</v>
-      </c>
-      <c s="18" r="C64" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="18" r="D64" t="n">
-        <v>0.2</v>
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C64" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D64" t="n">
+        <v>1.47</v>
       </c>
       <c r="E64" t="n">
-        <v>537</v>
+        <v>1715</v>
       </c>
       <c r="F64" t="n">
-        <v>375</v>
-      </c>
-      <c s="18" r="G64" t="n">
-        <v>0.59</v>
+        <v>1153</v>
+      </c>
+      <c s="8" r="G64" t="n">
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3314,28 +3356,28 @@
         <v>12</v>
       </c>
       <c r="B65" t="n">
-        <v>25.57</v>
-      </c>
-      <c s="22" r="C65" t="n">
-        <v>0.38</v>
-      </c>
-      <c s="22" r="D65" t="n">
-        <v>1.49</v>
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C65" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D65" t="n">
+        <v>1.47</v>
       </c>
       <c r="E65" t="n">
-        <v>747</v>
+        <v>1715</v>
       </c>
       <c r="F65" t="n">
-        <v>588</v>
-      </c>
-      <c s="22" r="G65" t="n">
-        <v>0.5600000000000001</v>
+        <v>1153</v>
+      </c>
+      <c s="8" r="G65" t="n">
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3343,25 +3385,25 @@
         <v>12</v>
       </c>
       <c r="B66" t="n">
-        <v>25.57</v>
-      </c>
-      <c s="24" r="C66" t="n">
-        <v>0.38</v>
-      </c>
-      <c s="24" r="D66" t="n">
-        <v>1.49</v>
+        <v>224.43</v>
+      </c>
+      <c s="8" r="C66" t="n">
+        <v>1.45</v>
+      </c>
+      <c s="8" r="D66" t="n">
+        <v>0.65</v>
       </c>
       <c r="E66" t="n">
-        <v>747</v>
+        <v>272</v>
       </c>
       <c r="F66" t="n">
-        <v>588</v>
-      </c>
-      <c s="24" r="G66" t="n">
-        <v>0.5600000000000001</v>
+        <v>186</v>
+      </c>
+      <c s="8" r="G66" t="n">
+        <v>0.59</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I66" t="s">
         <v>41</v>
@@ -3372,25 +3414,25 @@
         <v>12</v>
       </c>
       <c r="B67" t="n">
-        <v>25.59</v>
-      </c>
-      <c s="24" r="C67" t="n">
-        <v>0.39</v>
-      </c>
-      <c s="24" r="D67" t="n">
-        <v>1.52</v>
+        <v>222.76</v>
+      </c>
+      <c s="10" r="C67" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D67" t="n">
+        <v>-0.1</v>
       </c>
       <c r="E67" t="n">
-        <v>747</v>
+        <v>568</v>
       </c>
       <c r="F67" t="n">
-        <v>588</v>
-      </c>
-      <c s="24" r="G67" t="n">
-        <v>0.5600000000000001</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G67" t="n">
+        <v>0.62</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I67" t="s">
         <v>41</v>
@@ -3401,25 +3443,25 @@
         <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>25.19</v>
-      </c>
-      <c s="23" r="C68" t="n">
-        <v>-0.01</v>
-      </c>
-      <c s="23" r="D68" t="n">
-        <v>-0.04</v>
+        <v>222.8</v>
+      </c>
+      <c s="10" r="C68" t="n">
+        <v>-0.18</v>
+      </c>
+      <c s="10" r="D68" t="n">
+        <v>-0.08</v>
       </c>
       <c r="E68" t="n">
-        <v>913</v>
+        <v>568</v>
       </c>
       <c r="F68" t="n">
-        <v>727</v>
-      </c>
-      <c s="24" r="G68" t="n">
-        <v>0.5600000000000001</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G68" t="n">
+        <v>0.62</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I68" t="s">
         <v>41</v>
@@ -3430,25 +3472,25 @@
         <v>12</v>
       </c>
       <c r="B69" t="n">
-        <v>25.16</v>
-      </c>
-      <c s="23" r="C69" t="n">
-        <v>-0.04</v>
-      </c>
-      <c s="23" r="D69" t="n">
-        <v>-0.16</v>
+        <v>222.76</v>
+      </c>
+      <c s="10" r="C69" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D69" t="n">
+        <v>-0.1</v>
       </c>
       <c r="E69" t="n">
-        <v>913</v>
+        <v>568</v>
       </c>
       <c r="F69" t="n">
-        <v>727</v>
-      </c>
-      <c s="24" r="G69" t="n">
-        <v>0.5600000000000001</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G69" t="n">
+        <v>0.62</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I69" t="s">
         <v>41</v>
@@ -3459,25 +3501,25 @@
         <v>12</v>
       </c>
       <c r="B70" t="n">
-        <v>25.33</v>
-      </c>
-      <c s="26" r="C70" t="n">
-        <v>0.13</v>
-      </c>
-      <c s="26" r="D70" t="n">
-        <v>0.51</v>
+        <v>222.43</v>
+      </c>
+      <c s="10" r="C70" t="n">
+        <v>-0.55</v>
+      </c>
+      <c s="10" r="D70" t="n">
+        <v>-0.25</v>
       </c>
       <c r="E70" t="n">
-        <v>913</v>
+        <v>568</v>
       </c>
       <c r="F70" t="n">
-        <v>727</v>
-      </c>
-      <c s="26" r="G70" t="n">
-        <v>0.5600000000000001</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G70" t="n">
+        <v>0.62</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I70" t="s">
         <v>41</v>
@@ -3485,28 +3527,28 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B71" t="n">
-        <v>44.69</v>
-      </c>
-      <c s="9" r="C71" t="n">
-        <v>-1.71</v>
-      </c>
-      <c s="9" r="D71" t="n">
-        <v>-3.83</v>
+        <v>223.03</v>
+      </c>
+      <c s="14" r="C71" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="14" r="D71" t="n">
+        <v>0.02</v>
       </c>
       <c r="E71" t="n">
-        <v>255</v>
+        <v>656</v>
       </c>
       <c r="F71" t="n">
-        <v>147</v>
-      </c>
-      <c s="8" r="G71" t="n">
-        <v>0.63</v>
+        <v>394</v>
+      </c>
+      <c s="14" r="G71" t="n">
+        <v>0.62</v>
       </c>
       <c r="H71" t="n">
-        <v>2.93</v>
+        <v>1.14</v>
       </c>
       <c r="I71" t="s">
         <v>41</v>
@@ -3514,28 +3556,28 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" t="n">
-        <v>152.61</v>
-      </c>
-      <c s="9" r="C72" t="n">
-        <v>-2.19</v>
-      </c>
-      <c s="9" r="D72" t="n">
-        <v>-1.44</v>
+        <v>222.91</v>
+      </c>
+      <c s="15" r="C72" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c s="15" r="D72" t="n">
+        <v>-0.03</v>
       </c>
       <c r="E72" t="n">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="F72" t="n">
-        <v>414</v>
-      </c>
-      <c s="8" r="G72" t="n">
-        <v>0.59</v>
+        <v>394</v>
+      </c>
+      <c s="16" r="G72" t="n">
+        <v>0.62</v>
       </c>
       <c r="H72" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I72" t="s">
         <v>41</v>
@@ -3543,28 +3585,28 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="n">
-        <v>150.99</v>
-      </c>
-      <c s="10" r="C73" t="n">
-        <v>-3.81</v>
-      </c>
-      <c s="10" r="D73" t="n">
-        <v>-2.52</v>
+        <v>222.97</v>
+      </c>
+      <c s="17" r="C73" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="18" r="D73" t="n">
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>823</v>
+        <v>656</v>
       </c>
       <c r="F73" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G73" t="n">
-        <v>0.57</v>
+        <v>394</v>
+      </c>
+      <c s="18" r="G73" t="n">
+        <v>0.62</v>
       </c>
       <c r="H73" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I73" t="s">
         <v>41</v>
@@ -3572,28 +3614,28 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" t="n">
-        <v>150.54</v>
-      </c>
-      <c s="10" r="C74" t="n">
-        <v>-4.25</v>
-      </c>
-      <c s="10" r="D74" t="n">
-        <v>-2.82</v>
+        <v>223.05</v>
+      </c>
+      <c s="22" r="C74" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c s="22" r="D74" t="n">
+        <v>0.03</v>
       </c>
       <c r="E74" t="n">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F74" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G74" t="n">
-        <v>0.57</v>
+        <v>463</v>
+      </c>
+      <c s="22" r="G74" t="n">
+        <v>0.64</v>
       </c>
       <c r="H74" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I74" t="s">
         <v>41</v>
@@ -3601,28 +3643,28 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" t="n">
-        <v>150.46</v>
-      </c>
-      <c s="10" r="C75" t="n">
-        <v>-4.34</v>
-      </c>
-      <c s="10" r="D75" t="n">
-        <v>-2.88</v>
+        <v>223.19</v>
+      </c>
+      <c s="24" r="C75" t="n">
+        <v>0.21</v>
+      </c>
+      <c s="24" r="D75" t="n">
+        <v>0.09</v>
       </c>
       <c r="E75" t="n">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F75" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G75" t="n">
-        <v>0.57</v>
+        <v>463</v>
+      </c>
+      <c s="24" r="G75" t="n">
+        <v>0.64</v>
       </c>
       <c r="H75" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I75" t="s">
         <v>41</v>
@@ -3630,28 +3672,28 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" t="n">
-        <v>150.12</v>
-      </c>
-      <c s="10" r="C76" t="n">
-        <v>-4.68</v>
-      </c>
-      <c s="10" r="D76" t="n">
-        <v>-3.12</v>
+        <v>223.18</v>
+      </c>
+      <c s="24" r="C76" t="n">
+        <v>0.2</v>
+      </c>
+      <c s="24" r="D76" t="n">
+        <v>0.09</v>
       </c>
       <c r="E76" t="n">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F76" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G76" t="n">
-        <v>0.57</v>
+        <v>463</v>
+      </c>
+      <c s="24" r="G76" t="n">
+        <v>0.64</v>
       </c>
       <c r="H76" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I76" t="s">
         <v>41</v>
@@ -3659,28 +3701,28 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77" t="n">
-        <v>150.31</v>
-      </c>
-      <c s="13" r="C77" t="n">
-        <v>-4.49</v>
-      </c>
-      <c s="13" r="D77" t="n">
-        <v>-2.99</v>
+        <v>223.68</v>
+      </c>
+      <c s="24" r="C77" t="n">
+        <v>0.7</v>
+      </c>
+      <c s="24" r="D77" t="n">
+        <v>0.31</v>
       </c>
       <c r="E77" t="n">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="F77" t="n">
-        <v>660</v>
-      </c>
-      <c s="14" r="G77" t="n">
-        <v>0.58</v>
+        <v>546</v>
+      </c>
+      <c s="24" r="G77" t="n">
+        <v>0.64</v>
       </c>
       <c r="H77" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I77" t="s">
         <v>41</v>
@@ -3688,28 +3730,28 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="n">
-        <v>150.17</v>
-      </c>
-      <c s="15" r="C78" t="n">
-        <v>-4.63</v>
-      </c>
-      <c s="15" r="D78" t="n">
-        <v>-3.08</v>
+        <v>223.78</v>
+      </c>
+      <c s="24" r="C78" t="n">
+        <v>0.8</v>
+      </c>
+      <c s="24" r="D78" t="n">
+        <v>0.36</v>
       </c>
       <c r="E78" t="n">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="F78" t="n">
-        <v>660</v>
-      </c>
-      <c s="16" r="G78" t="n">
-        <v>0.58</v>
+        <v>546</v>
+      </c>
+      <c s="24" r="G78" t="n">
+        <v>0.64</v>
       </c>
       <c r="H78" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I78" t="s">
         <v>41</v>
@@ -3717,28 +3759,28 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" t="n">
-        <v>150.19</v>
-      </c>
-      <c s="17" r="C79" t="n">
-        <v>-4.61</v>
-      </c>
-      <c s="17" r="D79" t="n">
-        <v>-3.07</v>
+        <v>224.41</v>
+      </c>
+      <c s="26" r="C79" t="n">
+        <v>1.43</v>
+      </c>
+      <c s="26" r="D79" t="n">
+        <v>0.64</v>
       </c>
       <c r="E79" t="n">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="F79" t="n">
-        <v>660</v>
-      </c>
-      <c s="18" r="G79" t="n">
-        <v>0.58</v>
+        <v>546</v>
+      </c>
+      <c s="26" r="G79" t="n">
+        <v>0.64</v>
       </c>
       <c r="H79" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I79" t="s">
         <v>41</v>
@@ -3746,28 +3788,28 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" t="n">
-        <v>151.79</v>
-      </c>
-      <c s="21" r="C80" t="n">
-        <v>-3.01</v>
-      </c>
-      <c s="21" r="D80" t="n">
-        <v>-1.98</v>
+        <v>224.06</v>
+      </c>
+      <c s="26" r="C80" t="n">
+        <v>1.08</v>
+      </c>
+      <c s="26" r="D80" t="n">
+        <v>0.48</v>
       </c>
       <c r="E80" t="n">
-        <v>1038</v>
+        <v>1178</v>
       </c>
       <c r="F80" t="n">
-        <v>736</v>
-      </c>
-      <c s="22" r="G80" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="26" r="G80" t="n">
+        <v>0.65</v>
       </c>
       <c r="H80" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I80" t="s">
         <v>41</v>
@@ -3775,28 +3817,28 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81" t="n">
-        <v>152.28</v>
-      </c>
-      <c s="23" r="C81" t="n">
-        <v>-2.52</v>
-      </c>
-      <c s="23" r="D81" t="n">
-        <v>-1.65</v>
+        <v>224.05</v>
+      </c>
+      <c s="26" r="C81" t="n">
+        <v>1.07</v>
+      </c>
+      <c s="26" r="D81" t="n">
+        <v>0.48</v>
       </c>
       <c r="E81" t="n">
-        <v>1038</v>
+        <v>1178</v>
       </c>
       <c r="F81" t="n">
-        <v>736</v>
-      </c>
-      <c s="24" r="G81" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="26" r="G81" t="n">
+        <v>0.65</v>
       </c>
       <c r="H81" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I81" t="s">
         <v>41</v>
@@ -3804,28 +3846,28 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" t="n">
-        <v>152.03</v>
-      </c>
-      <c s="23" r="C82" t="n">
-        <v>-2.77</v>
-      </c>
-      <c s="23" r="D82" t="n">
-        <v>-1.82</v>
+        <v>224.07</v>
+      </c>
+      <c s="26" r="C82" t="n">
+        <v>1.09</v>
+      </c>
+      <c s="26" r="D82" t="n">
+        <v>0.49</v>
       </c>
       <c r="E82" t="n">
-        <v>1038</v>
+        <v>1178</v>
       </c>
       <c r="F82" t="n">
-        <v>736</v>
-      </c>
-      <c s="24" r="G82" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="26" r="G82" t="n">
+        <v>0.65</v>
       </c>
       <c r="H82" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I82" t="s">
         <v>41</v>
@@ -3833,28 +3875,28 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="n">
-        <v>152.02</v>
-      </c>
-      <c s="23" r="C83" t="n">
-        <v>-2.78</v>
-      </c>
-      <c s="23" r="D83" t="n">
-        <v>-1.83</v>
+        <v>224.04</v>
+      </c>
+      <c s="28" r="C83" t="n">
+        <v>1.06</v>
+      </c>
+      <c s="28" r="D83" t="n">
+        <v>0.47</v>
       </c>
       <c r="E83" t="n">
-        <v>1112</v>
+        <v>1178</v>
       </c>
       <c r="F83" t="n">
-        <v>787</v>
-      </c>
-      <c s="24" r="G83" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="28" r="G83" t="n">
+        <v>0.65</v>
       </c>
       <c r="H83" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I83" t="s">
         <v>41</v>
@@ -3862,28 +3904,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" t="n">
-        <v>151.68</v>
-      </c>
-      <c s="23" r="C84" t="n">
-        <v>-3.12</v>
-      </c>
-      <c s="23" r="D84" t="n">
-        <v>-2.06</v>
+        <v>224.4</v>
+      </c>
+      <c s="28" r="C84" t="n">
+        <v>1.42</v>
+      </c>
+      <c s="28" r="D84" t="n">
+        <v>0.63</v>
       </c>
       <c r="E84" t="n">
-        <v>1112</v>
+        <v>1178</v>
       </c>
       <c r="F84" t="n">
-        <v>787</v>
-      </c>
-      <c s="24" r="G84" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="28" r="G84" t="n">
+        <v>0.65</v>
       </c>
       <c r="H84" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I84" t="s">
         <v>41</v>
@@ -3891,480 +3933,2220 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="n">
+        <v>225.26</v>
+      </c>
+      <c s="28" r="C85" t="n">
+        <v>2.28</v>
+      </c>
+      <c s="28" r="D85" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1342</v>
+      </c>
+      <c r="F85" t="n">
+        <v>729</v>
+      </c>
+      <c s="28" r="G85" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="n">
+        <v>225.52</v>
+      </c>
+      <c s="28" r="C86" t="n">
+        <v>2.54</v>
+      </c>
+      <c s="28" r="D86" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1342</v>
+      </c>
+      <c r="F86" t="n">
+        <v>729</v>
+      </c>
+      <c s="28" r="G86" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="n">
+        <v>225.64</v>
+      </c>
+      <c s="28" r="C87" t="n">
+        <v>2.66</v>
+      </c>
+      <c s="28" r="D87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1342</v>
+      </c>
+      <c r="F87" t="n">
+        <v>729</v>
+      </c>
+      <c s="28" r="G87" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="n">
+        <v>225.74</v>
+      </c>
+      <c s="28" r="C88" t="n">
+        <v>2.76</v>
+      </c>
+      <c s="28" r="D88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F88" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G88" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="n">
+        <v>225.76</v>
+      </c>
+      <c s="28" r="C89" t="n">
+        <v>2.78</v>
+      </c>
+      <c s="28" r="D89" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F89" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G89" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="n">
+        <v>225.83</v>
+      </c>
+      <c s="28" r="C90" t="n">
+        <v>2.85</v>
+      </c>
+      <c s="28" r="D90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F90" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G90" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="n">
+        <v>225.8</v>
+      </c>
+      <c s="30" r="C91" t="n">
+        <v>2.82</v>
+      </c>
+      <c s="30" r="D91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F91" t="n">
+        <v>870</v>
+      </c>
+      <c s="30" r="G91" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
         <v>13</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B92" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C92" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2477</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2465</v>
+      </c>
+      <c s="8" r="G92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C93" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2477</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2465</v>
+      </c>
+      <c s="8" r="G93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="n">
+        <v>24.98</v>
+      </c>
+      <c s="10" r="C94" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D94" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E94" t="n">
+        <v>449</v>
+      </c>
+      <c r="F94" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G94" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="n">
+        <v>24.99</v>
+      </c>
+      <c s="10" r="C95" t="n">
+        <v>-0.21</v>
+      </c>
+      <c s="10" r="D95" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E95" t="n">
+        <v>449</v>
+      </c>
+      <c r="F95" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G95" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="n">
+        <v>25.04</v>
+      </c>
+      <c s="10" r="C96" t="n">
+        <v>-0.16</v>
+      </c>
+      <c s="10" r="D96" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="E96" t="n">
+        <v>449</v>
+      </c>
+      <c r="F96" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G96" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="n">
+        <v>25.1</v>
+      </c>
+      <c s="10" r="C97" t="n">
+        <v>-0.1</v>
+      </c>
+      <c s="10" r="D97" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>449</v>
+      </c>
+      <c r="F97" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G97" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="n">
+        <v>25.25</v>
+      </c>
+      <c s="14" r="C98" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="14" r="D98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>537</v>
+      </c>
+      <c r="F98" t="n">
+        <v>375</v>
+      </c>
+      <c s="14" r="G98" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="n">
+        <v>25.33</v>
+      </c>
+      <c s="16" r="C99" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="16" r="D99" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E99" t="n">
+        <v>537</v>
+      </c>
+      <c r="F99" t="n">
+        <v>375</v>
+      </c>
+      <c s="16" r="G99" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25.25</v>
+      </c>
+      <c s="18" r="C100" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="18" r="D100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>537</v>
+      </c>
+      <c r="F100" t="n">
+        <v>375</v>
+      </c>
+      <c s="18" r="G100" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25.57</v>
+      </c>
+      <c s="22" r="C101" t="n">
+        <v>0.38</v>
+      </c>
+      <c s="22" r="D101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E101" t="n">
+        <v>747</v>
+      </c>
+      <c r="F101" t="n">
+        <v>588</v>
+      </c>
+      <c s="22" r="G101" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="n">
+        <v>25.57</v>
+      </c>
+      <c s="24" r="C102" t="n">
+        <v>0.38</v>
+      </c>
+      <c s="24" r="D102" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E102" t="n">
+        <v>747</v>
+      </c>
+      <c r="F102" t="n">
+        <v>588</v>
+      </c>
+      <c s="24" r="G102" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="n">
+        <v>25.59</v>
+      </c>
+      <c s="24" r="C103" t="n">
+        <v>0.39</v>
+      </c>
+      <c s="24" r="D103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E103" t="n">
+        <v>747</v>
+      </c>
+      <c r="F103" t="n">
+        <v>588</v>
+      </c>
+      <c s="24" r="G103" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="n">
+        <v>25.19</v>
+      </c>
+      <c s="23" r="C104" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="23" r="D104" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E104" t="n">
+        <v>913</v>
+      </c>
+      <c r="F104" t="n">
+        <v>727</v>
+      </c>
+      <c s="24" r="G104" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="n">
+        <v>25.16</v>
+      </c>
+      <c s="23" r="C105" t="n">
+        <v>-0.04</v>
+      </c>
+      <c s="23" r="D105" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E105" t="n">
+        <v>913</v>
+      </c>
+      <c r="F105" t="n">
+        <v>727</v>
+      </c>
+      <c s="24" r="G105" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I105" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="n">
+        <v>25.33</v>
+      </c>
+      <c s="26" r="C106" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="26" r="D106" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E106" t="n">
+        <v>913</v>
+      </c>
+      <c r="F106" t="n">
+        <v>727</v>
+      </c>
+      <c s="26" r="G106" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I106" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="26" r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c s="26" r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F107" t="n">
+        <v>814</v>
+      </c>
+      <c s="26" r="G107" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I107" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="26" r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c s="26" r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F108" t="n">
+        <v>814</v>
+      </c>
+      <c s="26" r="G108" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="n">
+        <v>25.24</v>
+      </c>
+      <c s="26" r="C109" t="n">
+        <v>0.04</v>
+      </c>
+      <c s="26" r="D109" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F109" t="n">
+        <v>814</v>
+      </c>
+      <c s="26" r="G109" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="n">
+        <v>25.21</v>
+      </c>
+      <c s="28" r="C110" t="n">
+        <v>0.01</v>
+      </c>
+      <c s="28" r="D110" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F110" t="n">
+        <v>814</v>
+      </c>
+      <c s="28" r="G110" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="n">
+        <v>25.34</v>
+      </c>
+      <c s="28" r="C111" t="n">
+        <v>0.14</v>
+      </c>
+      <c s="28" r="D111" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F111" t="n">
+        <v>814</v>
+      </c>
+      <c s="28" r="G111" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I111" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="n">
+        <v>25.5</v>
+      </c>
+      <c s="28" r="C112" t="n">
+        <v>0.3</v>
+      </c>
+      <c s="28" r="D112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1107</v>
+      </c>
+      <c r="F112" t="n">
+        <v>876</v>
+      </c>
+      <c s="28" r="G112" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="n">
+        <v>25.46</v>
+      </c>
+      <c s="28" r="C113" t="n">
+        <v>0.27</v>
+      </c>
+      <c s="28" r="D113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1107</v>
+      </c>
+      <c r="F113" t="n">
+        <v>876</v>
+      </c>
+      <c s="28" r="G113" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="n">
+        <v>25.48</v>
+      </c>
+      <c s="28" r="C114" t="n">
+        <v>0.28</v>
+      </c>
+      <c s="28" r="D114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1107</v>
+      </c>
+      <c r="F114" t="n">
+        <v>876</v>
+      </c>
+      <c s="28" r="G114" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="n">
+        <v>25.46</v>
+      </c>
+      <c s="28" r="C115" t="n">
+        <v>0.26</v>
+      </c>
+      <c s="28" r="D115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F115" t="n">
+        <v>932</v>
+      </c>
+      <c s="28" r="G115" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" t="n">
+        <v>25.46</v>
+      </c>
+      <c s="28" r="C116" t="n">
+        <v>0.26</v>
+      </c>
+      <c s="28" r="D116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F116" t="n">
+        <v>932</v>
+      </c>
+      <c s="28" r="G116" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25.36</v>
+      </c>
+      <c s="28" r="C117" t="n">
+        <v>0.17</v>
+      </c>
+      <c s="28" r="D117" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F117" t="n">
+        <v>932</v>
+      </c>
+      <c s="28" r="G117" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="n">
+        <v>25.34</v>
+      </c>
+      <c s="30" r="C118" t="n">
+        <v>0.14</v>
+      </c>
+      <c s="30" r="D118" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F118" t="n">
+        <v>932</v>
+      </c>
+      <c s="30" r="G118" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I118" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" t="n">
+        <v>44.69</v>
+      </c>
+      <c s="9" r="C119" t="n">
+        <v>-1.71</v>
+      </c>
+      <c s="9" r="D119" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="E119" t="n">
+        <v>255</v>
+      </c>
+      <c r="F119" t="n">
+        <v>147</v>
+      </c>
+      <c s="8" r="G119" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="I119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="n">
+        <v>152.61</v>
+      </c>
+      <c s="9" r="C120" t="n">
+        <v>-2.19</v>
+      </c>
+      <c s="9" r="D120" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E120" t="n">
+        <v>599</v>
+      </c>
+      <c r="F120" t="n">
+        <v>414</v>
+      </c>
+      <c s="8" r="G120" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="n">
+        <v>150.99</v>
+      </c>
+      <c s="10" r="C121" t="n">
+        <v>-3.81</v>
+      </c>
+      <c s="10" r="D121" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="E121" t="n">
+        <v>823</v>
+      </c>
+      <c r="F121" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G121" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="n">
+        <v>150.54</v>
+      </c>
+      <c s="10" r="C122" t="n">
+        <v>-4.25</v>
+      </c>
+      <c s="10" r="D122" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="E122" t="n">
+        <v>823</v>
+      </c>
+      <c r="F122" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G122" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="n">
+        <v>150.46</v>
+      </c>
+      <c s="10" r="C123" t="n">
+        <v>-4.34</v>
+      </c>
+      <c s="10" r="D123" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E123" t="n">
+        <v>823</v>
+      </c>
+      <c r="F123" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G123" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="n">
+        <v>150.12</v>
+      </c>
+      <c s="10" r="C124" t="n">
+        <v>-4.68</v>
+      </c>
+      <c s="10" r="D124" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="E124" t="n">
+        <v>823</v>
+      </c>
+      <c r="F124" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G124" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="n">
+        <v>150.31</v>
+      </c>
+      <c s="13" r="C125" t="n">
+        <v>-4.49</v>
+      </c>
+      <c s="13" r="D125" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="E125" t="n">
+        <v>916</v>
+      </c>
+      <c r="F125" t="n">
+        <v>660</v>
+      </c>
+      <c s="14" r="G125" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="n">
+        <v>150.17</v>
+      </c>
+      <c s="15" r="C126" t="n">
+        <v>-4.63</v>
+      </c>
+      <c s="15" r="D126" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>916</v>
+      </c>
+      <c r="F126" t="n">
+        <v>660</v>
+      </c>
+      <c s="16" r="G126" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="n">
+        <v>150.19</v>
+      </c>
+      <c s="17" r="C127" t="n">
+        <v>-4.61</v>
+      </c>
+      <c s="17" r="D127" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="E127" t="n">
+        <v>916</v>
+      </c>
+      <c r="F127" t="n">
+        <v>660</v>
+      </c>
+      <c s="18" r="G127" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="n">
+        <v>151.79</v>
+      </c>
+      <c s="21" r="C128" t="n">
+        <v>-3.01</v>
+      </c>
+      <c s="21" r="D128" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F128" t="n">
+        <v>736</v>
+      </c>
+      <c s="22" r="G128" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="n">
+        <v>152.28</v>
+      </c>
+      <c s="23" r="C129" t="n">
+        <v>-2.52</v>
+      </c>
+      <c s="23" r="D129" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F129" t="n">
+        <v>736</v>
+      </c>
+      <c s="24" r="G129" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="n">
+        <v>152.03</v>
+      </c>
+      <c s="23" r="C130" t="n">
+        <v>-2.77</v>
+      </c>
+      <c s="23" r="D130" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F130" t="n">
+        <v>736</v>
+      </c>
+      <c s="24" r="G130" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="n">
+        <v>152.02</v>
+      </c>
+      <c s="23" r="C131" t="n">
+        <v>-2.78</v>
+      </c>
+      <c s="23" r="D131" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F131" t="n">
+        <v>787</v>
+      </c>
+      <c s="24" r="G131" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="n">
+        <v>151.68</v>
+      </c>
+      <c s="23" r="C132" t="n">
+        <v>-3.12</v>
+      </c>
+      <c s="23" r="D132" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F132" t="n">
+        <v>787</v>
+      </c>
+      <c s="24" r="G132" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="n">
         <v>151.82</v>
       </c>
-      <c s="25" r="C85" t="n">
+      <c s="25" r="C133" t="n">
         <v>-2.98</v>
       </c>
-      <c s="25" r="D85" t="n">
+      <c s="25" r="D133" t="n">
         <v>-1.96</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E133" t="n">
         <v>1112</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F133" t="n">
         <v>787</v>
       </c>
-      <c s="26" r="G85" t="n">
+      <c s="26" r="G133" t="n">
         <v>0.59</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H133" t="n">
         <v>1.13</v>
       </c>
-      <c r="I85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c s="6" r="C86" t="n"/>
-      <c s="6" r="D86" t="n"/>
-      <c s="5" r="G86" t="n"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c s="6" r="C87" t="n"/>
-      <c s="6" r="D87" t="n"/>
-      <c s="6" r="G87" t="n"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c s="7" r="C88" t="n"/>
-      <c s="7" r="D88" t="n"/>
-      <c s="7" r="G88" t="n"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c s="6" r="C89" t="n"/>
-      <c s="6" r="D89" t="n"/>
-      <c s="5" r="G89" t="n"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c s="6" r="C90" t="n"/>
-      <c s="6" r="D90" t="n"/>
-      <c s="6" r="G90" t="n"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c s="6" r="C91" t="n"/>
-      <c s="6" r="D91" t="n"/>
-      <c s="6" r="G91" t="n"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c s="5" r="C92" t="n"/>
-      <c s="5" r="D92" t="n"/>
-      <c s="6" r="G92" t="n"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c s="5" r="C93" t="n"/>
-      <c s="5" r="D93" t="n"/>
-      <c s="6" r="G93" t="n"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c s="5" r="C94" t="n"/>
-      <c s="5" r="D94" t="n"/>
-      <c s="5" r="G94" t="n"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c s="6" r="C95" t="n"/>
-      <c s="6" r="D95" t="n"/>
-      <c s="6" r="G95" t="n"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c s="6" r="C96" t="n"/>
-      <c s="6" r="D96" t="n"/>
-      <c s="6" r="G96" t="n"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c s="7" r="C97" t="n"/>
-      <c s="7" r="D97" t="n"/>
-      <c s="7" r="G97" t="n"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c s="5" r="C98" t="n"/>
-      <c s="5" r="D98" t="n"/>
-      <c s="5" r="G98" t="n"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c s="6" r="C99" t="n"/>
-      <c s="6" r="D99" t="n"/>
-      <c s="5" r="G99" t="n"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c s="6" r="C100" t="n"/>
-      <c s="6" r="D100" t="n"/>
-      <c s="6" r="G100" t="n"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c s="6" r="C101" t="n"/>
-      <c s="6" r="D101" t="n"/>
-      <c s="6" r="G101" t="n"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c s="5" r="C102" t="n"/>
-      <c s="5" r="D102" t="n"/>
-      <c s="6" r="G102" t="n"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c s="6" r="C103" t="n"/>
-      <c s="6" r="D103" t="n"/>
-      <c s="6" r="G103" t="n"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c s="7" r="C104" t="n"/>
-      <c s="7" r="D104" t="n"/>
-      <c s="7" r="G104" t="n"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c s="5" r="C105" t="n"/>
-      <c s="5" r="D105" t="n"/>
-      <c s="6" r="G105" t="n"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c s="6" r="C106" t="n"/>
-      <c s="6" r="D106" t="n"/>
-      <c s="5" r="G106" t="n"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c s="6" r="C107" t="n"/>
-      <c s="6" r="D107" t="n"/>
-      <c s="6" r="G107" t="n"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c s="6" r="C108" t="n"/>
-      <c s="6" r="D108" t="n"/>
-      <c s="5" r="G108" t="n"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c s="5" r="C109" t="n"/>
-      <c s="5" r="D109" t="n"/>
-      <c s="6" r="G109" t="n"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c s="1" r="C110" t="n"/>
-      <c s="1" r="D110" t="n"/>
-      <c s="2" r="G110" t="n"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c s="2" r="C111" t="n"/>
-      <c s="2" r="D111" t="n"/>
-      <c s="2" r="G111" t="n"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c s="1" r="C112" t="n"/>
-      <c s="1" r="D112" t="n"/>
-      <c s="2" r="G112" t="n"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c s="2" r="C113" t="n"/>
-      <c s="2" r="D113" t="n"/>
-      <c s="2" r="G113" t="n"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c s="2" r="C114" t="n"/>
-      <c s="2" r="D114" t="n"/>
-      <c s="2" r="G114" t="n"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c s="2" r="C115" t="n"/>
-      <c s="2" r="D115" t="n"/>
-      <c s="2" r="G115" t="n"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c s="1" r="C116" t="n"/>
-      <c s="1" r="D116" t="n"/>
-      <c s="2" r="G116" t="n"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c s="3" r="C117" t="n"/>
-      <c s="3" r="D117" t="n"/>
-      <c s="4" r="G117" t="n"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c s="4" r="C118" t="n"/>
-      <c s="4" r="D118" t="n"/>
-      <c s="4" r="G118" t="n"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c s="3" r="C119" t="n"/>
-      <c s="3" r="D119" t="n"/>
-      <c s="3" r="G119" t="n"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c s="3" r="C120" t="n"/>
-      <c s="3" r="D120" t="n"/>
-      <c s="3" r="G120" t="n"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c s="4" r="C121" t="n"/>
-      <c s="4" r="D121" t="n"/>
-      <c s="4" r="G121" t="n"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c s="4" r="C122" t="n"/>
-      <c s="4" r="D122" t="n"/>
-      <c s="4" r="G122" t="n"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c s="4" r="C123" t="n"/>
-      <c s="4" r="D123" t="n"/>
-      <c s="4" r="G123" t="n"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c s="3" r="C124" t="n"/>
-      <c s="3" r="D124" t="n"/>
-      <c s="3" r="G124" t="n"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c s="4" r="C125" t="n"/>
-      <c s="4" r="D125" t="n"/>
-      <c s="3" r="G125" t="n"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c s="4" r="C126" t="n"/>
-      <c s="4" r="D126" t="n"/>
-      <c s="3" r="G126" t="n"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c s="4" r="C127" t="n"/>
-      <c s="4" r="D127" t="n"/>
-      <c s="4" r="G127" t="n"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c s="4" r="C128" t="n"/>
-      <c s="4" r="D128" t="n"/>
-      <c s="3" r="G128" t="n"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c s="4" r="C129" t="n"/>
-      <c s="4" r="D129" t="n"/>
-      <c s="4" r="G129" t="n"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c s="4" r="C130" t="n"/>
-      <c s="4" r="D130" t="n"/>
-      <c s="4" r="G130" t="n"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c s="3" r="C131" t="n"/>
-      <c s="3" r="D131" t="n"/>
-      <c s="4" r="G131" t="n"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c s="3" r="C132" t="n"/>
-      <c s="3" r="D132" t="n"/>
-      <c s="4" r="G132" t="n"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c s="3" r="C133" t="n"/>
-      <c s="3" r="D133" t="n"/>
-      <c s="3" r="G133" t="n"/>
+      <c r="I133" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="134" spans="1:9">
-      <c s="4" r="C134" t="n"/>
-      <c s="4" r="D134" t="n"/>
-      <c s="4" r="G134" t="n"/>
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="n">
+        <v>150.79</v>
+      </c>
+      <c s="25" r="C134" t="n">
+        <v>-4.01</v>
+      </c>
+      <c s="25" r="D134" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F134" t="n">
+        <v>825</v>
+      </c>
+      <c s="26" r="G134" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="135" spans="1:9">
-      <c s="4" r="C135" t="n"/>
-      <c s="4" r="D135" t="n"/>
-      <c s="4" r="G135" t="n"/>
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="n">
+        <v>150.78</v>
+      </c>
+      <c s="25" r="C135" t="n">
+        <v>-4.02</v>
+      </c>
+      <c s="25" r="D135" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F135" t="n">
+        <v>825</v>
+      </c>
+      <c s="26" r="G135" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="136" spans="1:9">
-      <c s="3" r="C136" t="n"/>
-      <c s="3" r="D136" t="n"/>
-      <c s="3" r="G136" t="n"/>
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="n">
+        <v>150.84</v>
+      </c>
+      <c s="25" r="C136" t="n">
+        <v>-3.96</v>
+      </c>
+      <c s="25" r="D136" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F136" t="n">
+        <v>825</v>
+      </c>
+      <c s="26" r="G136" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="137" spans="1:9">
-      <c s="4" r="C137" t="n"/>
-      <c s="4" r="D137" t="n"/>
-      <c s="3" r="G137" t="n"/>
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="n">
+        <v>150.82</v>
+      </c>
+      <c s="27" r="C137" t="n">
+        <v>-3.98</v>
+      </c>
+      <c s="27" r="D137" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F137" t="n">
+        <v>825</v>
+      </c>
+      <c s="28" r="G137" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
-      <c s="4" r="C138" t="n"/>
-      <c s="4" r="D138" t="n"/>
-      <c s="4" r="G138" t="n"/>
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="n">
+        <v>151.11</v>
+      </c>
+      <c s="27" r="C138" t="n">
+        <v>-3.69</v>
+      </c>
+      <c s="27" r="D138" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F138" t="n">
+        <v>825</v>
+      </c>
+      <c s="28" r="G138" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I138" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
-      <c s="4" r="C139" t="n"/>
-      <c s="4" r="D139" t="n"/>
-      <c s="4" r="G139" t="n"/>
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="n">
+        <v>151.45</v>
+      </c>
+      <c s="27" r="C139" t="n">
+        <v>-3.35</v>
+      </c>
+      <c s="27" r="D139" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F139" t="n">
+        <v>856</v>
+      </c>
+      <c s="28" r="G139" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="140" spans="1:9">
-      <c s="3" r="C140" t="n"/>
-      <c s="3" r="D140" t="n"/>
-      <c s="4" r="G140" t="n"/>
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="n">
+        <v>151.41</v>
+      </c>
+      <c s="27" r="C140" t="n">
+        <v>-3.39</v>
+      </c>
+      <c s="27" r="D140" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F140" t="n">
+        <v>856</v>
+      </c>
+      <c s="28" r="G140" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="141" spans="1:9">
-      <c s="4" r="C141" t="n"/>
-      <c s="4" r="D141" t="n"/>
-      <c s="4" r="G141" t="n"/>
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="n">
+        <v>151.82</v>
+      </c>
+      <c s="27" r="C141" t="n">
+        <v>-2.98</v>
+      </c>
+      <c s="27" r="D141" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F141" t="n">
+        <v>856</v>
+      </c>
+      <c s="28" r="G141" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="142" spans="1:9">
-      <c s="3" r="C142" t="n"/>
-      <c s="3" r="D142" t="n"/>
-      <c s="4" r="G142" t="n"/>
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="n">
+        <v>151.68</v>
+      </c>
+      <c s="27" r="C142" t="n">
+        <v>-3.12</v>
+      </c>
+      <c s="27" r="D142" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F142" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G142" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="143" spans="1:9">
-      <c s="4" r="C143" t="n"/>
-      <c s="4" r="D143" t="n"/>
-      <c s="3" r="G143" t="n"/>
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="n">
+        <v>151.78</v>
+      </c>
+      <c s="27" r="C143" t="n">
+        <v>-3.02</v>
+      </c>
+      <c s="27" r="D143" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F143" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G143" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="144" spans="1:9">
-      <c s="4" r="C144" t="n"/>
-      <c s="4" r="D144" t="n"/>
-      <c s="4" r="G144" t="n"/>
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="n">
+        <v>151.96</v>
+      </c>
+      <c s="27" r="C144" t="n">
+        <v>-2.85</v>
+      </c>
+      <c s="27" r="D144" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F144" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G144" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="145" spans="1:9">
-      <c s="4" r="C145" t="n"/>
-      <c s="4" r="D145" t="n"/>
-      <c s="3" r="G145" t="n"/>
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="n">
+        <v>151.95</v>
+      </c>
+      <c s="29" r="C145" t="n">
+        <v>-2.85</v>
+      </c>
+      <c s="29" r="D145" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F145" t="n">
+        <v>870</v>
+      </c>
+      <c s="30" r="G145" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="146" spans="1:9">
-      <c s="3" r="C146" t="n"/>
-      <c s="3" r="D146" t="n"/>
-      <c s="4" r="G146" t="n"/>
+      <c s="6" r="C146" t="n"/>
+      <c s="6" r="D146" t="n"/>
+      <c s="5" r="G146" t="n"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" t="s">
+      <c s="6" r="C147" t="n"/>
+      <c s="6" r="D147" t="n"/>
+      <c s="6" r="G147" t="n"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c s="7" r="C148" t="n"/>
+      <c s="7" r="D148" t="n"/>
+      <c s="7" r="G148" t="n"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c s="6" r="C149" t="n"/>
+      <c s="6" r="D149" t="n"/>
+      <c s="5" r="G149" t="n"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c s="6" r="C150" t="n"/>
+      <c s="6" r="D150" t="n"/>
+      <c s="6" r="G150" t="n"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c s="6" r="C151" t="n"/>
+      <c s="6" r="D151" t="n"/>
+      <c s="6" r="G151" t="n"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c s="5" r="C152" t="n"/>
+      <c s="5" r="D152" t="n"/>
+      <c s="6" r="G152" t="n"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c s="5" r="C153" t="n"/>
+      <c s="5" r="D153" t="n"/>
+      <c s="6" r="G153" t="n"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c s="5" r="C154" t="n"/>
+      <c s="5" r="D154" t="n"/>
+      <c s="5" r="G154" t="n"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c s="6" r="C155" t="n"/>
+      <c s="6" r="D155" t="n"/>
+      <c s="6" r="G155" t="n"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c s="6" r="C156" t="n"/>
+      <c s="6" r="D156" t="n"/>
+      <c s="6" r="G156" t="n"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c s="7" r="C157" t="n"/>
+      <c s="7" r="D157" t="n"/>
+      <c s="7" r="G157" t="n"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c s="5" r="C158" t="n"/>
+      <c s="5" r="D158" t="n"/>
+      <c s="5" r="G158" t="n"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c s="6" r="C159" t="n"/>
+      <c s="6" r="D159" t="n"/>
+      <c s="5" r="G159" t="n"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c s="6" r="C160" t="n"/>
+      <c s="6" r="D160" t="n"/>
+      <c s="6" r="G160" t="n"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c s="6" r="C161" t="n"/>
+      <c s="6" r="D161" t="n"/>
+      <c s="6" r="G161" t="n"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c s="5" r="C162" t="n"/>
+      <c s="5" r="D162" t="n"/>
+      <c s="6" r="G162" t="n"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c s="6" r="C163" t="n"/>
+      <c s="6" r="D163" t="n"/>
+      <c s="6" r="G163" t="n"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c s="7" r="C164" t="n"/>
+      <c s="7" r="D164" t="n"/>
+      <c s="7" r="G164" t="n"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c s="5" r="C165" t="n"/>
+      <c s="5" r="D165" t="n"/>
+      <c s="6" r="G165" t="n"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c s="6" r="C166" t="n"/>
+      <c s="6" r="D166" t="n"/>
+      <c s="5" r="G166" t="n"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c s="6" r="C167" t="n"/>
+      <c s="6" r="D167" t="n"/>
+      <c s="6" r="G167" t="n"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c s="6" r="C168" t="n"/>
+      <c s="6" r="D168" t="n"/>
+      <c s="5" r="G168" t="n"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c s="5" r="C169" t="n"/>
+      <c s="5" r="D169" t="n"/>
+      <c s="6" r="G169" t="n"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c s="1" r="C170" t="n"/>
+      <c s="1" r="D170" t="n"/>
+      <c s="2" r="G170" t="n"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c s="2" r="C171" t="n"/>
+      <c s="2" r="D171" t="n"/>
+      <c s="2" r="G171" t="n"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c s="1" r="C172" t="n"/>
+      <c s="1" r="D172" t="n"/>
+      <c s="2" r="G172" t="n"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c s="2" r="C173" t="n"/>
+      <c s="2" r="D173" t="n"/>
+      <c s="2" r="G173" t="n"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c s="2" r="C174" t="n"/>
+      <c s="2" r="D174" t="n"/>
+      <c s="2" r="G174" t="n"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c s="2" r="C175" t="n"/>
+      <c s="2" r="D175" t="n"/>
+      <c s="2" r="G175" t="n"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c s="1" r="C176" t="n"/>
+      <c s="1" r="D176" t="n"/>
+      <c s="2" r="G176" t="n"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c s="3" r="C177" t="n"/>
+      <c s="3" r="D177" t="n"/>
+      <c s="4" r="G177" t="n"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c s="4" r="C178" t="n"/>
+      <c s="4" r="D178" t="n"/>
+      <c s="4" r="G178" t="n"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c s="3" r="C179" t="n"/>
+      <c s="3" r="D179" t="n"/>
+      <c s="3" r="G179" t="n"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c s="3" r="C180" t="n"/>
+      <c s="3" r="D180" t="n"/>
+      <c s="3" r="G180" t="n"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c s="4" r="C181" t="n"/>
+      <c s="4" r="D181" t="n"/>
+      <c s="4" r="G181" t="n"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c s="4" r="C182" t="n"/>
+      <c s="4" r="D182" t="n"/>
+      <c s="4" r="G182" t="n"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c s="4" r="C183" t="n"/>
+      <c s="4" r="D183" t="n"/>
+      <c s="4" r="G183" t="n"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c s="3" r="C184" t="n"/>
+      <c s="3" r="D184" t="n"/>
+      <c s="3" r="G184" t="n"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c s="4" r="C185" t="n"/>
+      <c s="4" r="D185" t="n"/>
+      <c s="3" r="G185" t="n"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c s="4" r="C186" t="n"/>
+      <c s="4" r="D186" t="n"/>
+      <c s="3" r="G186" t="n"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c s="4" r="C187" t="n"/>
+      <c s="4" r="D187" t="n"/>
+      <c s="4" r="G187" t="n"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c s="4" r="C188" t="n"/>
+      <c s="4" r="D188" t="n"/>
+      <c s="3" r="G188" t="n"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c s="4" r="C189" t="n"/>
+      <c s="4" r="D189" t="n"/>
+      <c s="4" r="G189" t="n"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c s="4" r="C190" t="n"/>
+      <c s="4" r="D190" t="n"/>
+      <c s="4" r="G190" t="n"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c s="3" r="C191" t="n"/>
+      <c s="3" r="D191" t="n"/>
+      <c s="4" r="G191" t="n"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c s="3" r="C192" t="n"/>
+      <c s="3" r="D192" t="n"/>
+      <c s="4" r="G192" t="n"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c s="3" r="C193" t="n"/>
+      <c s="3" r="D193" t="n"/>
+      <c s="3" r="G193" t="n"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c s="4" r="C194" t="n"/>
+      <c s="4" r="D194" t="n"/>
+      <c s="4" r="G194" t="n"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c s="4" r="C195" t="n"/>
+      <c s="4" r="D195" t="n"/>
+      <c s="4" r="G195" t="n"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c s="3" r="C196" t="n"/>
+      <c s="3" r="D196" t="n"/>
+      <c s="3" r="G196" t="n"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c s="4" r="C197" t="n"/>
+      <c s="4" r="D197" t="n"/>
+      <c s="3" r="G197" t="n"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c s="4" r="C198" t="n"/>
+      <c s="4" r="D198" t="n"/>
+      <c s="4" r="G198" t="n"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c s="4" r="C199" t="n"/>
+      <c s="4" r="D199" t="n"/>
+      <c s="4" r="G199" t="n"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c s="3" r="C200" t="n"/>
+      <c s="3" r="D200" t="n"/>
+      <c s="4" r="G200" t="n"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c s="4" r="C201" t="n"/>
+      <c s="4" r="D201" t="n"/>
+      <c s="4" r="G201" t="n"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c s="3" r="C202" t="n"/>
+      <c s="3" r="D202" t="n"/>
+      <c s="4" r="G202" t="n"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c s="4" r="C203" t="n"/>
+      <c s="4" r="D203" t="n"/>
+      <c s="3" r="G203" t="n"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c s="4" r="C204" t="n"/>
+      <c s="4" r="D204" t="n"/>
+      <c s="4" r="G204" t="n"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c s="4" r="C205" t="n"/>
+      <c s="4" r="D205" t="n"/>
+      <c s="3" r="G205" t="n"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c s="3" r="C206" t="n"/>
+      <c s="3" r="D206" t="n"/>
+      <c s="4" r="G206" t="n"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
         <v>9</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B207" t="n">
         <v>12.74</v>
       </c>
-      <c s="8" r="C147" t="n">
+      <c s="8" r="C207" t="n">
         <v>1.66</v>
       </c>
-      <c s="8" r="D147" t="n">
+      <c s="8" r="D207" t="n">
         <v>13.03</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E207" t="n">
         <v>2240</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F207" t="n">
         <v>1400</v>
       </c>
-      <c s="8" r="G147" t="n">
+      <c s="8" r="G207" t="n">
         <v>0.62</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H207" t="n">
         <v>3.95</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I207" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" t="s">
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
         <v>10</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B208" t="n">
         <v>1998.1</v>
       </c>
-      <c s="8" r="C148" t="n">
+      <c s="8" r="C208" t="n">
         <v>65.28</v>
       </c>
-      <c s="8" r="D148" t="n">
+      <c s="8" r="D208" t="n">
         <v>3.27</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E208" t="n">
         <v>2791</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F208" t="n">
         <v>2724</v>
       </c>
-      <c s="8" r="G148" t="n">
+      <c s="8" r="G208" t="n">
         <v>0.51</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H208" t="n">
         <v>1.61</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I208" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
-      <c r="A149" t="s">
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
         <v>17</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B209" t="n">
         <v>62.13</v>
       </c>
-      <c s="8" r="C149" t="n">
+      <c s="8" r="C209" t="n">
         <v>10.63</v>
       </c>
-      <c s="8" r="D149" t="n">
+      <c s="8" r="D209" t="n">
         <v>17.11</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E209" t="n">
         <v>2390</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F209" t="n">
         <v>1583</v>
       </c>
-      <c s="8" r="G149" t="n">
+      <c s="8" r="G209" t="n">
         <v>0.6</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H209" t="s">
         <v>18</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I209" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
-      <c r="A150" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" t="n">
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" t="n">
         <v>222.98</v>
       </c>
-      <c s="8" r="C150" t="n">
+      <c s="8" r="C210" t="n">
         <v>3.28</v>
       </c>
-      <c s="8" r="D150" t="n">
+      <c s="8" r="D210" t="n">
         <v>1.47</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E210" t="n">
         <v>1715</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F210" t="n">
         <v>1153</v>
       </c>
-      <c s="8" r="G150" t="n">
+      <c s="8" r="G210" t="n">
         <v>0.6</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H210" t="n">
         <v>1.14</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I210" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
-      <c r="A151" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" t="n">
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" t="n">
         <v>25.2</v>
       </c>
-      <c s="8" r="C151" t="n">
+      <c s="8" r="C211" t="n">
         <v>0.15</v>
       </c>
-      <c s="8" r="D151" t="n">
+      <c s="8" r="D211" t="n">
         <v>0.6</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E211" t="n">
         <v>2477</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F211" t="n">
         <v>2465</v>
       </c>
-      <c s="8" r="G151" t="n">
+      <c s="8" r="G211" t="n">
         <v>0.5</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H211" t="n">
         <v>3.6</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I211" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4380,65 +6162,84 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:14">
       <c s="12" r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c s="19" r="B2" t="n"/>
+        <v>13</v>
+      </c>
+      <c s="30" r="B2" t="s">
+        <v>43</v>
+      </c>
       <c s="20" r="C2" t="n"/>
       <c s="19" r="D2" t="n"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c s="28" r="N2" t="n"/>
+    </row>
+    <row r="3" spans="1:14">
       <c s="12" r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c s="19" r="B3" t="n"/>
+        <v>44</v>
+      </c>
+      <c s="30" r="B3" t="s">
+        <v>45</v>
+      </c>
       <c s="19" r="C3" t="n"/>
       <c s="20" r="E3" t="n"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c s="28" r="N3" t="n"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c s="29" r="B4" t="s">
+        <v>46</v>
+      </c>
       <c s="19" r="D4" t="n"/>
       <c s="19" r="E4" t="n"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c s="27" r="N4" t="n"/>
+    </row>
+    <row r="5" spans="1:14">
       <c s="12" r="A5" t="s">
         <v>10</v>
       </c>
+      <c s="30" r="B5" t="s">
+        <v>47</v>
+      </c>
       <c s="20" r="E5" t="n"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c s="28" r="N5" t="n"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c s="29" r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c s="28" r="N6" t="n"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5"/>
+        <v>12</v>
+      </c>
+      <c s="30" r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c s="27" r="N7" t="n"/>
+    </row>
+    <row r="8" spans="1:14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
@@ -4454,7 +6255,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4466,13 +6267,10 @@
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
       <c s="12" r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="19" r="B2" t="n"/>
       <c s="20" r="C2" t="n"/>
@@ -4480,7 +6278,7 @@
     </row>
     <row r="3" spans="1:5">
       <c s="12" r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="19" r="B3" t="n"/>
       <c s="19" r="C3" t="n"/>
@@ -4506,7 +6304,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5"/>
@@ -4522,63 +6320,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c s="12" r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c s="19" r="B2" t="n"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c s="12" r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c s="19" r="B3" t="n"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c s="12" r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c s="19" r="B2" t="n"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c s="12" r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c s="19" r="B3" t="n"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3"/>
+    </row>
+    <row r="8" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Stock_Parser/demo.xlsx
+++ b/Stock_Parser/demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8970" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily Stock List" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -50,16 +50,16 @@
     <t>CRON</t>
   </si>
   <si>
-    <t>AMZN</t>
+    <t>AMD</t>
   </si>
   <si>
-    <t>CRM</t>
+    <t>AMZN</t>
   </si>
   <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>AMD</t>
+    <t>CRM</t>
   </si>
   <si>
     <t>FB</t>
@@ -149,25 +149,61 @@
     <t>Stock/Date</t>
   </si>
   <si>
-    <t>25.35 (0.59%)</t>
+    <t>25.15 (-0.2%)</t>
+  </si>
+  <si>
+    <t>25.12 (-0.32%)</t>
+  </si>
+  <si>
+    <t>25.07 (-0.52%)</t>
   </si>
   <si>
     <t>Goog</t>
   </si>
   <si>
-    <t>1249.43 (0.01%)</t>
+    <t>1250.03 (0.06%)</t>
   </si>
   <si>
-    <t>11.42 (-11.56%)</t>
+    <t>1250.37 (0.09%)</t>
   </si>
   <si>
-    <t>2022.94 (1.23%)</t>
+    <t>1249.85 (0.04%)</t>
   </si>
   <si>
-    <t>151.95 (-1.88%)</t>
+    <t>11.26 (-13.14%)</t>
   </si>
   <si>
-    <t>225.8 (1.25%)</t>
+    <t>11.26 (-13.23%)</t>
+  </si>
+  <si>
+    <t>10.6 (-20.19%)</t>
+  </si>
+  <si>
+    <t>2019.33 (1.05%)</t>
+  </si>
+  <si>
+    <t>2019.94 (1.08%)</t>
+  </si>
+  <si>
+    <t>2021.71 (1.17%)</t>
+  </si>
+  <si>
+    <t>152.88 (-1.26%)</t>
+  </si>
+  <si>
+    <t>153.19 (-1.05%)</t>
+  </si>
+  <si>
+    <t>153.51 (-0.83%)</t>
+  </si>
+  <si>
+    <t>226.74 (1.66%)</t>
+  </si>
+  <si>
+    <t>226.79 (1.68%)</t>
+  </si>
+  <si>
+    <t>227.73 (2.09%)</t>
   </si>
 </sst>
 </file>
@@ -175,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,6 +359,26 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <color rgb="00FF0000"/>
     </font>
     <font>
@@ -349,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -381,6 +437,10 @@
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -700,22 +760,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>11.44</v>
-      </c>
-      <c s="29" r="C4" t="n">
-        <v>-1.3</v>
-      </c>
-      <c s="29" r="D4" t="n">
-        <v>-11.36</v>
+        <v>10.6</v>
+      </c>
+      <c s="33" r="C4" t="n">
+        <v>-2.14</v>
+      </c>
+      <c s="33" r="D4" t="n">
+        <v>-20.19</v>
       </c>
       <c r="E4" t="n">
-        <v>1569</v>
+        <v>1682</v>
       </c>
       <c r="F4" t="n">
-        <v>1045</v>
-      </c>
-      <c s="30" r="G4" t="n">
-        <v>0.6</v>
+        <v>1155</v>
+      </c>
+      <c s="34" r="G4" t="n">
+        <v>0.59</v>
       </c>
       <c r="H4" t="n">
         <v>3.95</v>
@@ -726,25 +786,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2023.24</v>
-      </c>
-      <c s="30" r="C5" t="n">
-        <v>25.14</v>
-      </c>
-      <c s="30" r="D5" t="n">
-        <v>1.24</v>
+        <v>25.07</v>
+      </c>
+      <c s="33" r="C5" t="n">
+        <v>-0.13</v>
+      </c>
+      <c s="33" r="D5" t="n">
+        <v>-0.52</v>
       </c>
       <c r="E5" t="n">
-        <v>2048</v>
+        <v>1290</v>
       </c>
       <c r="F5" t="n">
-        <v>1613</v>
-      </c>
-      <c s="30" r="G5" t="n">
-        <v>0.5600000000000001</v>
+        <v>980</v>
+      </c>
+      <c s="34" r="G5" t="n">
+        <v>0.57</v>
       </c>
       <c r="H5" t="n">
-        <v>1.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -752,25 +812,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>151.95</v>
-      </c>
-      <c s="29" r="C6" t="n">
-        <v>-2.85</v>
-      </c>
-      <c s="29" r="D6" t="n">
-        <v>-1.88</v>
+        <v>2021.71</v>
+      </c>
+      <c s="34" r="C6" t="n">
+        <v>23.61</v>
+      </c>
+      <c s="34" r="D6" t="n">
+        <v>1.17</v>
       </c>
       <c r="E6" t="n">
-        <v>1272</v>
+        <v>2159</v>
       </c>
       <c r="F6" t="n">
-        <v>870</v>
-      </c>
-      <c s="30" r="G6" t="n">
-        <v>0.59</v>
+        <v>1708</v>
+      </c>
+      <c s="34" r="G6" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -778,21 +838,21 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>225.8</v>
-      </c>
-      <c s="30" r="C7" t="n">
-        <v>2.82</v>
-      </c>
-      <c s="30" r="D7" t="n">
-        <v>1.25</v>
+        <v>227.77</v>
+      </c>
+      <c s="34" r="C7" t="n">
+        <v>4.79</v>
+      </c>
+      <c s="34" r="D7" t="n">
+        <v>2.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1633</v>
+        <v>1895</v>
       </c>
       <c r="F7" t="n">
-        <v>870</v>
-      </c>
-      <c s="30" r="G7" t="n">
+        <v>1036</v>
+      </c>
+      <c s="34" r="G7" t="n">
         <v>0.65</v>
       </c>
       <c r="H7" t="n">
@@ -804,25 +864,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>25.34</v>
-      </c>
-      <c s="30" r="C8" t="n">
-        <v>0.14</v>
-      </c>
-      <c s="30" r="D8" t="n">
-        <v>0.55</v>
+        <v>153.42</v>
+      </c>
+      <c s="33" r="C8" t="n">
+        <v>-1.38</v>
+      </c>
+      <c s="33" r="D8" t="n">
+        <v>-0.9</v>
       </c>
       <c r="E8" t="n">
-        <v>1211</v>
+        <v>1437</v>
       </c>
       <c r="F8" t="n">
-        <v>932</v>
-      </c>
-      <c s="30" r="G8" t="n">
-        <v>0.57</v>
+        <v>931</v>
+      </c>
+      <c s="34" r="G8" t="n">
+        <v>0.61</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1009,7 +1069,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
         <v>154.8</v>
@@ -1165,7 +1225,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
         <v>25.2</v>
@@ -1321,7 +1381,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
         <v>1998.1</v>
@@ -1487,7 +1547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H13" sqref="H13"/>
@@ -2454,86 +2514,86 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C34" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D34" t="n">
-        <v>3.27</v>
+        <v>11.23</v>
+      </c>
+      <c s="29" r="C34" t="n">
+        <v>-1.51</v>
+      </c>
+      <c s="29" r="D34" t="n">
+        <v>-13.45</v>
       </c>
       <c r="E34" t="n">
-        <v>2791</v>
+        <v>1569</v>
       </c>
       <c r="F34" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G34" t="n">
-        <v>0.51</v>
+        <v>1045</v>
+      </c>
+      <c s="30" r="G34" t="n">
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C35" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D35" t="n">
-        <v>3.27</v>
+        <v>11.25</v>
+      </c>
+      <c s="29" r="C35" t="n">
+        <v>-1.49</v>
+      </c>
+      <c s="29" r="D35" t="n">
+        <v>-13.24</v>
       </c>
       <c r="E35" t="n">
-        <v>2791</v>
+        <v>1682</v>
       </c>
       <c r="F35" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G35" t="n">
-        <v>0.51</v>
+        <v>1155</v>
+      </c>
+      <c s="30" r="G35" t="n">
+        <v>0.59</v>
       </c>
       <c r="H35" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="n">
-        <v>2005.03</v>
-      </c>
-      <c s="8" r="C36" t="n">
-        <v>6.93</v>
-      </c>
-      <c s="8" r="D36" t="n">
-        <v>0.35</v>
+        <v>11.26</v>
+      </c>
+      <c s="29" r="C36" t="n">
+        <v>-1.48</v>
+      </c>
+      <c s="29" r="D36" t="n">
+        <v>-13.14</v>
       </c>
       <c r="E36" t="n">
-        <v>322</v>
+        <v>1682</v>
       </c>
       <c r="F36" t="n">
-        <v>320</v>
-      </c>
-      <c s="8" r="G36" t="n">
-        <v>0.5</v>
+        <v>1155</v>
+      </c>
+      <c s="30" r="G36" t="n">
+        <v>0.59</v>
       </c>
       <c r="H36" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="s">
         <v>41</v>
@@ -2541,28 +2601,28 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="n">
-        <v>1999.03</v>
-      </c>
-      <c s="11" r="C37" t="n">
-        <v>0.93</v>
-      </c>
-      <c s="11" r="D37" t="n">
-        <v>0.05</v>
+        <v>11.27</v>
+      </c>
+      <c s="31" r="C37" t="n">
+        <v>-1.47</v>
+      </c>
+      <c s="31" r="D37" t="n">
+        <v>-13.04</v>
       </c>
       <c r="E37" t="n">
-        <v>740</v>
+        <v>1682</v>
       </c>
       <c r="F37" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G37" t="n">
-        <v>0.55</v>
+        <v>1155</v>
+      </c>
+      <c s="32" r="G37" t="n">
+        <v>0.59</v>
       </c>
       <c r="H37" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I37" t="s">
         <v>41</v>
@@ -2570,28 +2630,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>1997.49</v>
-      </c>
-      <c s="10" r="C38" t="n">
-        <v>-0.61</v>
-      </c>
-      <c s="10" r="D38" t="n">
-        <v>-0.03</v>
+        <v>11.26</v>
+      </c>
+      <c s="33" r="C38" t="n">
+        <v>-1.48</v>
+      </c>
+      <c s="33" r="D38" t="n">
+        <v>-13.14</v>
       </c>
       <c r="E38" t="n">
-        <v>740</v>
+        <v>1682</v>
       </c>
       <c r="F38" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G38" t="n">
-        <v>0.55</v>
+        <v>1155</v>
+      </c>
+      <c s="34" r="G38" t="n">
+        <v>0.59</v>
       </c>
       <c r="H38" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I38" t="s">
         <v>41</v>
@@ -2599,28 +2659,28 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="n">
-        <v>1997.93</v>
-      </c>
-      <c s="10" r="C39" t="n">
-        <v>-0.17</v>
-      </c>
-      <c s="10" r="D39" t="n">
-        <v>-0.01</v>
+        <v>10.6</v>
+      </c>
+      <c s="33" r="C39" t="n">
+        <v>-2.14</v>
+      </c>
+      <c s="33" r="D39" t="n">
+        <v>-20.19</v>
       </c>
       <c r="E39" t="n">
-        <v>740</v>
+        <v>1682</v>
       </c>
       <c r="F39" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G39" t="n">
-        <v>0.55</v>
+        <v>1155</v>
+      </c>
+      <c s="34" r="G39" t="n">
+        <v>0.59</v>
       </c>
       <c r="H39" t="n">
-        <v>1.61</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="s">
         <v>41</v>
@@ -2628,83 +2688,83 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>1999.18</v>
-      </c>
-      <c s="11" r="C40" t="n">
-        <v>1.08</v>
-      </c>
-      <c s="11" r="D40" t="n">
-        <v>0.05</v>
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C40" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D40" t="n">
+        <v>3.27</v>
       </c>
       <c r="E40" t="n">
-        <v>740</v>
+        <v>2791</v>
       </c>
       <c r="F40" t="n">
-        <v>607</v>
-      </c>
-      <c s="11" r="G40" t="n">
-        <v>0.55</v>
+        <v>2724</v>
+      </c>
+      <c s="8" r="G40" t="n">
+        <v>0.51</v>
       </c>
       <c r="H40" t="n">
         <v>1.61</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
-        <v>2002.77</v>
-      </c>
-      <c s="14" r="C41" t="n">
-        <v>4.67</v>
-      </c>
-      <c s="14" r="D41" t="n">
-        <v>0.23</v>
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C41" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D41" t="n">
+        <v>3.27</v>
       </c>
       <c r="E41" t="n">
-        <v>865</v>
+        <v>2791</v>
       </c>
       <c r="F41" t="n">
-        <v>711</v>
-      </c>
-      <c s="14" r="G41" t="n">
-        <v>0.55</v>
+        <v>2724</v>
+      </c>
+      <c s="8" r="G41" t="n">
+        <v>0.51</v>
       </c>
       <c r="H41" t="n">
         <v>1.61</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>2002.22</v>
-      </c>
-      <c s="16" r="C42" t="n">
-        <v>4.12</v>
-      </c>
-      <c s="16" r="D42" t="n">
-        <v>0.21</v>
+        <v>2005.03</v>
+      </c>
+      <c s="8" r="C42" t="n">
+        <v>6.93</v>
+      </c>
+      <c s="8" r="D42" t="n">
+        <v>0.35</v>
       </c>
       <c r="E42" t="n">
-        <v>865</v>
+        <v>322</v>
       </c>
       <c r="F42" t="n">
-        <v>711</v>
-      </c>
-      <c s="16" r="G42" t="n">
-        <v>0.55</v>
+        <v>320</v>
+      </c>
+      <c s="8" r="G42" t="n">
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>1.61</v>
@@ -2715,24 +2775,24 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>2001.13</v>
-      </c>
-      <c s="18" r="C43" t="n">
-        <v>3.03</v>
-      </c>
-      <c s="18" r="D43" t="n">
-        <v>0.15</v>
+        <v>1999.03</v>
+      </c>
+      <c s="11" r="C43" t="n">
+        <v>0.93</v>
+      </c>
+      <c s="11" r="D43" t="n">
+        <v>0.05</v>
       </c>
       <c r="E43" t="n">
-        <v>865</v>
+        <v>740</v>
       </c>
       <c r="F43" t="n">
-        <v>711</v>
-      </c>
-      <c s="18" r="G43" t="n">
+        <v>607</v>
+      </c>
+      <c s="11" r="G43" t="n">
         <v>0.55</v>
       </c>
       <c r="H43" t="n">
@@ -2744,25 +2804,25 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="n">
-        <v>2016.01</v>
-      </c>
-      <c s="22" r="C44" t="n">
-        <v>17.91</v>
-      </c>
-      <c s="22" r="D44" t="n">
-        <v>0.89</v>
+        <v>1997.49</v>
+      </c>
+      <c s="10" r="C44" t="n">
+        <v>-0.61</v>
+      </c>
+      <c s="10" r="D44" t="n">
+        <v>-0.03</v>
       </c>
       <c r="E44" t="n">
-        <v>1152</v>
+        <v>740</v>
       </c>
       <c r="F44" t="n">
-        <v>877</v>
-      </c>
-      <c s="22" r="G44" t="n">
-        <v>0.57</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G44" t="n">
+        <v>0.55</v>
       </c>
       <c r="H44" t="n">
         <v>1.61</v>
@@ -2773,25 +2833,25 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="n">
-        <v>2016.85</v>
-      </c>
-      <c s="24" r="C45" t="n">
-        <v>18.75</v>
-      </c>
-      <c s="24" r="D45" t="n">
-        <v>0.93</v>
+        <v>1997.93</v>
+      </c>
+      <c s="10" r="C45" t="n">
+        <v>-0.17</v>
+      </c>
+      <c s="10" r="D45" t="n">
+        <v>-0.01</v>
       </c>
       <c r="E45" t="n">
-        <v>1152</v>
+        <v>740</v>
       </c>
       <c r="F45" t="n">
-        <v>877</v>
-      </c>
-      <c s="24" r="G45" t="n">
-        <v>0.57</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G45" t="n">
+        <v>0.55</v>
       </c>
       <c r="H45" t="n">
         <v>1.61</v>
@@ -2802,25 +2862,25 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>2017.24</v>
-      </c>
-      <c s="24" r="C46" t="n">
-        <v>19.14</v>
-      </c>
-      <c s="24" r="D46" t="n">
-        <v>0.95</v>
+        <v>1999.18</v>
+      </c>
+      <c s="11" r="C46" t="n">
+        <v>1.08</v>
+      </c>
+      <c s="11" r="D46" t="n">
+        <v>0.05</v>
       </c>
       <c r="E46" t="n">
-        <v>1152</v>
+        <v>740</v>
       </c>
       <c r="F46" t="n">
-        <v>877</v>
-      </c>
-      <c s="24" r="G46" t="n">
-        <v>0.57</v>
+        <v>607</v>
+      </c>
+      <c s="11" r="G46" t="n">
+        <v>0.55</v>
       </c>
       <c r="H46" t="n">
         <v>1.61</v>
@@ -2831,25 +2891,25 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" t="n">
-        <v>2018.63</v>
-      </c>
-      <c s="24" r="C47" t="n">
-        <v>20.53</v>
-      </c>
-      <c s="24" r="D47" t="n">
-        <v>1.02</v>
+        <v>2002.77</v>
+      </c>
+      <c s="14" r="C47" t="n">
+        <v>4.67</v>
+      </c>
+      <c s="14" r="D47" t="n">
+        <v>0.23</v>
       </c>
       <c r="E47" t="n">
-        <v>1526</v>
+        <v>865</v>
       </c>
       <c r="F47" t="n">
-        <v>1176</v>
-      </c>
-      <c s="24" r="G47" t="n">
-        <v>0.5600000000000001</v>
+        <v>711</v>
+      </c>
+      <c s="14" r="G47" t="n">
+        <v>0.55</v>
       </c>
       <c r="H47" t="n">
         <v>1.61</v>
@@ -2860,25 +2920,25 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>2016.54</v>
-      </c>
-      <c s="24" r="C48" t="n">
-        <v>18.44</v>
-      </c>
-      <c s="24" r="D48" t="n">
-        <v>0.91</v>
+        <v>2002.22</v>
+      </c>
+      <c s="16" r="C48" t="n">
+        <v>4.12</v>
+      </c>
+      <c s="16" r="D48" t="n">
+        <v>0.21</v>
       </c>
       <c r="E48" t="n">
-        <v>1526</v>
+        <v>865</v>
       </c>
       <c r="F48" t="n">
-        <v>1176</v>
-      </c>
-      <c s="24" r="G48" t="n">
-        <v>0.5600000000000001</v>
+        <v>711</v>
+      </c>
+      <c s="16" r="G48" t="n">
+        <v>0.55</v>
       </c>
       <c r="H48" t="n">
         <v>1.61</v>
@@ -2889,25 +2949,25 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" t="n">
-        <v>2019.83</v>
-      </c>
-      <c s="26" r="C49" t="n">
-        <v>21.73</v>
-      </c>
-      <c s="26" r="D49" t="n">
-        <v>1.08</v>
+        <v>2001.13</v>
+      </c>
+      <c s="18" r="C49" t="n">
+        <v>3.03</v>
+      </c>
+      <c s="18" r="D49" t="n">
+        <v>0.15</v>
       </c>
       <c r="E49" t="n">
-        <v>1526</v>
+        <v>865</v>
       </c>
       <c r="F49" t="n">
-        <v>1176</v>
-      </c>
-      <c s="26" r="G49" t="n">
-        <v>0.5600000000000001</v>
+        <v>711</v>
+      </c>
+      <c s="18" r="G49" t="n">
+        <v>0.55</v>
       </c>
       <c r="H49" t="n">
         <v>1.61</v>
@@ -2918,25 +2978,25 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="n">
-        <v>2015.67</v>
-      </c>
-      <c s="26" r="C50" t="n">
-        <v>17.57</v>
-      </c>
-      <c s="26" r="D50" t="n">
-        <v>0.87</v>
+        <v>2016.01</v>
+      </c>
+      <c s="22" r="C50" t="n">
+        <v>17.91</v>
+      </c>
+      <c s="22" r="D50" t="n">
+        <v>0.89</v>
       </c>
       <c r="E50" t="n">
-        <v>1738</v>
+        <v>1152</v>
       </c>
       <c r="F50" t="n">
-        <v>1375</v>
-      </c>
-      <c s="26" r="G50" t="n">
-        <v>0.5600000000000001</v>
+        <v>877</v>
+      </c>
+      <c s="22" r="G50" t="n">
+        <v>0.57</v>
       </c>
       <c r="H50" t="n">
         <v>1.61</v>
@@ -2947,25 +3007,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>2017.49</v>
-      </c>
-      <c s="26" r="C51" t="n">
-        <v>19.39</v>
-      </c>
-      <c s="26" r="D51" t="n">
-        <v>0.96</v>
+        <v>2016.85</v>
+      </c>
+      <c s="24" r="C51" t="n">
+        <v>18.75</v>
+      </c>
+      <c s="24" r="D51" t="n">
+        <v>0.93</v>
       </c>
       <c r="E51" t="n">
-        <v>1738</v>
+        <v>1152</v>
       </c>
       <c r="F51" t="n">
-        <v>1375</v>
-      </c>
-      <c s="26" r="G51" t="n">
-        <v>0.5600000000000001</v>
+        <v>877</v>
+      </c>
+      <c s="24" r="G51" t="n">
+        <v>0.57</v>
       </c>
       <c r="H51" t="n">
         <v>1.61</v>
@@ -2976,25 +3036,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="n">
-        <v>2017.01</v>
-      </c>
-      <c s="26" r="C52" t="n">
-        <v>18.91</v>
-      </c>
-      <c s="26" r="D52" t="n">
-        <v>0.9399999999999999</v>
+        <v>2017.24</v>
+      </c>
+      <c s="24" r="C52" t="n">
+        <v>19.14</v>
+      </c>
+      <c s="24" r="D52" t="n">
+        <v>0.95</v>
       </c>
       <c r="E52" t="n">
-        <v>1738</v>
+        <v>1152</v>
       </c>
       <c r="F52" t="n">
-        <v>1375</v>
-      </c>
-      <c s="26" r="G52" t="n">
-        <v>0.5600000000000001</v>
+        <v>877</v>
+      </c>
+      <c s="24" r="G52" t="n">
+        <v>0.57</v>
       </c>
       <c r="H52" t="n">
         <v>1.61</v>
@@ -3005,24 +3065,24 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="n">
-        <v>2018.27</v>
-      </c>
-      <c s="28" r="C53" t="n">
-        <v>20.17</v>
-      </c>
-      <c s="28" r="D53" t="n">
-        <v>1</v>
+        <v>2018.63</v>
+      </c>
+      <c s="24" r="C53" t="n">
+        <v>20.53</v>
+      </c>
+      <c s="24" r="D53" t="n">
+        <v>1.02</v>
       </c>
       <c r="E53" t="n">
-        <v>1738</v>
+        <v>1526</v>
       </c>
       <c r="F53" t="n">
-        <v>1375</v>
-      </c>
-      <c s="28" r="G53" t="n">
+        <v>1176</v>
+      </c>
+      <c s="24" r="G53" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="H53" t="n">
@@ -3034,24 +3094,24 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
-        <v>2016.38</v>
-      </c>
-      <c s="28" r="C54" t="n">
-        <v>18.28</v>
-      </c>
-      <c s="28" r="D54" t="n">
+        <v>2016.54</v>
+      </c>
+      <c s="24" r="C54" t="n">
+        <v>18.44</v>
+      </c>
+      <c s="24" r="D54" t="n">
         <v>0.91</v>
       </c>
       <c r="E54" t="n">
-        <v>1738</v>
+        <v>1526</v>
       </c>
       <c r="F54" t="n">
-        <v>1375</v>
-      </c>
-      <c s="28" r="G54" t="n">
+        <v>1176</v>
+      </c>
+      <c s="24" r="G54" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="H54" t="n">
@@ -3063,25 +3123,25 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>2020.82</v>
-      </c>
-      <c s="28" r="C55" t="n">
-        <v>22.72</v>
-      </c>
-      <c s="28" r="D55" t="n">
-        <v>1.12</v>
+        <v>2019.83</v>
+      </c>
+      <c s="26" r="C55" t="n">
+        <v>21.73</v>
+      </c>
+      <c s="26" r="D55" t="n">
+        <v>1.08</v>
       </c>
       <c r="E55" t="n">
-        <v>1889</v>
+        <v>1526</v>
       </c>
       <c r="F55" t="n">
-        <v>1520</v>
-      </c>
-      <c s="28" r="G55" t="n">
-        <v>0.55</v>
+        <v>1176</v>
+      </c>
+      <c s="26" r="G55" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>1.61</v>
@@ -3092,25 +3152,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" t="n">
-        <v>2021.78</v>
-      </c>
-      <c s="28" r="C56" t="n">
-        <v>23.68</v>
-      </c>
-      <c s="28" r="D56" t="n">
-        <v>1.17</v>
+        <v>2015.67</v>
+      </c>
+      <c s="26" r="C56" t="n">
+        <v>17.57</v>
+      </c>
+      <c s="26" r="D56" t="n">
+        <v>0.87</v>
       </c>
       <c r="E56" t="n">
-        <v>1889</v>
+        <v>1738</v>
       </c>
       <c r="F56" t="n">
-        <v>1520</v>
-      </c>
-      <c s="28" r="G56" t="n">
-        <v>0.55</v>
+        <v>1375</v>
+      </c>
+      <c s="26" r="G56" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>1.61</v>
@@ -3121,25 +3181,25 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" t="n">
-        <v>2023.05</v>
-      </c>
-      <c s="28" r="C57" t="n">
-        <v>24.95</v>
-      </c>
-      <c s="28" r="D57" t="n">
-        <v>1.23</v>
+        <v>2017.49</v>
+      </c>
+      <c s="26" r="C57" t="n">
+        <v>19.39</v>
+      </c>
+      <c s="26" r="D57" t="n">
+        <v>0.96</v>
       </c>
       <c r="E57" t="n">
-        <v>1889</v>
+        <v>1738</v>
       </c>
       <c r="F57" t="n">
-        <v>1520</v>
-      </c>
-      <c s="28" r="G57" t="n">
-        <v>0.55</v>
+        <v>1375</v>
+      </c>
+      <c s="26" r="G57" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>1.61</v>
@@ -3150,24 +3210,24 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" t="n">
-        <v>2023.26</v>
-      </c>
-      <c s="28" r="C58" t="n">
-        <v>25.16</v>
-      </c>
-      <c s="28" r="D58" t="n">
-        <v>1.24</v>
+        <v>2017.01</v>
+      </c>
+      <c s="26" r="C58" t="n">
+        <v>18.91</v>
+      </c>
+      <c s="26" r="D58" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>2048</v>
+        <v>1738</v>
       </c>
       <c r="F58" t="n">
-        <v>1613</v>
-      </c>
-      <c s="28" r="G58" t="n">
+        <v>1375</v>
+      </c>
+      <c s="26" r="G58" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="H58" t="n">
@@ -3179,22 +3239,22 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>2023.63</v>
+        <v>2018.27</v>
       </c>
       <c s="28" r="C59" t="n">
-        <v>25.53</v>
+        <v>20.17</v>
       </c>
       <c s="28" r="D59" t="n">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>2048</v>
+        <v>1738</v>
       </c>
       <c r="F59" t="n">
-        <v>1613</v>
+        <v>1375</v>
       </c>
       <c s="28" r="G59" t="n">
         <v>0.5600000000000001</v>
@@ -3208,22 +3268,22 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" t="n">
-        <v>2023.07</v>
+        <v>2016.38</v>
       </c>
       <c s="28" r="C60" t="n">
-        <v>24.97</v>
+        <v>18.28</v>
       </c>
       <c s="28" r="D60" t="n">
-        <v>1.23</v>
+        <v>0.91</v>
       </c>
       <c r="E60" t="n">
-        <v>2048</v>
+        <v>1738</v>
       </c>
       <c r="F60" t="n">
-        <v>1613</v>
+        <v>1375</v>
       </c>
       <c s="28" r="G60" t="n">
         <v>0.5600000000000001</v>
@@ -3237,25 +3297,25 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" t="n">
-        <v>2023.24</v>
-      </c>
-      <c s="30" r="C61" t="n">
-        <v>25.14</v>
-      </c>
-      <c s="30" r="D61" t="n">
-        <v>1.24</v>
+        <v>2020.82</v>
+      </c>
+      <c s="28" r="C61" t="n">
+        <v>22.72</v>
+      </c>
+      <c s="28" r="D61" t="n">
+        <v>1.12</v>
       </c>
       <c r="E61" t="n">
-        <v>2048</v>
+        <v>1889</v>
       </c>
       <c r="F61" t="n">
-        <v>1613</v>
-      </c>
-      <c s="30" r="G61" t="n">
-        <v>0.5600000000000001</v>
+        <v>1520</v>
+      </c>
+      <c s="28" r="G61" t="n">
+        <v>0.55</v>
       </c>
       <c r="H61" t="n">
         <v>1.61</v>
@@ -3266,144 +3326,144 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B62" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C62" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D62" t="n">
-        <v>17.11</v>
+        <v>2021.78</v>
+      </c>
+      <c s="28" r="C62" t="n">
+        <v>23.68</v>
+      </c>
+      <c s="28" r="D62" t="n">
+        <v>1.17</v>
       </c>
       <c r="E62" t="n">
-        <v>2390</v>
+        <v>1889</v>
       </c>
       <c r="F62" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G62" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H62" t="s">
-        <v>18</v>
+        <v>1520</v>
+      </c>
+      <c s="28" r="G62" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.61</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B63" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C63" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D63" t="n">
-        <v>17.11</v>
+        <v>2023.05</v>
+      </c>
+      <c s="28" r="C63" t="n">
+        <v>24.95</v>
+      </c>
+      <c s="28" r="D63" t="n">
+        <v>1.23</v>
       </c>
       <c r="E63" t="n">
-        <v>2390</v>
+        <v>1889</v>
       </c>
       <c r="F63" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G63" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H63" t="s">
-        <v>18</v>
+        <v>1520</v>
+      </c>
+      <c s="28" r="G63" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.61</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C64" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D64" t="n">
-        <v>1.47</v>
+        <v>2023.26</v>
+      </c>
+      <c s="28" r="C64" t="n">
+        <v>25.16</v>
+      </c>
+      <c s="28" r="D64" t="n">
+        <v>1.24</v>
       </c>
       <c r="E64" t="n">
-        <v>1715</v>
+        <v>2048</v>
       </c>
       <c r="F64" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G64" t="n">
-        <v>0.6</v>
+        <v>1613</v>
+      </c>
+      <c s="28" r="G64" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C65" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D65" t="n">
-        <v>1.47</v>
+        <v>2023.63</v>
+      </c>
+      <c s="28" r="C65" t="n">
+        <v>25.53</v>
+      </c>
+      <c s="28" r="D65" t="n">
+        <v>1.26</v>
       </c>
       <c r="E65" t="n">
-        <v>1715</v>
+        <v>2048</v>
       </c>
       <c r="F65" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G65" t="n">
-        <v>0.6</v>
+        <v>1613</v>
+      </c>
+      <c s="28" r="G65" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" t="n">
-        <v>224.43</v>
-      </c>
-      <c s="8" r="C66" t="n">
-        <v>1.45</v>
-      </c>
-      <c s="8" r="D66" t="n">
-        <v>0.65</v>
+        <v>2023.07</v>
+      </c>
+      <c s="28" r="C66" t="n">
+        <v>24.97</v>
+      </c>
+      <c s="28" r="D66" t="n">
+        <v>1.23</v>
       </c>
       <c r="E66" t="n">
-        <v>272</v>
+        <v>2048</v>
       </c>
       <c r="F66" t="n">
-        <v>186</v>
-      </c>
-      <c s="8" r="G66" t="n">
-        <v>0.59</v>
+        <v>1613</v>
+      </c>
+      <c s="28" r="G66" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I66" t="s">
         <v>41</v>
@@ -3411,28 +3471,28 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>222.76</v>
-      </c>
-      <c s="10" r="C67" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D67" t="n">
-        <v>-0.1</v>
+        <v>2023.24</v>
+      </c>
+      <c s="30" r="C67" t="n">
+        <v>25.14</v>
+      </c>
+      <c s="30" r="D67" t="n">
+        <v>1.24</v>
       </c>
       <c r="E67" t="n">
-        <v>568</v>
+        <v>2048</v>
       </c>
       <c r="F67" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G67" t="n">
-        <v>0.62</v>
+        <v>1613</v>
+      </c>
+      <c s="30" r="G67" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I67" t="s">
         <v>41</v>
@@ -3440,28 +3500,28 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" t="n">
-        <v>222.8</v>
-      </c>
-      <c s="10" r="C68" t="n">
-        <v>-0.18</v>
-      </c>
-      <c s="10" r="D68" t="n">
-        <v>-0.08</v>
+        <v>2024.23</v>
+      </c>
+      <c s="30" r="C68" t="n">
+        <v>26.13</v>
+      </c>
+      <c s="30" r="D68" t="n">
+        <v>1.29</v>
       </c>
       <c r="E68" t="n">
-        <v>568</v>
+        <v>2048</v>
       </c>
       <c r="F68" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G68" t="n">
-        <v>0.62</v>
+        <v>1613</v>
+      </c>
+      <c s="30" r="G68" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I68" t="s">
         <v>41</v>
@@ -3469,28 +3529,28 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" t="n">
-        <v>222.76</v>
-      </c>
-      <c s="10" r="C69" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D69" t="n">
-        <v>-0.1</v>
+        <v>2023.74</v>
+      </c>
+      <c s="30" r="C69" t="n">
+        <v>25.64</v>
+      </c>
+      <c s="30" r="D69" t="n">
+        <v>1.27</v>
       </c>
       <c r="E69" t="n">
-        <v>568</v>
+        <v>2159</v>
       </c>
       <c r="F69" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G69" t="n">
-        <v>0.62</v>
+        <v>1708</v>
+      </c>
+      <c s="30" r="G69" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I69" t="s">
         <v>41</v>
@@ -3498,28 +3558,28 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="n">
-        <v>222.43</v>
-      </c>
-      <c s="10" r="C70" t="n">
-        <v>-0.55</v>
-      </c>
-      <c s="10" r="D70" t="n">
-        <v>-0.25</v>
+        <v>2023.71</v>
+      </c>
+      <c s="30" r="C70" t="n">
+        <v>25.61</v>
+      </c>
+      <c s="30" r="D70" t="n">
+        <v>1.27</v>
       </c>
       <c r="E70" t="n">
-        <v>568</v>
+        <v>2159</v>
       </c>
       <c r="F70" t="n">
-        <v>345</v>
-      </c>
-      <c s="11" r="G70" t="n">
-        <v>0.62</v>
+        <v>1708</v>
+      </c>
+      <c s="30" r="G70" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I70" t="s">
         <v>41</v>
@@ -3527,28 +3587,28 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" t="n">
-        <v>223.03</v>
-      </c>
-      <c s="14" r="C71" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="14" r="D71" t="n">
-        <v>0.02</v>
+        <v>2019.42</v>
+      </c>
+      <c s="32" r="C71" t="n">
+        <v>21.32</v>
+      </c>
+      <c s="32" r="D71" t="n">
+        <v>1.06</v>
       </c>
       <c r="E71" t="n">
-        <v>656</v>
+        <v>2159</v>
       </c>
       <c r="F71" t="n">
-        <v>394</v>
-      </c>
-      <c s="14" r="G71" t="n">
-        <v>0.62</v>
+        <v>1708</v>
+      </c>
+      <c s="32" r="G71" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I71" t="s">
         <v>41</v>
@@ -3556,28 +3616,28 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>222.91</v>
-      </c>
-      <c s="15" r="C72" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c s="15" r="D72" t="n">
-        <v>-0.03</v>
+        <v>2018.87</v>
+      </c>
+      <c s="34" r="C72" t="n">
+        <v>20.77</v>
+      </c>
+      <c s="34" r="D72" t="n">
+        <v>1.03</v>
       </c>
       <c r="E72" t="n">
-        <v>656</v>
+        <v>2159</v>
       </c>
       <c r="F72" t="n">
-        <v>394</v>
-      </c>
-      <c s="16" r="G72" t="n">
-        <v>0.62</v>
+        <v>1708</v>
+      </c>
+      <c s="34" r="G72" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I72" t="s">
         <v>41</v>
@@ -3585,28 +3645,28 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>222.97</v>
-      </c>
-      <c s="17" r="C73" t="n">
-        <v>-0.01</v>
-      </c>
-      <c s="18" r="D73" t="n">
-        <v>0</v>
+        <v>2021.71</v>
+      </c>
+      <c s="34" r="C73" t="n">
+        <v>23.61</v>
+      </c>
+      <c s="34" r="D73" t="n">
+        <v>1.17</v>
       </c>
       <c r="E73" t="n">
-        <v>656</v>
+        <v>2159</v>
       </c>
       <c r="F73" t="n">
-        <v>394</v>
-      </c>
-      <c s="18" r="G73" t="n">
-        <v>0.62</v>
+        <v>1708</v>
+      </c>
+      <c s="34" r="G73" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="I73" t="s">
         <v>41</v>
@@ -3614,60 +3674,60 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B74" t="n">
-        <v>223.05</v>
-      </c>
-      <c s="22" r="C74" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c s="22" r="D74" t="n">
-        <v>0.03</v>
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C74" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D74" t="n">
+        <v>17.11</v>
       </c>
       <c r="E74" t="n">
-        <v>807</v>
+        <v>2390</v>
       </c>
       <c r="F74" t="n">
-        <v>463</v>
-      </c>
-      <c s="22" r="G74" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1.14</v>
+        <v>1583</v>
+      </c>
+      <c s="8" r="G74" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B75" t="n">
-        <v>223.19</v>
-      </c>
-      <c s="24" r="C75" t="n">
-        <v>0.21</v>
-      </c>
-      <c s="24" r="D75" t="n">
-        <v>0.09</v>
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C75" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D75" t="n">
+        <v>17.11</v>
       </c>
       <c r="E75" t="n">
-        <v>807</v>
+        <v>2390</v>
       </c>
       <c r="F75" t="n">
-        <v>463</v>
-      </c>
-      <c s="24" r="G75" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1.14</v>
+        <v>1583</v>
+      </c>
+      <c s="8" r="G75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3675,28 +3735,28 @@
         <v>12</v>
       </c>
       <c r="B76" t="n">
-        <v>223.18</v>
-      </c>
-      <c s="24" r="C76" t="n">
-        <v>0.2</v>
-      </c>
-      <c s="24" r="D76" t="n">
-        <v>0.09</v>
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C76" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D76" t="n">
+        <v>1.47</v>
       </c>
       <c r="E76" t="n">
-        <v>807</v>
+        <v>1715</v>
       </c>
       <c r="F76" t="n">
-        <v>463</v>
-      </c>
-      <c s="24" r="G76" t="n">
-        <v>0.64</v>
+        <v>1153</v>
+      </c>
+      <c s="8" r="G76" t="n">
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>1.14</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3704,28 +3764,28 @@
         <v>12</v>
       </c>
       <c r="B77" t="n">
-        <v>223.68</v>
-      </c>
-      <c s="24" r="C77" t="n">
-        <v>0.7</v>
-      </c>
-      <c s="24" r="D77" t="n">
-        <v>0.31</v>
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C77" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D77" t="n">
+        <v>1.47</v>
       </c>
       <c r="E77" t="n">
-        <v>970</v>
+        <v>1715</v>
       </c>
       <c r="F77" t="n">
-        <v>546</v>
-      </c>
-      <c s="24" r="G77" t="n">
-        <v>0.64</v>
+        <v>1153</v>
+      </c>
+      <c s="8" r="G77" t="n">
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>1.14</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3733,22 +3793,22 @@
         <v>12</v>
       </c>
       <c r="B78" t="n">
-        <v>223.78</v>
-      </c>
-      <c s="24" r="C78" t="n">
-        <v>0.8</v>
-      </c>
-      <c s="24" r="D78" t="n">
-        <v>0.36</v>
+        <v>224.43</v>
+      </c>
+      <c s="8" r="C78" t="n">
+        <v>1.45</v>
+      </c>
+      <c s="8" r="D78" t="n">
+        <v>0.65</v>
       </c>
       <c r="E78" t="n">
-        <v>970</v>
+        <v>272</v>
       </c>
       <c r="F78" t="n">
-        <v>546</v>
-      </c>
-      <c s="24" r="G78" t="n">
-        <v>0.64</v>
+        <v>186</v>
+      </c>
+      <c s="8" r="G78" t="n">
+        <v>0.59</v>
       </c>
       <c r="H78" t="n">
         <v>1.14</v>
@@ -3762,22 +3822,22 @@
         <v>12</v>
       </c>
       <c r="B79" t="n">
-        <v>224.41</v>
-      </c>
-      <c s="26" r="C79" t="n">
-        <v>1.43</v>
-      </c>
-      <c s="26" r="D79" t="n">
-        <v>0.64</v>
+        <v>222.76</v>
+      </c>
+      <c s="10" r="C79" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D79" t="n">
+        <v>-0.1</v>
       </c>
       <c r="E79" t="n">
-        <v>970</v>
+        <v>568</v>
       </c>
       <c r="F79" t="n">
-        <v>546</v>
-      </c>
-      <c s="26" r="G79" t="n">
-        <v>0.64</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G79" t="n">
+        <v>0.62</v>
       </c>
       <c r="H79" t="n">
         <v>1.14</v>
@@ -3791,22 +3851,22 @@
         <v>12</v>
       </c>
       <c r="B80" t="n">
-        <v>224.06</v>
-      </c>
-      <c s="26" r="C80" t="n">
-        <v>1.08</v>
-      </c>
-      <c s="26" r="D80" t="n">
-        <v>0.48</v>
+        <v>222.8</v>
+      </c>
+      <c s="10" r="C80" t="n">
+        <v>-0.18</v>
+      </c>
+      <c s="10" r="D80" t="n">
+        <v>-0.08</v>
       </c>
       <c r="E80" t="n">
-        <v>1178</v>
+        <v>568</v>
       </c>
       <c r="F80" t="n">
-        <v>640</v>
-      </c>
-      <c s="26" r="G80" t="n">
-        <v>0.65</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G80" t="n">
+        <v>0.62</v>
       </c>
       <c r="H80" t="n">
         <v>1.14</v>
@@ -3820,22 +3880,22 @@
         <v>12</v>
       </c>
       <c r="B81" t="n">
-        <v>224.05</v>
-      </c>
-      <c s="26" r="C81" t="n">
-        <v>1.07</v>
-      </c>
-      <c s="26" r="D81" t="n">
-        <v>0.48</v>
+        <v>222.76</v>
+      </c>
+      <c s="10" r="C81" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D81" t="n">
+        <v>-0.1</v>
       </c>
       <c r="E81" t="n">
-        <v>1178</v>
+        <v>568</v>
       </c>
       <c r="F81" t="n">
-        <v>640</v>
-      </c>
-      <c s="26" r="G81" t="n">
-        <v>0.65</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G81" t="n">
+        <v>0.62</v>
       </c>
       <c r="H81" t="n">
         <v>1.14</v>
@@ -3849,22 +3909,22 @@
         <v>12</v>
       </c>
       <c r="B82" t="n">
-        <v>224.07</v>
-      </c>
-      <c s="26" r="C82" t="n">
-        <v>1.09</v>
-      </c>
-      <c s="26" r="D82" t="n">
-        <v>0.49</v>
+        <v>222.43</v>
+      </c>
+      <c s="10" r="C82" t="n">
+        <v>-0.55</v>
+      </c>
+      <c s="10" r="D82" t="n">
+        <v>-0.25</v>
       </c>
       <c r="E82" t="n">
-        <v>1178</v>
+        <v>568</v>
       </c>
       <c r="F82" t="n">
-        <v>640</v>
-      </c>
-      <c s="26" r="G82" t="n">
-        <v>0.65</v>
+        <v>345</v>
+      </c>
+      <c s="11" r="G82" t="n">
+        <v>0.62</v>
       </c>
       <c r="H82" t="n">
         <v>1.14</v>
@@ -3878,22 +3938,22 @@
         <v>12</v>
       </c>
       <c r="B83" t="n">
-        <v>224.04</v>
-      </c>
-      <c s="28" r="C83" t="n">
-        <v>1.06</v>
-      </c>
-      <c s="28" r="D83" t="n">
-        <v>0.47</v>
+        <v>223.03</v>
+      </c>
+      <c s="14" r="C83" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="14" r="D83" t="n">
+        <v>0.02</v>
       </c>
       <c r="E83" t="n">
-        <v>1178</v>
+        <v>656</v>
       </c>
       <c r="F83" t="n">
-        <v>640</v>
-      </c>
-      <c s="28" r="G83" t="n">
-        <v>0.65</v>
+        <v>394</v>
+      </c>
+      <c s="14" r="G83" t="n">
+        <v>0.62</v>
       </c>
       <c r="H83" t="n">
         <v>1.14</v>
@@ -3907,22 +3967,22 @@
         <v>12</v>
       </c>
       <c r="B84" t="n">
-        <v>224.4</v>
-      </c>
-      <c s="28" r="C84" t="n">
-        <v>1.42</v>
-      </c>
-      <c s="28" r="D84" t="n">
-        <v>0.63</v>
+        <v>222.91</v>
+      </c>
+      <c s="15" r="C84" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c s="15" r="D84" t="n">
+        <v>-0.03</v>
       </c>
       <c r="E84" t="n">
-        <v>1178</v>
+        <v>656</v>
       </c>
       <c r="F84" t="n">
-        <v>640</v>
-      </c>
-      <c s="28" r="G84" t="n">
-        <v>0.65</v>
+        <v>394</v>
+      </c>
+      <c s="16" r="G84" t="n">
+        <v>0.62</v>
       </c>
       <c r="H84" t="n">
         <v>1.14</v>
@@ -3936,22 +3996,22 @@
         <v>12</v>
       </c>
       <c r="B85" t="n">
-        <v>225.26</v>
-      </c>
-      <c s="28" r="C85" t="n">
-        <v>2.28</v>
-      </c>
-      <c s="28" r="D85" t="n">
-        <v>1.01</v>
+        <v>222.97</v>
+      </c>
+      <c s="17" r="C85" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="18" r="D85" t="n">
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1342</v>
+        <v>656</v>
       </c>
       <c r="F85" t="n">
-        <v>729</v>
-      </c>
-      <c s="28" r="G85" t="n">
-        <v>0.65</v>
+        <v>394</v>
+      </c>
+      <c s="18" r="G85" t="n">
+        <v>0.62</v>
       </c>
       <c r="H85" t="n">
         <v>1.14</v>
@@ -3965,22 +4025,22 @@
         <v>12</v>
       </c>
       <c r="B86" t="n">
-        <v>225.52</v>
-      </c>
-      <c s="28" r="C86" t="n">
-        <v>2.54</v>
-      </c>
-      <c s="28" r="D86" t="n">
-        <v>1.13</v>
+        <v>223.05</v>
+      </c>
+      <c s="22" r="C86" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c s="22" r="D86" t="n">
+        <v>0.03</v>
       </c>
       <c r="E86" t="n">
-        <v>1342</v>
+        <v>807</v>
       </c>
       <c r="F86" t="n">
-        <v>729</v>
-      </c>
-      <c s="28" r="G86" t="n">
-        <v>0.65</v>
+        <v>463</v>
+      </c>
+      <c s="22" r="G86" t="n">
+        <v>0.64</v>
       </c>
       <c r="H86" t="n">
         <v>1.14</v>
@@ -3994,22 +4054,22 @@
         <v>12</v>
       </c>
       <c r="B87" t="n">
-        <v>225.64</v>
-      </c>
-      <c s="28" r="C87" t="n">
-        <v>2.66</v>
-      </c>
-      <c s="28" r="D87" t="n">
-        <v>1.18</v>
+        <v>223.19</v>
+      </c>
+      <c s="24" r="C87" t="n">
+        <v>0.21</v>
+      </c>
+      <c s="24" r="D87" t="n">
+        <v>0.09</v>
       </c>
       <c r="E87" t="n">
-        <v>1342</v>
+        <v>807</v>
       </c>
       <c r="F87" t="n">
-        <v>729</v>
-      </c>
-      <c s="28" r="G87" t="n">
-        <v>0.65</v>
+        <v>463</v>
+      </c>
+      <c s="24" r="G87" t="n">
+        <v>0.64</v>
       </c>
       <c r="H87" t="n">
         <v>1.14</v>
@@ -4023,22 +4083,22 @@
         <v>12</v>
       </c>
       <c r="B88" t="n">
-        <v>225.74</v>
-      </c>
-      <c s="28" r="C88" t="n">
-        <v>2.76</v>
-      </c>
-      <c s="28" r="D88" t="n">
-        <v>1.22</v>
+        <v>223.18</v>
+      </c>
+      <c s="24" r="C88" t="n">
+        <v>0.2</v>
+      </c>
+      <c s="24" r="D88" t="n">
+        <v>0.09</v>
       </c>
       <c r="E88" t="n">
-        <v>1633</v>
+        <v>807</v>
       </c>
       <c r="F88" t="n">
-        <v>870</v>
-      </c>
-      <c s="28" r="G88" t="n">
-        <v>0.65</v>
+        <v>463</v>
+      </c>
+      <c s="24" r="G88" t="n">
+        <v>0.64</v>
       </c>
       <c r="H88" t="n">
         <v>1.14</v>
@@ -4052,22 +4112,22 @@
         <v>12</v>
       </c>
       <c r="B89" t="n">
-        <v>225.76</v>
-      </c>
-      <c s="28" r="C89" t="n">
-        <v>2.78</v>
-      </c>
-      <c s="28" r="D89" t="n">
-        <v>1.23</v>
+        <v>223.68</v>
+      </c>
+      <c s="24" r="C89" t="n">
+        <v>0.7</v>
+      </c>
+      <c s="24" r="D89" t="n">
+        <v>0.31</v>
       </c>
       <c r="E89" t="n">
-        <v>1633</v>
+        <v>970</v>
       </c>
       <c r="F89" t="n">
-        <v>870</v>
-      </c>
-      <c s="28" r="G89" t="n">
-        <v>0.65</v>
+        <v>546</v>
+      </c>
+      <c s="24" r="G89" t="n">
+        <v>0.64</v>
       </c>
       <c r="H89" t="n">
         <v>1.14</v>
@@ -4081,22 +4141,22 @@
         <v>12</v>
       </c>
       <c r="B90" t="n">
-        <v>225.83</v>
-      </c>
-      <c s="28" r="C90" t="n">
-        <v>2.85</v>
-      </c>
-      <c s="28" r="D90" t="n">
-        <v>1.26</v>
+        <v>223.78</v>
+      </c>
+      <c s="24" r="C90" t="n">
+        <v>0.8</v>
+      </c>
+      <c s="24" r="D90" t="n">
+        <v>0.36</v>
       </c>
       <c r="E90" t="n">
-        <v>1633</v>
+        <v>970</v>
       </c>
       <c r="F90" t="n">
-        <v>870</v>
-      </c>
-      <c s="28" r="G90" t="n">
-        <v>0.65</v>
+        <v>546</v>
+      </c>
+      <c s="24" r="G90" t="n">
+        <v>0.64</v>
       </c>
       <c r="H90" t="n">
         <v>1.14</v>
@@ -4110,22 +4170,22 @@
         <v>12</v>
       </c>
       <c r="B91" t="n">
-        <v>225.8</v>
-      </c>
-      <c s="30" r="C91" t="n">
-        <v>2.82</v>
-      </c>
-      <c s="30" r="D91" t="n">
-        <v>1.25</v>
+        <v>224.41</v>
+      </c>
+      <c s="26" r="C91" t="n">
+        <v>1.43</v>
+      </c>
+      <c s="26" r="D91" t="n">
+        <v>0.64</v>
       </c>
       <c r="E91" t="n">
-        <v>1633</v>
+        <v>970</v>
       </c>
       <c r="F91" t="n">
-        <v>870</v>
-      </c>
-      <c s="30" r="G91" t="n">
-        <v>0.65</v>
+        <v>546</v>
+      </c>
+      <c s="26" r="G91" t="n">
+        <v>0.64</v>
       </c>
       <c r="H91" t="n">
         <v>1.14</v>
@@ -4136,86 +4196,86 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C92" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D92" t="n">
-        <v>0.6</v>
+        <v>224.06</v>
+      </c>
+      <c s="26" r="C92" t="n">
+        <v>1.08</v>
+      </c>
+      <c s="26" r="D92" t="n">
+        <v>0.48</v>
       </c>
       <c r="E92" t="n">
-        <v>2477</v>
+        <v>1178</v>
       </c>
       <c r="F92" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G92" t="n">
-        <v>0.5</v>
+        <v>640</v>
+      </c>
+      <c s="26" r="G92" t="n">
+        <v>0.65</v>
       </c>
       <c r="H92" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I92" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C93" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D93" t="n">
-        <v>0.6</v>
+        <v>224.05</v>
+      </c>
+      <c s="26" r="C93" t="n">
+        <v>1.07</v>
+      </c>
+      <c s="26" r="D93" t="n">
+        <v>0.48</v>
       </c>
       <c r="E93" t="n">
-        <v>2477</v>
+        <v>1178</v>
       </c>
       <c r="F93" t="n">
-        <v>2465</v>
-      </c>
-      <c s="8" r="G93" t="n">
-        <v>0.5</v>
+        <v>640</v>
+      </c>
+      <c s="26" r="G93" t="n">
+        <v>0.65</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" t="n">
-        <v>24.98</v>
-      </c>
-      <c s="10" r="C94" t="n">
-        <v>-0.22</v>
-      </c>
-      <c s="10" r="D94" t="n">
-        <v>-0.88</v>
+        <v>224.07</v>
+      </c>
+      <c s="26" r="C94" t="n">
+        <v>1.09</v>
+      </c>
+      <c s="26" r="D94" t="n">
+        <v>0.49</v>
       </c>
       <c r="E94" t="n">
-        <v>449</v>
+        <v>1178</v>
       </c>
       <c r="F94" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G94" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="26" r="G94" t="n">
+        <v>0.65</v>
       </c>
       <c r="H94" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I94" t="s">
         <v>41</v>
@@ -4223,28 +4283,28 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" t="n">
-        <v>24.99</v>
-      </c>
-      <c s="10" r="C95" t="n">
-        <v>-0.21</v>
-      </c>
-      <c s="10" r="D95" t="n">
-        <v>-0.84</v>
+        <v>224.04</v>
+      </c>
+      <c s="28" r="C95" t="n">
+        <v>1.06</v>
+      </c>
+      <c s="28" r="D95" t="n">
+        <v>0.47</v>
       </c>
       <c r="E95" t="n">
-        <v>449</v>
+        <v>1178</v>
       </c>
       <c r="F95" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G95" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="28" r="G95" t="n">
+        <v>0.65</v>
       </c>
       <c r="H95" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I95" t="s">
         <v>41</v>
@@ -4252,28 +4312,28 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
-        <v>25.04</v>
-      </c>
-      <c s="10" r="C96" t="n">
-        <v>-0.16</v>
-      </c>
-      <c s="10" r="D96" t="n">
-        <v>-0.64</v>
+        <v>224.4</v>
+      </c>
+      <c s="28" r="C96" t="n">
+        <v>1.42</v>
+      </c>
+      <c s="28" r="D96" t="n">
+        <v>0.63</v>
       </c>
       <c r="E96" t="n">
-        <v>449</v>
+        <v>1178</v>
       </c>
       <c r="F96" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G96" t="n">
-        <v>0.59</v>
+        <v>640</v>
+      </c>
+      <c s="28" r="G96" t="n">
+        <v>0.65</v>
       </c>
       <c r="H96" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I96" t="s">
         <v>41</v>
@@ -4281,28 +4341,28 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" t="n">
-        <v>25.1</v>
-      </c>
-      <c s="10" r="C97" t="n">
-        <v>-0.1</v>
-      </c>
-      <c s="10" r="D97" t="n">
-        <v>-0.4</v>
+        <v>225.26</v>
+      </c>
+      <c s="28" r="C97" t="n">
+        <v>2.28</v>
+      </c>
+      <c s="28" r="D97" t="n">
+        <v>1.01</v>
       </c>
       <c r="E97" t="n">
-        <v>449</v>
+        <v>1342</v>
       </c>
       <c r="F97" t="n">
-        <v>306</v>
-      </c>
-      <c s="11" r="G97" t="n">
-        <v>0.59</v>
+        <v>729</v>
+      </c>
+      <c s="28" r="G97" t="n">
+        <v>0.65</v>
       </c>
       <c r="H97" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I97" t="s">
         <v>41</v>
@@ -4310,28 +4370,28 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" t="n">
-        <v>25.25</v>
-      </c>
-      <c s="14" r="C98" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="14" r="D98" t="n">
-        <v>0.2</v>
+        <v>225.52</v>
+      </c>
+      <c s="28" r="C98" t="n">
+        <v>2.54</v>
+      </c>
+      <c s="28" r="D98" t="n">
+        <v>1.13</v>
       </c>
       <c r="E98" t="n">
-        <v>537</v>
+        <v>1342</v>
       </c>
       <c r="F98" t="n">
-        <v>375</v>
-      </c>
-      <c s="14" r="G98" t="n">
-        <v>0.59</v>
+        <v>729</v>
+      </c>
+      <c s="28" r="G98" t="n">
+        <v>0.65</v>
       </c>
       <c r="H98" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I98" t="s">
         <v>41</v>
@@ -4339,28 +4399,28 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" t="n">
-        <v>25.33</v>
-      </c>
-      <c s="16" r="C99" t="n">
-        <v>0.13</v>
-      </c>
-      <c s="16" r="D99" t="n">
-        <v>0.51</v>
+        <v>225.64</v>
+      </c>
+      <c s="28" r="C99" t="n">
+        <v>2.66</v>
+      </c>
+      <c s="28" r="D99" t="n">
+        <v>1.18</v>
       </c>
       <c r="E99" t="n">
-        <v>537</v>
+        <v>1342</v>
       </c>
       <c r="F99" t="n">
-        <v>375</v>
-      </c>
-      <c s="16" r="G99" t="n">
-        <v>0.59</v>
+        <v>729</v>
+      </c>
+      <c s="28" r="G99" t="n">
+        <v>0.65</v>
       </c>
       <c r="H99" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I99" t="s">
         <v>41</v>
@@ -4368,28 +4428,28 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" t="n">
-        <v>25.25</v>
-      </c>
-      <c s="18" r="C100" t="n">
-        <v>0.05</v>
-      </c>
-      <c s="18" r="D100" t="n">
-        <v>0.2</v>
+        <v>225.74</v>
+      </c>
+      <c s="28" r="C100" t="n">
+        <v>2.76</v>
+      </c>
+      <c s="28" r="D100" t="n">
+        <v>1.22</v>
       </c>
       <c r="E100" t="n">
-        <v>537</v>
+        <v>1633</v>
       </c>
       <c r="F100" t="n">
-        <v>375</v>
-      </c>
-      <c s="18" r="G100" t="n">
-        <v>0.59</v>
+        <v>870</v>
+      </c>
+      <c s="28" r="G100" t="n">
+        <v>0.65</v>
       </c>
       <c r="H100" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I100" t="s">
         <v>41</v>
@@ -4397,28 +4457,28 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" t="n">
-        <v>25.57</v>
-      </c>
-      <c s="22" r="C101" t="n">
-        <v>0.38</v>
-      </c>
-      <c s="22" r="D101" t="n">
-        <v>1.49</v>
+        <v>225.76</v>
+      </c>
+      <c s="28" r="C101" t="n">
+        <v>2.78</v>
+      </c>
+      <c s="28" r="D101" t="n">
+        <v>1.23</v>
       </c>
       <c r="E101" t="n">
-        <v>747</v>
+        <v>1633</v>
       </c>
       <c r="F101" t="n">
-        <v>588</v>
-      </c>
-      <c s="22" r="G101" t="n">
-        <v>0.5600000000000001</v>
+        <v>870</v>
+      </c>
+      <c s="28" r="G101" t="n">
+        <v>0.65</v>
       </c>
       <c r="H101" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I101" t="s">
         <v>41</v>
@@ -4426,28 +4486,28 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" t="n">
-        <v>25.57</v>
-      </c>
-      <c s="24" r="C102" t="n">
-        <v>0.38</v>
-      </c>
-      <c s="24" r="D102" t="n">
-        <v>1.49</v>
+        <v>225.83</v>
+      </c>
+      <c s="28" r="C102" t="n">
+        <v>2.85</v>
+      </c>
+      <c s="28" r="D102" t="n">
+        <v>1.26</v>
       </c>
       <c r="E102" t="n">
-        <v>747</v>
+        <v>1633</v>
       </c>
       <c r="F102" t="n">
-        <v>588</v>
-      </c>
-      <c s="24" r="G102" t="n">
-        <v>0.5600000000000001</v>
+        <v>870</v>
+      </c>
+      <c s="28" r="G102" t="n">
+        <v>0.65</v>
       </c>
       <c r="H102" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I102" t="s">
         <v>41</v>
@@ -4455,28 +4515,28 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="n">
-        <v>25.59</v>
-      </c>
-      <c s="24" r="C103" t="n">
-        <v>0.39</v>
-      </c>
-      <c s="24" r="D103" t="n">
-        <v>1.52</v>
+        <v>225.8</v>
+      </c>
+      <c s="30" r="C103" t="n">
+        <v>2.82</v>
+      </c>
+      <c s="30" r="D103" t="n">
+        <v>1.25</v>
       </c>
       <c r="E103" t="n">
-        <v>747</v>
+        <v>1633</v>
       </c>
       <c r="F103" t="n">
-        <v>588</v>
-      </c>
-      <c s="24" r="G103" t="n">
-        <v>0.5600000000000001</v>
+        <v>870</v>
+      </c>
+      <c s="30" r="G103" t="n">
+        <v>0.65</v>
       </c>
       <c r="H103" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I103" t="s">
         <v>41</v>
@@ -4484,28 +4544,28 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" t="n">
-        <v>25.19</v>
-      </c>
-      <c s="23" r="C104" t="n">
-        <v>-0.01</v>
-      </c>
-      <c s="23" r="D104" t="n">
-        <v>-0.04</v>
+        <v>226.43</v>
+      </c>
+      <c s="30" r="C104" t="n">
+        <v>3.45</v>
+      </c>
+      <c s="30" r="D104" t="n">
+        <v>1.52</v>
       </c>
       <c r="E104" t="n">
-        <v>913</v>
+        <v>1633</v>
       </c>
       <c r="F104" t="n">
-        <v>727</v>
-      </c>
-      <c s="24" r="G104" t="n">
-        <v>0.5600000000000001</v>
+        <v>870</v>
+      </c>
+      <c s="30" r="G104" t="n">
+        <v>0.65</v>
       </c>
       <c r="H104" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I104" t="s">
         <v>41</v>
@@ -4513,28 +4573,28 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" t="n">
-        <v>25.16</v>
-      </c>
-      <c s="23" r="C105" t="n">
-        <v>-0.04</v>
-      </c>
-      <c s="23" r="D105" t="n">
-        <v>-0.16</v>
+        <v>227.16</v>
+      </c>
+      <c s="30" r="C105" t="n">
+        <v>4.18</v>
+      </c>
+      <c s="30" r="D105" t="n">
+        <v>1.84</v>
       </c>
       <c r="E105" t="n">
-        <v>913</v>
+        <v>1895</v>
       </c>
       <c r="F105" t="n">
-        <v>727</v>
-      </c>
-      <c s="24" r="G105" t="n">
-        <v>0.5600000000000001</v>
+        <v>1036</v>
+      </c>
+      <c s="30" r="G105" t="n">
+        <v>0.65</v>
       </c>
       <c r="H105" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I105" t="s">
         <v>41</v>
@@ -4542,28 +4602,28 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" t="n">
-        <v>25.33</v>
-      </c>
-      <c s="26" r="C106" t="n">
-        <v>0.13</v>
-      </c>
-      <c s="26" r="D106" t="n">
-        <v>0.51</v>
+        <v>226.84</v>
+      </c>
+      <c s="30" r="C106" t="n">
+        <v>3.86</v>
+      </c>
+      <c s="30" r="D106" t="n">
+        <v>1.7</v>
       </c>
       <c r="E106" t="n">
-        <v>913</v>
+        <v>1895</v>
       </c>
       <c r="F106" t="n">
-        <v>727</v>
-      </c>
-      <c s="26" r="G106" t="n">
-        <v>0.5600000000000001</v>
+        <v>1036</v>
+      </c>
+      <c s="30" r="G106" t="n">
+        <v>0.65</v>
       </c>
       <c r="H106" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I106" t="s">
         <v>41</v>
@@ -4571,28 +4631,28 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="26" r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c s="26" r="D107" t="n">
-        <v>0</v>
+        <v>226.76</v>
+      </c>
+      <c s="32" r="C107" t="n">
+        <v>3.78</v>
+      </c>
+      <c s="32" r="D107" t="n">
+        <v>1.67</v>
       </c>
       <c r="E107" t="n">
-        <v>1033</v>
+        <v>1895</v>
       </c>
       <c r="F107" t="n">
-        <v>814</v>
-      </c>
-      <c s="26" r="G107" t="n">
-        <v>0.5600000000000001</v>
+        <v>1036</v>
+      </c>
+      <c s="32" r="G107" t="n">
+        <v>0.65</v>
       </c>
       <c r="H107" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I107" t="s">
         <v>41</v>
@@ -4600,28 +4660,28 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="26" r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c s="26" r="D108" t="n">
-        <v>0</v>
+        <v>226.81</v>
+      </c>
+      <c s="34" r="C108" t="n">
+        <v>3.83</v>
+      </c>
+      <c s="34" r="D108" t="n">
+        <v>1.69</v>
       </c>
       <c r="E108" t="n">
-        <v>1033</v>
+        <v>1895</v>
       </c>
       <c r="F108" t="n">
-        <v>814</v>
-      </c>
-      <c s="26" r="G108" t="n">
-        <v>0.5600000000000001</v>
+        <v>1036</v>
+      </c>
+      <c s="34" r="G108" t="n">
+        <v>0.65</v>
       </c>
       <c r="H108" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I108" t="s">
         <v>41</v>
@@ -4629,28 +4689,28 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" t="n">
-        <v>25.24</v>
-      </c>
-      <c s="26" r="C109" t="n">
-        <v>0.04</v>
-      </c>
-      <c s="26" r="D109" t="n">
-        <v>0.16</v>
+        <v>227.77</v>
+      </c>
+      <c s="34" r="C109" t="n">
+        <v>4.79</v>
+      </c>
+      <c s="34" r="D109" t="n">
+        <v>2.1</v>
       </c>
       <c r="E109" t="n">
-        <v>1033</v>
+        <v>1895</v>
       </c>
       <c r="F109" t="n">
-        <v>814</v>
-      </c>
-      <c s="26" r="G109" t="n">
-        <v>0.5600000000000001</v>
+        <v>1036</v>
+      </c>
+      <c s="34" r="G109" t="n">
+        <v>0.65</v>
       </c>
       <c r="H109" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="I109" t="s">
         <v>41</v>
@@ -4658,83 +4718,83 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B110" t="n">
-        <v>25.21</v>
-      </c>
-      <c s="28" r="C110" t="n">
-        <v>0.01</v>
-      </c>
-      <c s="28" r="D110" t="n">
-        <v>0.04</v>
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C110" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D110" t="n">
+        <v>0.6</v>
       </c>
       <c r="E110" t="n">
-        <v>1033</v>
+        <v>2477</v>
       </c>
       <c r="F110" t="n">
-        <v>814</v>
-      </c>
-      <c s="28" r="G110" t="n">
-        <v>0.5600000000000001</v>
+        <v>2465</v>
+      </c>
+      <c s="8" r="G110" t="n">
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>3.6</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B111" t="n">
-        <v>25.34</v>
-      </c>
-      <c s="28" r="C111" t="n">
-        <v>0.14</v>
-      </c>
-      <c s="28" r="D111" t="n">
-        <v>0.55</v>
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C111" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D111" t="n">
+        <v>0.6</v>
       </c>
       <c r="E111" t="n">
-        <v>1033</v>
+        <v>2477</v>
       </c>
       <c r="F111" t="n">
-        <v>814</v>
-      </c>
-      <c s="28" r="G111" t="n">
-        <v>0.5600000000000001</v>
+        <v>2465</v>
+      </c>
+      <c s="8" r="G111" t="n">
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>3.6</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B112" t="n">
-        <v>25.5</v>
-      </c>
-      <c s="28" r="C112" t="n">
-        <v>0.3</v>
-      </c>
-      <c s="28" r="D112" t="n">
-        <v>1.18</v>
+        <v>24.98</v>
+      </c>
+      <c s="10" r="C112" t="n">
+        <v>-0.22</v>
+      </c>
+      <c s="10" r="D112" t="n">
+        <v>-0.88</v>
       </c>
       <c r="E112" t="n">
-        <v>1107</v>
+        <v>449</v>
       </c>
       <c r="F112" t="n">
-        <v>876</v>
-      </c>
-      <c s="28" r="G112" t="n">
-        <v>0.5600000000000001</v>
+        <v>306</v>
+      </c>
+      <c s="11" r="G112" t="n">
+        <v>0.59</v>
       </c>
       <c r="H112" t="n">
         <v>3.6</v>
@@ -4745,25 +4805,25 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B113" t="n">
-        <v>25.46</v>
-      </c>
-      <c s="28" r="C113" t="n">
-        <v>0.27</v>
-      </c>
-      <c s="28" r="D113" t="n">
-        <v>1.06</v>
+        <v>24.99</v>
+      </c>
+      <c s="10" r="C113" t="n">
+        <v>-0.21</v>
+      </c>
+      <c s="10" r="D113" t="n">
+        <v>-0.84</v>
       </c>
       <c r="E113" t="n">
-        <v>1107</v>
+        <v>449</v>
       </c>
       <c r="F113" t="n">
-        <v>876</v>
-      </c>
-      <c s="28" r="G113" t="n">
-        <v>0.5600000000000001</v>
+        <v>306</v>
+      </c>
+      <c s="11" r="G113" t="n">
+        <v>0.59</v>
       </c>
       <c r="H113" t="n">
         <v>3.6</v>
@@ -4774,25 +4834,25 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B114" t="n">
-        <v>25.48</v>
-      </c>
-      <c s="28" r="C114" t="n">
-        <v>0.28</v>
-      </c>
-      <c s="28" r="D114" t="n">
-        <v>1.1</v>
+        <v>25.04</v>
+      </c>
+      <c s="10" r="C114" t="n">
+        <v>-0.16</v>
+      </c>
+      <c s="10" r="D114" t="n">
+        <v>-0.64</v>
       </c>
       <c r="E114" t="n">
-        <v>1107</v>
+        <v>449</v>
       </c>
       <c r="F114" t="n">
-        <v>876</v>
-      </c>
-      <c s="28" r="G114" t="n">
-        <v>0.5600000000000001</v>
+        <v>306</v>
+      </c>
+      <c s="11" r="G114" t="n">
+        <v>0.59</v>
       </c>
       <c r="H114" t="n">
         <v>3.6</v>
@@ -4803,25 +4863,25 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B115" t="n">
-        <v>25.46</v>
-      </c>
-      <c s="28" r="C115" t="n">
-        <v>0.26</v>
-      </c>
-      <c s="28" r="D115" t="n">
-        <v>1.02</v>
+        <v>25.1</v>
+      </c>
+      <c s="10" r="C115" t="n">
+        <v>-0.1</v>
+      </c>
+      <c s="10" r="D115" t="n">
+        <v>-0.4</v>
       </c>
       <c r="E115" t="n">
-        <v>1211</v>
+        <v>449</v>
       </c>
       <c r="F115" t="n">
-        <v>932</v>
-      </c>
-      <c s="28" r="G115" t="n">
-        <v>0.57</v>
+        <v>306</v>
+      </c>
+      <c s="11" r="G115" t="n">
+        <v>0.59</v>
       </c>
       <c r="H115" t="n">
         <v>3.6</v>
@@ -4832,25 +4892,25 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B116" t="n">
-        <v>25.46</v>
-      </c>
-      <c s="28" r="C116" t="n">
-        <v>0.26</v>
-      </c>
-      <c s="28" r="D116" t="n">
-        <v>1.02</v>
+        <v>25.25</v>
+      </c>
+      <c s="14" r="C116" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="14" r="D116" t="n">
+        <v>0.2</v>
       </c>
       <c r="E116" t="n">
-        <v>1211</v>
+        <v>537</v>
       </c>
       <c r="F116" t="n">
-        <v>932</v>
-      </c>
-      <c s="28" r="G116" t="n">
-        <v>0.57</v>
+        <v>375</v>
+      </c>
+      <c s="14" r="G116" t="n">
+        <v>0.59</v>
       </c>
       <c r="H116" t="n">
         <v>3.6</v>
@@ -4861,25 +4921,25 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
-        <v>25.36</v>
-      </c>
-      <c s="28" r="C117" t="n">
-        <v>0.17</v>
-      </c>
-      <c s="28" r="D117" t="n">
-        <v>0.67</v>
+        <v>25.33</v>
+      </c>
+      <c s="16" r="C117" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="16" r="D117" t="n">
+        <v>0.51</v>
       </c>
       <c r="E117" t="n">
-        <v>1211</v>
+        <v>537</v>
       </c>
       <c r="F117" t="n">
-        <v>932</v>
-      </c>
-      <c s="28" r="G117" t="n">
-        <v>0.57</v>
+        <v>375</v>
+      </c>
+      <c s="16" r="G117" t="n">
+        <v>0.59</v>
       </c>
       <c r="H117" t="n">
         <v>3.6</v>
@@ -4890,25 +4950,25 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B118" t="n">
-        <v>25.34</v>
-      </c>
-      <c s="30" r="C118" t="n">
-        <v>0.14</v>
-      </c>
-      <c s="30" r="D118" t="n">
-        <v>0.55</v>
+        <v>25.25</v>
+      </c>
+      <c s="18" r="C118" t="n">
+        <v>0.05</v>
+      </c>
+      <c s="18" r="D118" t="n">
+        <v>0.2</v>
       </c>
       <c r="E118" t="n">
-        <v>1211</v>
+        <v>537</v>
       </c>
       <c r="F118" t="n">
-        <v>932</v>
-      </c>
-      <c s="30" r="G118" t="n">
-        <v>0.57</v>
+        <v>375</v>
+      </c>
+      <c s="18" r="G118" t="n">
+        <v>0.59</v>
       </c>
       <c r="H118" t="n">
         <v>3.6</v>
@@ -4919,28 +4979,28 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B119" t="n">
-        <v>44.69</v>
-      </c>
-      <c s="9" r="C119" t="n">
-        <v>-1.71</v>
-      </c>
-      <c s="9" r="D119" t="n">
-        <v>-3.83</v>
+        <v>25.57</v>
+      </c>
+      <c s="22" r="C119" t="n">
+        <v>0.38</v>
+      </c>
+      <c s="22" r="D119" t="n">
+        <v>1.49</v>
       </c>
       <c r="E119" t="n">
-        <v>255</v>
+        <v>747</v>
       </c>
       <c r="F119" t="n">
-        <v>147</v>
-      </c>
-      <c s="8" r="G119" t="n">
-        <v>0.63</v>
+        <v>588</v>
+      </c>
+      <c s="22" r="G119" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>2.93</v>
+        <v>3.6</v>
       </c>
       <c r="I119" t="s">
         <v>41</v>
@@ -4948,28 +5008,28 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" t="n">
-        <v>152.61</v>
-      </c>
-      <c s="9" r="C120" t="n">
-        <v>-2.19</v>
-      </c>
-      <c s="9" r="D120" t="n">
-        <v>-1.44</v>
+        <v>25.57</v>
+      </c>
+      <c s="24" r="C120" t="n">
+        <v>0.38</v>
+      </c>
+      <c s="24" r="D120" t="n">
+        <v>1.49</v>
       </c>
       <c r="E120" t="n">
-        <v>599</v>
+        <v>747</v>
       </c>
       <c r="F120" t="n">
-        <v>414</v>
-      </c>
-      <c s="8" r="G120" t="n">
-        <v>0.59</v>
+        <v>588</v>
+      </c>
+      <c s="24" r="G120" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I120" t="s">
         <v>41</v>
@@ -4977,28 +5037,28 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" t="n">
-        <v>150.99</v>
-      </c>
-      <c s="10" r="C121" t="n">
-        <v>-3.81</v>
-      </c>
-      <c s="10" r="D121" t="n">
-        <v>-2.52</v>
+        <v>25.59</v>
+      </c>
+      <c s="24" r="C121" t="n">
+        <v>0.39</v>
+      </c>
+      <c s="24" r="D121" t="n">
+        <v>1.52</v>
       </c>
       <c r="E121" t="n">
-        <v>823</v>
+        <v>747</v>
       </c>
       <c r="F121" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G121" t="n">
-        <v>0.57</v>
+        <v>588</v>
+      </c>
+      <c s="24" r="G121" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H121" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I121" t="s">
         <v>41</v>
@@ -5006,28 +5066,28 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B122" t="n">
-        <v>150.54</v>
-      </c>
-      <c s="10" r="C122" t="n">
-        <v>-4.25</v>
-      </c>
-      <c s="10" r="D122" t="n">
-        <v>-2.82</v>
+        <v>25.19</v>
+      </c>
+      <c s="23" r="C122" t="n">
+        <v>-0.01</v>
+      </c>
+      <c s="23" r="D122" t="n">
+        <v>-0.04</v>
       </c>
       <c r="E122" t="n">
-        <v>823</v>
+        <v>913</v>
       </c>
       <c r="F122" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G122" t="n">
-        <v>0.57</v>
+        <v>727</v>
+      </c>
+      <c s="24" r="G122" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I122" t="s">
         <v>41</v>
@@ -5035,28 +5095,28 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B123" t="n">
-        <v>150.46</v>
-      </c>
-      <c s="10" r="C123" t="n">
-        <v>-4.34</v>
-      </c>
-      <c s="10" r="D123" t="n">
-        <v>-2.88</v>
+        <v>25.16</v>
+      </c>
+      <c s="23" r="C123" t="n">
+        <v>-0.04</v>
+      </c>
+      <c s="23" r="D123" t="n">
+        <v>-0.16</v>
       </c>
       <c r="E123" t="n">
-        <v>823</v>
+        <v>913</v>
       </c>
       <c r="F123" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G123" t="n">
-        <v>0.57</v>
+        <v>727</v>
+      </c>
+      <c s="24" r="G123" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I123" t="s">
         <v>41</v>
@@ -5064,28 +5124,28 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" t="n">
-        <v>150.12</v>
-      </c>
-      <c s="10" r="C124" t="n">
-        <v>-4.68</v>
-      </c>
-      <c s="10" r="D124" t="n">
-        <v>-3.12</v>
+        <v>25.33</v>
+      </c>
+      <c s="26" r="C124" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="26" r="D124" t="n">
+        <v>0.51</v>
       </c>
       <c r="E124" t="n">
-        <v>823</v>
+        <v>913</v>
       </c>
       <c r="F124" t="n">
-        <v>612</v>
-      </c>
-      <c s="11" r="G124" t="n">
-        <v>0.57</v>
+        <v>727</v>
+      </c>
+      <c s="26" r="G124" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I124" t="s">
         <v>41</v>
@@ -5093,28 +5153,28 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B125" t="n">
-        <v>150.31</v>
-      </c>
-      <c s="13" r="C125" t="n">
-        <v>-4.49</v>
-      </c>
-      <c s="13" r="D125" t="n">
-        <v>-2.99</v>
+        <v>25.2</v>
+      </c>
+      <c s="26" r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c s="26" r="D125" t="n">
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>916</v>
+        <v>1033</v>
       </c>
       <c r="F125" t="n">
-        <v>660</v>
-      </c>
-      <c s="14" r="G125" t="n">
-        <v>0.58</v>
+        <v>814</v>
+      </c>
+      <c s="26" r="G125" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I125" t="s">
         <v>41</v>
@@ -5122,28 +5182,28 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B126" t="n">
-        <v>150.17</v>
-      </c>
-      <c s="15" r="C126" t="n">
-        <v>-4.63</v>
-      </c>
-      <c s="15" r="D126" t="n">
-        <v>-3.08</v>
+        <v>25.2</v>
+      </c>
+      <c s="26" r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c s="26" r="D126" t="n">
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>916</v>
+        <v>1033</v>
       </c>
       <c r="F126" t="n">
-        <v>660</v>
-      </c>
-      <c s="16" r="G126" t="n">
-        <v>0.58</v>
+        <v>814</v>
+      </c>
+      <c s="26" r="G126" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I126" t="s">
         <v>41</v>
@@ -5151,28 +5211,28 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B127" t="n">
-        <v>150.19</v>
-      </c>
-      <c s="17" r="C127" t="n">
-        <v>-4.61</v>
-      </c>
-      <c s="17" r="D127" t="n">
-        <v>-3.07</v>
+        <v>25.24</v>
+      </c>
+      <c s="26" r="C127" t="n">
+        <v>0.04</v>
+      </c>
+      <c s="26" r="D127" t="n">
+        <v>0.16</v>
       </c>
       <c r="E127" t="n">
-        <v>916</v>
+        <v>1033</v>
       </c>
       <c r="F127" t="n">
-        <v>660</v>
-      </c>
-      <c s="18" r="G127" t="n">
-        <v>0.58</v>
+        <v>814</v>
+      </c>
+      <c s="26" r="G127" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I127" t="s">
         <v>41</v>
@@ -5180,28 +5240,28 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B128" t="n">
-        <v>151.79</v>
-      </c>
-      <c s="21" r="C128" t="n">
-        <v>-3.01</v>
-      </c>
-      <c s="21" r="D128" t="n">
-        <v>-1.98</v>
+        <v>25.21</v>
+      </c>
+      <c s="28" r="C128" t="n">
+        <v>0.01</v>
+      </c>
+      <c s="28" r="D128" t="n">
+        <v>0.04</v>
       </c>
       <c r="E128" t="n">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F128" t="n">
-        <v>736</v>
-      </c>
-      <c s="22" r="G128" t="n">
-        <v>0.59</v>
+        <v>814</v>
+      </c>
+      <c s="28" r="G128" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I128" t="s">
         <v>41</v>
@@ -5209,28 +5269,28 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B129" t="n">
-        <v>152.28</v>
-      </c>
-      <c s="23" r="C129" t="n">
-        <v>-2.52</v>
-      </c>
-      <c s="23" r="D129" t="n">
-        <v>-1.65</v>
+        <v>25.34</v>
+      </c>
+      <c s="28" r="C129" t="n">
+        <v>0.14</v>
+      </c>
+      <c s="28" r="D129" t="n">
+        <v>0.55</v>
       </c>
       <c r="E129" t="n">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F129" t="n">
-        <v>736</v>
-      </c>
-      <c s="24" r="G129" t="n">
-        <v>0.59</v>
+        <v>814</v>
+      </c>
+      <c s="28" r="G129" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I129" t="s">
         <v>41</v>
@@ -5238,28 +5298,28 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B130" t="n">
-        <v>152.03</v>
-      </c>
-      <c s="23" r="C130" t="n">
-        <v>-2.77</v>
-      </c>
-      <c s="23" r="D130" t="n">
-        <v>-1.82</v>
+        <v>25.5</v>
+      </c>
+      <c s="28" r="C130" t="n">
+        <v>0.3</v>
+      </c>
+      <c s="28" r="D130" t="n">
+        <v>1.18</v>
       </c>
       <c r="E130" t="n">
-        <v>1038</v>
+        <v>1107</v>
       </c>
       <c r="F130" t="n">
-        <v>736</v>
-      </c>
-      <c s="24" r="G130" t="n">
-        <v>0.59</v>
+        <v>876</v>
+      </c>
+      <c s="28" r="G130" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I130" t="s">
         <v>41</v>
@@ -5267,28 +5327,28 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B131" t="n">
-        <v>152.02</v>
-      </c>
-      <c s="23" r="C131" t="n">
-        <v>-2.78</v>
-      </c>
-      <c s="23" r="D131" t="n">
-        <v>-1.83</v>
+        <v>25.46</v>
+      </c>
+      <c s="28" r="C131" t="n">
+        <v>0.27</v>
+      </c>
+      <c s="28" r="D131" t="n">
+        <v>1.06</v>
       </c>
       <c r="E131" t="n">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="F131" t="n">
-        <v>787</v>
-      </c>
-      <c s="24" r="G131" t="n">
-        <v>0.59</v>
+        <v>876</v>
+      </c>
+      <c s="28" r="G131" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I131" t="s">
         <v>41</v>
@@ -5296,28 +5356,28 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B132" t="n">
-        <v>151.68</v>
-      </c>
-      <c s="23" r="C132" t="n">
-        <v>-3.12</v>
-      </c>
-      <c s="23" r="D132" t="n">
-        <v>-2.06</v>
+        <v>25.48</v>
+      </c>
+      <c s="28" r="C132" t="n">
+        <v>0.28</v>
+      </c>
+      <c s="28" r="D132" t="n">
+        <v>1.1</v>
       </c>
       <c r="E132" t="n">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="F132" t="n">
-        <v>787</v>
-      </c>
-      <c s="24" r="G132" t="n">
-        <v>0.59</v>
+        <v>876</v>
+      </c>
+      <c s="28" r="G132" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I132" t="s">
         <v>41</v>
@@ -5325,28 +5385,28 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B133" t="n">
-        <v>151.82</v>
-      </c>
-      <c s="25" r="C133" t="n">
-        <v>-2.98</v>
-      </c>
-      <c s="25" r="D133" t="n">
-        <v>-1.96</v>
+        <v>25.46</v>
+      </c>
+      <c s="28" r="C133" t="n">
+        <v>0.26</v>
+      </c>
+      <c s="28" r="D133" t="n">
+        <v>1.02</v>
       </c>
       <c r="E133" t="n">
-        <v>1112</v>
+        <v>1211</v>
       </c>
       <c r="F133" t="n">
-        <v>787</v>
-      </c>
-      <c s="26" r="G133" t="n">
-        <v>0.59</v>
+        <v>932</v>
+      </c>
+      <c s="28" r="G133" t="n">
+        <v>0.57</v>
       </c>
       <c r="H133" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I133" t="s">
         <v>41</v>
@@ -5354,28 +5414,28 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134" t="n">
-        <v>150.79</v>
-      </c>
-      <c s="25" r="C134" t="n">
-        <v>-4.01</v>
-      </c>
-      <c s="25" r="D134" t="n">
-        <v>-2.66</v>
+        <v>25.46</v>
+      </c>
+      <c s="28" r="C134" t="n">
+        <v>0.26</v>
+      </c>
+      <c s="28" r="D134" t="n">
+        <v>1.02</v>
       </c>
       <c r="E134" t="n">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="F134" t="n">
-        <v>825</v>
-      </c>
-      <c s="26" r="G134" t="n">
-        <v>0.59</v>
+        <v>932</v>
+      </c>
+      <c s="28" r="G134" t="n">
+        <v>0.57</v>
       </c>
       <c r="H134" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I134" t="s">
         <v>41</v>
@@ -5383,28 +5443,28 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B135" t="n">
-        <v>150.78</v>
-      </c>
-      <c s="25" r="C135" t="n">
-        <v>-4.02</v>
-      </c>
-      <c s="25" r="D135" t="n">
-        <v>-2.67</v>
+        <v>25.36</v>
+      </c>
+      <c s="28" r="C135" t="n">
+        <v>0.17</v>
+      </c>
+      <c s="28" r="D135" t="n">
+        <v>0.67</v>
       </c>
       <c r="E135" t="n">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="F135" t="n">
-        <v>825</v>
-      </c>
-      <c s="26" r="G135" t="n">
-        <v>0.59</v>
+        <v>932</v>
+      </c>
+      <c s="28" r="G135" t="n">
+        <v>0.57</v>
       </c>
       <c r="H135" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I135" t="s">
         <v>41</v>
@@ -5412,28 +5472,28 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B136" t="n">
-        <v>150.84</v>
-      </c>
-      <c s="25" r="C136" t="n">
-        <v>-3.96</v>
-      </c>
-      <c s="25" r="D136" t="n">
-        <v>-2.63</v>
+        <v>25.34</v>
+      </c>
+      <c s="30" r="C136" t="n">
+        <v>0.14</v>
+      </c>
+      <c s="30" r="D136" t="n">
+        <v>0.55</v>
       </c>
       <c r="E136" t="n">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="F136" t="n">
-        <v>825</v>
-      </c>
-      <c s="26" r="G136" t="n">
-        <v>0.59</v>
+        <v>932</v>
+      </c>
+      <c s="30" r="G136" t="n">
+        <v>0.57</v>
       </c>
       <c r="H136" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I136" t="s">
         <v>41</v>
@@ -5441,28 +5501,28 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B137" t="n">
-        <v>150.82</v>
-      </c>
-      <c s="27" r="C137" t="n">
-        <v>-3.98</v>
-      </c>
-      <c s="27" r="D137" t="n">
-        <v>-2.64</v>
+        <v>25.33</v>
+      </c>
+      <c s="30" r="C137" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="30" r="D137" t="n">
+        <v>0.51</v>
       </c>
       <c r="E137" t="n">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="F137" t="n">
-        <v>825</v>
-      </c>
-      <c s="28" r="G137" t="n">
-        <v>0.59</v>
+        <v>932</v>
+      </c>
+      <c s="30" r="G137" t="n">
+        <v>0.57</v>
       </c>
       <c r="H137" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I137" t="s">
         <v>41</v>
@@ -5470,28 +5530,28 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B138" t="n">
-        <v>151.11</v>
-      </c>
-      <c s="27" r="C138" t="n">
-        <v>-3.69</v>
-      </c>
-      <c s="27" r="D138" t="n">
-        <v>-2.44</v>
+        <v>25.33</v>
+      </c>
+      <c s="30" r="C138" t="n">
+        <v>0.13</v>
+      </c>
+      <c s="30" r="D138" t="n">
+        <v>0.51</v>
       </c>
       <c r="E138" t="n">
-        <v>1180</v>
+        <v>1290</v>
       </c>
       <c r="F138" t="n">
-        <v>825</v>
-      </c>
-      <c s="28" r="G138" t="n">
-        <v>0.59</v>
+        <v>980</v>
+      </c>
+      <c s="30" r="G138" t="n">
+        <v>0.57</v>
       </c>
       <c r="H138" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I138" t="s">
         <v>41</v>
@@ -5499,28 +5559,28 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B139" t="n">
-        <v>151.45</v>
-      </c>
-      <c s="27" r="C139" t="n">
-        <v>-3.35</v>
-      </c>
-      <c s="27" r="D139" t="n">
-        <v>-2.21</v>
+        <v>25.24</v>
+      </c>
+      <c s="30" r="C139" t="n">
+        <v>0.04</v>
+      </c>
+      <c s="30" r="D139" t="n">
+        <v>0.16</v>
       </c>
       <c r="E139" t="n">
-        <v>1231</v>
+        <v>1290</v>
       </c>
       <c r="F139" t="n">
-        <v>856</v>
-      </c>
-      <c s="28" r="G139" t="n">
-        <v>0.59</v>
+        <v>980</v>
+      </c>
+      <c s="30" r="G139" t="n">
+        <v>0.57</v>
       </c>
       <c r="H139" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I139" t="s">
         <v>41</v>
@@ -5528,28 +5588,28 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" t="n">
-        <v>151.41</v>
-      </c>
-      <c s="27" r="C140" t="n">
-        <v>-3.39</v>
-      </c>
-      <c s="27" r="D140" t="n">
-        <v>-2.24</v>
+        <v>25.16</v>
+      </c>
+      <c s="31" r="C140" t="n">
+        <v>-0.04</v>
+      </c>
+      <c s="31" r="D140" t="n">
+        <v>-0.16</v>
       </c>
       <c r="E140" t="n">
-        <v>1231</v>
+        <v>1290</v>
       </c>
       <c r="F140" t="n">
-        <v>856</v>
-      </c>
-      <c s="28" r="G140" t="n">
-        <v>0.59</v>
+        <v>980</v>
+      </c>
+      <c s="32" r="G140" t="n">
+        <v>0.57</v>
       </c>
       <c r="H140" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I140" t="s">
         <v>41</v>
@@ -5557,28 +5617,28 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B141" t="n">
-        <v>151.82</v>
-      </c>
-      <c s="27" r="C141" t="n">
-        <v>-2.98</v>
-      </c>
-      <c s="27" r="D141" t="n">
-        <v>-1.96</v>
+        <v>25.13</v>
+      </c>
+      <c s="33" r="C141" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c s="33" r="D141" t="n">
+        <v>-0.28</v>
       </c>
       <c r="E141" t="n">
-        <v>1231</v>
+        <v>1290</v>
       </c>
       <c r="F141" t="n">
-        <v>856</v>
-      </c>
-      <c s="28" r="G141" t="n">
-        <v>0.59</v>
+        <v>980</v>
+      </c>
+      <c s="34" r="G141" t="n">
+        <v>0.57</v>
       </c>
       <c r="H141" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I141" t="s">
         <v>41</v>
@@ -5586,28 +5646,28 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B142" t="n">
-        <v>151.68</v>
-      </c>
-      <c s="27" r="C142" t="n">
-        <v>-3.12</v>
-      </c>
-      <c s="27" r="D142" t="n">
-        <v>-2.06</v>
+        <v>25.07</v>
+      </c>
+      <c s="33" r="C142" t="n">
+        <v>-0.13</v>
+      </c>
+      <c s="33" r="D142" t="n">
+        <v>-0.52</v>
       </c>
       <c r="E142" t="n">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="F142" t="n">
-        <v>870</v>
-      </c>
-      <c s="28" r="G142" t="n">
-        <v>0.59</v>
+        <v>980</v>
+      </c>
+      <c s="34" r="G142" t="n">
+        <v>0.57</v>
       </c>
       <c r="H142" t="n">
-        <v>1.13</v>
+        <v>3.6</v>
       </c>
       <c r="I142" t="s">
         <v>41</v>
@@ -5615,28 +5675,28 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B143" t="n">
-        <v>151.78</v>
-      </c>
-      <c s="27" r="C143" t="n">
-        <v>-3.02</v>
-      </c>
-      <c s="27" r="D143" t="n">
-        <v>-1.99</v>
+        <v>44.69</v>
+      </c>
+      <c s="9" r="C143" t="n">
+        <v>-1.71</v>
+      </c>
+      <c s="9" r="D143" t="n">
+        <v>-3.83</v>
       </c>
       <c r="E143" t="n">
-        <v>1272</v>
+        <v>255</v>
       </c>
       <c r="F143" t="n">
-        <v>870</v>
-      </c>
-      <c s="28" r="G143" t="n">
-        <v>0.59</v>
+        <v>147</v>
+      </c>
+      <c s="8" r="G143" t="n">
+        <v>0.63</v>
       </c>
       <c r="H143" t="n">
-        <v>1.13</v>
+        <v>2.93</v>
       </c>
       <c r="I143" t="s">
         <v>41</v>
@@ -5644,24 +5704,24 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B144" t="n">
-        <v>151.96</v>
-      </c>
-      <c s="27" r="C144" t="n">
-        <v>-2.85</v>
-      </c>
-      <c s="27" r="D144" t="n">
-        <v>-1.88</v>
+        <v>152.61</v>
+      </c>
+      <c s="9" r="C144" t="n">
+        <v>-2.19</v>
+      </c>
+      <c s="9" r="D144" t="n">
+        <v>-1.44</v>
       </c>
       <c r="E144" t="n">
-        <v>1272</v>
+        <v>599</v>
       </c>
       <c r="F144" t="n">
-        <v>870</v>
-      </c>
-      <c s="28" r="G144" t="n">
+        <v>414</v>
+      </c>
+      <c s="8" r="G144" t="n">
         <v>0.59</v>
       </c>
       <c r="H144" t="n">
@@ -5673,25 +5733,25 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B145" t="n">
-        <v>151.95</v>
-      </c>
-      <c s="29" r="C145" t="n">
-        <v>-2.85</v>
-      </c>
-      <c s="29" r="D145" t="n">
-        <v>-1.88</v>
+        <v>150.99</v>
+      </c>
+      <c s="10" r="C145" t="n">
+        <v>-3.81</v>
+      </c>
+      <c s="10" r="D145" t="n">
+        <v>-2.52</v>
       </c>
       <c r="E145" t="n">
-        <v>1272</v>
+        <v>823</v>
       </c>
       <c r="F145" t="n">
-        <v>870</v>
-      </c>
-      <c s="30" r="G145" t="n">
-        <v>0.59</v>
+        <v>612</v>
+      </c>
+      <c s="11" r="G145" t="n">
+        <v>0.57</v>
       </c>
       <c r="H145" t="n">
         <v>1.13</v>
@@ -5701,452 +5761,1322 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c s="6" r="C146" t="n"/>
-      <c s="6" r="D146" t="n"/>
-      <c s="5" r="G146" t="n"/>
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" t="n">
+        <v>150.54</v>
+      </c>
+      <c s="10" r="C146" t="n">
+        <v>-4.25</v>
+      </c>
+      <c s="10" r="D146" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="E146" t="n">
+        <v>823</v>
+      </c>
+      <c r="F146" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G146" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="147" spans="1:9">
-      <c s="6" r="C147" t="n"/>
-      <c s="6" r="D147" t="n"/>
-      <c s="6" r="G147" t="n"/>
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="n">
+        <v>150.46</v>
+      </c>
+      <c s="10" r="C147" t="n">
+        <v>-4.34</v>
+      </c>
+      <c s="10" r="D147" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E147" t="n">
+        <v>823</v>
+      </c>
+      <c r="F147" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G147" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="148" spans="1:9">
-      <c s="7" r="C148" t="n"/>
-      <c s="7" r="D148" t="n"/>
-      <c s="7" r="G148" t="n"/>
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="n">
+        <v>150.12</v>
+      </c>
+      <c s="10" r="C148" t="n">
+        <v>-4.68</v>
+      </c>
+      <c s="10" r="D148" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="E148" t="n">
+        <v>823</v>
+      </c>
+      <c r="F148" t="n">
+        <v>612</v>
+      </c>
+      <c s="11" r="G148" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="149" spans="1:9">
-      <c s="6" r="C149" t="n"/>
-      <c s="6" r="D149" t="n"/>
-      <c s="5" r="G149" t="n"/>
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="n">
+        <v>150.31</v>
+      </c>
+      <c s="13" r="C149" t="n">
+        <v>-4.49</v>
+      </c>
+      <c s="13" r="D149" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="E149" t="n">
+        <v>916</v>
+      </c>
+      <c r="F149" t="n">
+        <v>660</v>
+      </c>
+      <c s="14" r="G149" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="150" spans="1:9">
-      <c s="6" r="C150" t="n"/>
-      <c s="6" r="D150" t="n"/>
-      <c s="6" r="G150" t="n"/>
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="n">
+        <v>150.17</v>
+      </c>
+      <c s="15" r="C150" t="n">
+        <v>-4.63</v>
+      </c>
+      <c s="15" r="D150" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="E150" t="n">
+        <v>916</v>
+      </c>
+      <c r="F150" t="n">
+        <v>660</v>
+      </c>
+      <c s="16" r="G150" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I150" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="151" spans="1:9">
-      <c s="6" r="C151" t="n"/>
-      <c s="6" r="D151" t="n"/>
-      <c s="6" r="G151" t="n"/>
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150.19</v>
+      </c>
+      <c s="17" r="C151" t="n">
+        <v>-4.61</v>
+      </c>
+      <c s="17" r="D151" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="E151" t="n">
+        <v>916</v>
+      </c>
+      <c r="F151" t="n">
+        <v>660</v>
+      </c>
+      <c s="18" r="G151" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I151" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="152" spans="1:9">
-      <c s="5" r="C152" t="n"/>
-      <c s="5" r="D152" t="n"/>
-      <c s="6" r="G152" t="n"/>
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="n">
+        <v>151.79</v>
+      </c>
+      <c s="21" r="C152" t="n">
+        <v>-3.01</v>
+      </c>
+      <c s="21" r="D152" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F152" t="n">
+        <v>736</v>
+      </c>
+      <c s="22" r="G152" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="153" spans="1:9">
-      <c s="5" r="C153" t="n"/>
-      <c s="5" r="D153" t="n"/>
-      <c s="6" r="G153" t="n"/>
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="n">
+        <v>152.28</v>
+      </c>
+      <c s="23" r="C153" t="n">
+        <v>-2.52</v>
+      </c>
+      <c s="23" r="D153" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F153" t="n">
+        <v>736</v>
+      </c>
+      <c s="24" r="G153" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="154" spans="1:9">
-      <c s="5" r="C154" t="n"/>
-      <c s="5" r="D154" t="n"/>
-      <c s="5" r="G154" t="n"/>
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="n">
+        <v>152.03</v>
+      </c>
+      <c s="23" r="C154" t="n">
+        <v>-2.77</v>
+      </c>
+      <c s="23" r="D154" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F154" t="n">
+        <v>736</v>
+      </c>
+      <c s="24" r="G154" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="155" spans="1:9">
-      <c s="6" r="C155" t="n"/>
-      <c s="6" r="D155" t="n"/>
-      <c s="6" r="G155" t="n"/>
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" t="n">
+        <v>152.02</v>
+      </c>
+      <c s="23" r="C155" t="n">
+        <v>-2.78</v>
+      </c>
+      <c s="23" r="D155" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F155" t="n">
+        <v>787</v>
+      </c>
+      <c s="24" r="G155" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="156" spans="1:9">
-      <c s="6" r="C156" t="n"/>
-      <c s="6" r="D156" t="n"/>
-      <c s="6" r="G156" t="n"/>
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="n">
+        <v>151.68</v>
+      </c>
+      <c s="23" r="C156" t="n">
+        <v>-3.12</v>
+      </c>
+      <c s="23" r="D156" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F156" t="n">
+        <v>787</v>
+      </c>
+      <c s="24" r="G156" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="157" spans="1:9">
-      <c s="7" r="C157" t="n"/>
-      <c s="7" r="D157" t="n"/>
-      <c s="7" r="G157" t="n"/>
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="n">
+        <v>151.82</v>
+      </c>
+      <c s="25" r="C157" t="n">
+        <v>-2.98</v>
+      </c>
+      <c s="25" r="D157" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F157" t="n">
+        <v>787</v>
+      </c>
+      <c s="26" r="G157" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="158" spans="1:9">
-      <c s="5" r="C158" t="n"/>
-      <c s="5" r="D158" t="n"/>
-      <c s="5" r="G158" t="n"/>
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" t="n">
+        <v>150.79</v>
+      </c>
+      <c s="25" r="C158" t="n">
+        <v>-4.01</v>
+      </c>
+      <c s="25" r="D158" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F158" t="n">
+        <v>825</v>
+      </c>
+      <c s="26" r="G158" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="159" spans="1:9">
-      <c s="6" r="C159" t="n"/>
-      <c s="6" r="D159" t="n"/>
-      <c s="5" r="G159" t="n"/>
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" t="n">
+        <v>150.78</v>
+      </c>
+      <c s="25" r="C159" t="n">
+        <v>-4.02</v>
+      </c>
+      <c s="25" r="D159" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F159" t="n">
+        <v>825</v>
+      </c>
+      <c s="26" r="G159" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="160" spans="1:9">
-      <c s="6" r="C160" t="n"/>
-      <c s="6" r="D160" t="n"/>
-      <c s="6" r="G160" t="n"/>
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" t="n">
+        <v>150.84</v>
+      </c>
+      <c s="25" r="C160" t="n">
+        <v>-3.96</v>
+      </c>
+      <c s="25" r="D160" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F160" t="n">
+        <v>825</v>
+      </c>
+      <c s="26" r="G160" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I160" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="161" spans="1:9">
-      <c s="6" r="C161" t="n"/>
-      <c s="6" r="D161" t="n"/>
-      <c s="6" r="G161" t="n"/>
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" t="n">
+        <v>150.82</v>
+      </c>
+      <c s="27" r="C161" t="n">
+        <v>-3.98</v>
+      </c>
+      <c s="27" r="D161" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F161" t="n">
+        <v>825</v>
+      </c>
+      <c s="28" r="G161" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="162" spans="1:9">
-      <c s="5" r="C162" t="n"/>
-      <c s="5" r="D162" t="n"/>
-      <c s="6" r="G162" t="n"/>
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" t="n">
+        <v>151.11</v>
+      </c>
+      <c s="27" r="C162" t="n">
+        <v>-3.69</v>
+      </c>
+      <c s="27" r="D162" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F162" t="n">
+        <v>825</v>
+      </c>
+      <c s="28" r="G162" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="163" spans="1:9">
-      <c s="6" r="C163" t="n"/>
-      <c s="6" r="D163" t="n"/>
-      <c s="6" r="G163" t="n"/>
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="n">
+        <v>151.45</v>
+      </c>
+      <c s="27" r="C163" t="n">
+        <v>-3.35</v>
+      </c>
+      <c s="27" r="D163" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F163" t="n">
+        <v>856</v>
+      </c>
+      <c s="28" r="G163" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I163" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="164" spans="1:9">
-      <c s="7" r="C164" t="n"/>
-      <c s="7" r="D164" t="n"/>
-      <c s="7" r="G164" t="n"/>
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="n">
+        <v>151.41</v>
+      </c>
+      <c s="27" r="C164" t="n">
+        <v>-3.39</v>
+      </c>
+      <c s="27" r="D164" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F164" t="n">
+        <v>856</v>
+      </c>
+      <c s="28" r="G164" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="165" spans="1:9">
-      <c s="5" r="C165" t="n"/>
-      <c s="5" r="D165" t="n"/>
-      <c s="6" r="G165" t="n"/>
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" t="n">
+        <v>151.82</v>
+      </c>
+      <c s="27" r="C165" t="n">
+        <v>-2.98</v>
+      </c>
+      <c s="27" r="D165" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F165" t="n">
+        <v>856</v>
+      </c>
+      <c s="28" r="G165" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I165" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="166" spans="1:9">
-      <c s="6" r="C166" t="n"/>
-      <c s="6" r="D166" t="n"/>
-      <c s="5" r="G166" t="n"/>
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="n">
+        <v>151.68</v>
+      </c>
+      <c s="27" r="C166" t="n">
+        <v>-3.12</v>
+      </c>
+      <c s="27" r="D166" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F166" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G166" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I166" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="167" spans="1:9">
-      <c s="6" r="C167" t="n"/>
-      <c s="6" r="D167" t="n"/>
-      <c s="6" r="G167" t="n"/>
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" t="n">
+        <v>151.78</v>
+      </c>
+      <c s="27" r="C167" t="n">
+        <v>-3.02</v>
+      </c>
+      <c s="27" r="D167" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F167" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G167" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I167" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="168" spans="1:9">
-      <c s="6" r="C168" t="n"/>
-      <c s="6" r="D168" t="n"/>
-      <c s="5" r="G168" t="n"/>
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="n">
+        <v>151.96</v>
+      </c>
+      <c s="27" r="C168" t="n">
+        <v>-2.85</v>
+      </c>
+      <c s="27" r="D168" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F168" t="n">
+        <v>870</v>
+      </c>
+      <c s="28" r="G168" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I168" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="169" spans="1:9">
-      <c s="5" r="C169" t="n"/>
-      <c s="5" r="D169" t="n"/>
-      <c s="6" r="G169" t="n"/>
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="n">
+        <v>151.95</v>
+      </c>
+      <c s="29" r="C169" t="n">
+        <v>-2.85</v>
+      </c>
+      <c s="29" r="D169" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F169" t="n">
+        <v>870</v>
+      </c>
+      <c s="30" r="G169" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="170" spans="1:9">
-      <c s="1" r="C170" t="n"/>
-      <c s="1" r="D170" t="n"/>
-      <c s="2" r="G170" t="n"/>
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="n">
+        <v>153.12</v>
+      </c>
+      <c s="29" r="C170" t="n">
+        <v>-1.68</v>
+      </c>
+      <c s="29" r="D170" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F170" t="n">
+        <v>870</v>
+      </c>
+      <c s="30" r="G170" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="171" spans="1:9">
-      <c s="2" r="C171" t="n"/>
-      <c s="2" r="D171" t="n"/>
-      <c s="2" r="G171" t="n"/>
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="n">
+        <v>153.26</v>
+      </c>
+      <c s="29" r="C171" t="n">
+        <v>-1.53</v>
+      </c>
+      <c s="29" r="D171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F171" t="n">
+        <v>931</v>
+      </c>
+      <c s="30" r="G171" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="172" spans="1:9">
-      <c s="1" r="C172" t="n"/>
-      <c s="1" r="D172" t="n"/>
-      <c s="2" r="G172" t="n"/>
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" t="n">
+        <v>153.23</v>
+      </c>
+      <c s="29" r="C172" t="n">
+        <v>-1.57</v>
+      </c>
+      <c s="29" r="D172" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F172" t="n">
+        <v>931</v>
+      </c>
+      <c s="30" r="G172" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="173" spans="1:9">
-      <c s="2" r="C173" t="n"/>
-      <c s="2" r="D173" t="n"/>
-      <c s="2" r="G173" t="n"/>
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="n">
+        <v>152.93</v>
+      </c>
+      <c s="31" r="C173" t="n">
+        <v>-1.87</v>
+      </c>
+      <c s="31" r="D173" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F173" t="n">
+        <v>931</v>
+      </c>
+      <c s="32" r="G173" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I173" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="174" spans="1:9">
-      <c s="2" r="C174" t="n"/>
-      <c s="2" r="D174" t="n"/>
-      <c s="2" r="G174" t="n"/>
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="n">
+        <v>153.15</v>
+      </c>
+      <c s="33" r="C174" t="n">
+        <v>-1.65</v>
+      </c>
+      <c s="33" r="D174" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F174" t="n">
+        <v>931</v>
+      </c>
+      <c s="34" r="G174" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I174" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="175" spans="1:9">
-      <c s="2" r="C175" t="n"/>
-      <c s="2" r="D175" t="n"/>
-      <c s="2" r="G175" t="n"/>
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="n">
+        <v>153.42</v>
+      </c>
+      <c s="33" r="C175" t="n">
+        <v>-1.38</v>
+      </c>
+      <c s="33" r="D175" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F175" t="n">
+        <v>931</v>
+      </c>
+      <c s="34" r="G175" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I175" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="176" spans="1:9">
-      <c s="1" r="C176" t="n"/>
-      <c s="1" r="D176" t="n"/>
-      <c s="2" r="G176" t="n"/>
+      <c s="6" r="C176" t="n"/>
+      <c s="6" r="D176" t="n"/>
+      <c s="5" r="G176" t="n"/>
     </row>
     <row r="177" spans="1:9">
-      <c s="3" r="C177" t="n"/>
-      <c s="3" r="D177" t="n"/>
-      <c s="4" r="G177" t="n"/>
+      <c s="6" r="C177" t="n"/>
+      <c s="6" r="D177" t="n"/>
+      <c s="6" r="G177" t="n"/>
     </row>
     <row r="178" spans="1:9">
-      <c s="4" r="C178" t="n"/>
-      <c s="4" r="D178" t="n"/>
-      <c s="4" r="G178" t="n"/>
+      <c s="7" r="C178" t="n"/>
+      <c s="7" r="D178" t="n"/>
+      <c s="7" r="G178" t="n"/>
     </row>
     <row r="179" spans="1:9">
-      <c s="3" r="C179" t="n"/>
-      <c s="3" r="D179" t="n"/>
-      <c s="3" r="G179" t="n"/>
+      <c s="6" r="C179" t="n"/>
+      <c s="6" r="D179" t="n"/>
+      <c s="5" r="G179" t="n"/>
     </row>
     <row r="180" spans="1:9">
-      <c s="3" r="C180" t="n"/>
-      <c s="3" r="D180" t="n"/>
-      <c s="3" r="G180" t="n"/>
+      <c s="6" r="C180" t="n"/>
+      <c s="6" r="D180" t="n"/>
+      <c s="6" r="G180" t="n"/>
     </row>
     <row r="181" spans="1:9">
-      <c s="4" r="C181" t="n"/>
-      <c s="4" r="D181" t="n"/>
-      <c s="4" r="G181" t="n"/>
+      <c s="6" r="C181" t="n"/>
+      <c s="6" r="D181" t="n"/>
+      <c s="6" r="G181" t="n"/>
     </row>
     <row r="182" spans="1:9">
-      <c s="4" r="C182" t="n"/>
-      <c s="4" r="D182" t="n"/>
-      <c s="4" r="G182" t="n"/>
+      <c s="5" r="C182" t="n"/>
+      <c s="5" r="D182" t="n"/>
+      <c s="6" r="G182" t="n"/>
     </row>
     <row r="183" spans="1:9">
-      <c s="4" r="C183" t="n"/>
-      <c s="4" r="D183" t="n"/>
-      <c s="4" r="G183" t="n"/>
+      <c s="5" r="C183" t="n"/>
+      <c s="5" r="D183" t="n"/>
+      <c s="6" r="G183" t="n"/>
     </row>
     <row r="184" spans="1:9">
-      <c s="3" r="C184" t="n"/>
-      <c s="3" r="D184" t="n"/>
-      <c s="3" r="G184" t="n"/>
+      <c s="5" r="C184" t="n"/>
+      <c s="5" r="D184" t="n"/>
+      <c s="5" r="G184" t="n"/>
     </row>
     <row r="185" spans="1:9">
-      <c s="4" r="C185" t="n"/>
-      <c s="4" r="D185" t="n"/>
-      <c s="3" r="G185" t="n"/>
+      <c s="6" r="C185" t="n"/>
+      <c s="6" r="D185" t="n"/>
+      <c s="6" r="G185" t="n"/>
     </row>
     <row r="186" spans="1:9">
-      <c s="4" r="C186" t="n"/>
-      <c s="4" r="D186" t="n"/>
-      <c s="3" r="G186" t="n"/>
+      <c s="6" r="C186" t="n"/>
+      <c s="6" r="D186" t="n"/>
+      <c s="6" r="G186" t="n"/>
     </row>
     <row r="187" spans="1:9">
-      <c s="4" r="C187" t="n"/>
-      <c s="4" r="D187" t="n"/>
-      <c s="4" r="G187" t="n"/>
+      <c s="7" r="C187" t="n"/>
+      <c s="7" r="D187" t="n"/>
+      <c s="7" r="G187" t="n"/>
     </row>
     <row r="188" spans="1:9">
-      <c s="4" r="C188" t="n"/>
-      <c s="4" r="D188" t="n"/>
-      <c s="3" r="G188" t="n"/>
+      <c s="5" r="C188" t="n"/>
+      <c s="5" r="D188" t="n"/>
+      <c s="5" r="G188" t="n"/>
     </row>
     <row r="189" spans="1:9">
-      <c s="4" r="C189" t="n"/>
-      <c s="4" r="D189" t="n"/>
-      <c s="4" r="G189" t="n"/>
+      <c s="6" r="C189" t="n"/>
+      <c s="6" r="D189" t="n"/>
+      <c s="5" r="G189" t="n"/>
     </row>
     <row r="190" spans="1:9">
-      <c s="4" r="C190" t="n"/>
-      <c s="4" r="D190" t="n"/>
-      <c s="4" r="G190" t="n"/>
+      <c s="6" r="C190" t="n"/>
+      <c s="6" r="D190" t="n"/>
+      <c s="6" r="G190" t="n"/>
     </row>
     <row r="191" spans="1:9">
-      <c s="3" r="C191" t="n"/>
-      <c s="3" r="D191" t="n"/>
-      <c s="4" r="G191" t="n"/>
+      <c s="6" r="C191" t="n"/>
+      <c s="6" r="D191" t="n"/>
+      <c s="6" r="G191" t="n"/>
     </row>
     <row r="192" spans="1:9">
-      <c s="3" r="C192" t="n"/>
-      <c s="3" r="D192" t="n"/>
-      <c s="4" r="G192" t="n"/>
+      <c s="5" r="C192" t="n"/>
+      <c s="5" r="D192" t="n"/>
+      <c s="6" r="G192" t="n"/>
     </row>
     <row r="193" spans="1:9">
-      <c s="3" r="C193" t="n"/>
-      <c s="3" r="D193" t="n"/>
-      <c s="3" r="G193" t="n"/>
+      <c s="6" r="C193" t="n"/>
+      <c s="6" r="D193" t="n"/>
+      <c s="6" r="G193" t="n"/>
     </row>
     <row r="194" spans="1:9">
-      <c s="4" r="C194" t="n"/>
-      <c s="4" r="D194" t="n"/>
-      <c s="4" r="G194" t="n"/>
+      <c s="7" r="C194" t="n"/>
+      <c s="7" r="D194" t="n"/>
+      <c s="7" r="G194" t="n"/>
     </row>
     <row r="195" spans="1:9">
-      <c s="4" r="C195" t="n"/>
-      <c s="4" r="D195" t="n"/>
-      <c s="4" r="G195" t="n"/>
+      <c s="5" r="C195" t="n"/>
+      <c s="5" r="D195" t="n"/>
+      <c s="6" r="G195" t="n"/>
     </row>
     <row r="196" spans="1:9">
-      <c s="3" r="C196" t="n"/>
-      <c s="3" r="D196" t="n"/>
-      <c s="3" r="G196" t="n"/>
+      <c s="6" r="C196" t="n"/>
+      <c s="6" r="D196" t="n"/>
+      <c s="5" r="G196" t="n"/>
     </row>
     <row r="197" spans="1:9">
-      <c s="4" r="C197" t="n"/>
-      <c s="4" r="D197" t="n"/>
-      <c s="3" r="G197" t="n"/>
+      <c s="6" r="C197" t="n"/>
+      <c s="6" r="D197" t="n"/>
+      <c s="6" r="G197" t="n"/>
     </row>
     <row r="198" spans="1:9">
-      <c s="4" r="C198" t="n"/>
-      <c s="4" r="D198" t="n"/>
-      <c s="4" r="G198" t="n"/>
+      <c s="6" r="C198" t="n"/>
+      <c s="6" r="D198" t="n"/>
+      <c s="5" r="G198" t="n"/>
     </row>
     <row r="199" spans="1:9">
-      <c s="4" r="C199" t="n"/>
-      <c s="4" r="D199" t="n"/>
-      <c s="4" r="G199" t="n"/>
+      <c s="5" r="C199" t="n"/>
+      <c s="5" r="D199" t="n"/>
+      <c s="6" r="G199" t="n"/>
     </row>
     <row r="200" spans="1:9">
-      <c s="3" r="C200" t="n"/>
-      <c s="3" r="D200" t="n"/>
-      <c s="4" r="G200" t="n"/>
+      <c s="1" r="C200" t="n"/>
+      <c s="1" r="D200" t="n"/>
+      <c s="2" r="G200" t="n"/>
     </row>
     <row r="201" spans="1:9">
-      <c s="4" r="C201" t="n"/>
-      <c s="4" r="D201" t="n"/>
-      <c s="4" r="G201" t="n"/>
+      <c s="2" r="C201" t="n"/>
+      <c s="2" r="D201" t="n"/>
+      <c s="2" r="G201" t="n"/>
     </row>
     <row r="202" spans="1:9">
-      <c s="3" r="C202" t="n"/>
-      <c s="3" r="D202" t="n"/>
-      <c s="4" r="G202" t="n"/>
+      <c s="1" r="C202" t="n"/>
+      <c s="1" r="D202" t="n"/>
+      <c s="2" r="G202" t="n"/>
     </row>
     <row r="203" spans="1:9">
-      <c s="4" r="C203" t="n"/>
-      <c s="4" r="D203" t="n"/>
-      <c s="3" r="G203" t="n"/>
+      <c s="2" r="C203" t="n"/>
+      <c s="2" r="D203" t="n"/>
+      <c s="2" r="G203" t="n"/>
     </row>
     <row r="204" spans="1:9">
-      <c s="4" r="C204" t="n"/>
-      <c s="4" r="D204" t="n"/>
-      <c s="4" r="G204" t="n"/>
+      <c s="2" r="C204" t="n"/>
+      <c s="2" r="D204" t="n"/>
+      <c s="2" r="G204" t="n"/>
     </row>
     <row r="205" spans="1:9">
-      <c s="4" r="C205" t="n"/>
-      <c s="4" r="D205" t="n"/>
-      <c s="3" r="G205" t="n"/>
+      <c s="2" r="C205" t="n"/>
+      <c s="2" r="D205" t="n"/>
+      <c s="2" r="G205" t="n"/>
     </row>
     <row r="206" spans="1:9">
-      <c s="3" r="C206" t="n"/>
-      <c s="3" r="D206" t="n"/>
-      <c s="4" r="G206" t="n"/>
+      <c s="1" r="C206" t="n"/>
+      <c s="1" r="D206" t="n"/>
+      <c s="2" r="G206" t="n"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" t="s">
+      <c s="3" r="C207" t="n"/>
+      <c s="3" r="D207" t="n"/>
+      <c s="4" r="G207" t="n"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c s="4" r="C208" t="n"/>
+      <c s="4" r="D208" t="n"/>
+      <c s="4" r="G208" t="n"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c s="3" r="C209" t="n"/>
+      <c s="3" r="D209" t="n"/>
+      <c s="3" r="G209" t="n"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c s="3" r="C210" t="n"/>
+      <c s="3" r="D210" t="n"/>
+      <c s="3" r="G210" t="n"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c s="4" r="C211" t="n"/>
+      <c s="4" r="D211" t="n"/>
+      <c s="4" r="G211" t="n"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c s="4" r="C212" t="n"/>
+      <c s="4" r="D212" t="n"/>
+      <c s="4" r="G212" t="n"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c s="4" r="C213" t="n"/>
+      <c s="4" r="D213" t="n"/>
+      <c s="4" r="G213" t="n"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c s="3" r="C214" t="n"/>
+      <c s="3" r="D214" t="n"/>
+      <c s="3" r="G214" t="n"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c s="4" r="C215" t="n"/>
+      <c s="4" r="D215" t="n"/>
+      <c s="3" r="G215" t="n"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c s="4" r="C216" t="n"/>
+      <c s="4" r="D216" t="n"/>
+      <c s="3" r="G216" t="n"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c s="4" r="C217" t="n"/>
+      <c s="4" r="D217" t="n"/>
+      <c s="4" r="G217" t="n"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c s="4" r="C218" t="n"/>
+      <c s="4" r="D218" t="n"/>
+      <c s="3" r="G218" t="n"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c s="4" r="C219" t="n"/>
+      <c s="4" r="D219" t="n"/>
+      <c s="4" r="G219" t="n"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c s="4" r="C220" t="n"/>
+      <c s="4" r="D220" t="n"/>
+      <c s="4" r="G220" t="n"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c s="3" r="C221" t="n"/>
+      <c s="3" r="D221" t="n"/>
+      <c s="4" r="G221" t="n"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c s="3" r="C222" t="n"/>
+      <c s="3" r="D222" t="n"/>
+      <c s="4" r="G222" t="n"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c s="3" r="C223" t="n"/>
+      <c s="3" r="D223" t="n"/>
+      <c s="3" r="G223" t="n"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c s="4" r="C224" t="n"/>
+      <c s="4" r="D224" t="n"/>
+      <c s="4" r="G224" t="n"/>
+    </row>
+    <row r="225" spans="1:9">
+      <c s="4" r="C225" t="n"/>
+      <c s="4" r="D225" t="n"/>
+      <c s="4" r="G225" t="n"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c s="3" r="C226" t="n"/>
+      <c s="3" r="D226" t="n"/>
+      <c s="3" r="G226" t="n"/>
+    </row>
+    <row r="227" spans="1:9">
+      <c s="4" r="C227" t="n"/>
+      <c s="4" r="D227" t="n"/>
+      <c s="3" r="G227" t="n"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c s="4" r="C228" t="n"/>
+      <c s="4" r="D228" t="n"/>
+      <c s="4" r="G228" t="n"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c s="4" r="C229" t="n"/>
+      <c s="4" r="D229" t="n"/>
+      <c s="4" r="G229" t="n"/>
+    </row>
+    <row r="230" spans="1:9">
+      <c s="3" r="C230" t="n"/>
+      <c s="3" r="D230" t="n"/>
+      <c s="4" r="G230" t="n"/>
+    </row>
+    <row r="231" spans="1:9">
+      <c s="4" r="C231" t="n"/>
+      <c s="4" r="D231" t="n"/>
+      <c s="4" r="G231" t="n"/>
+    </row>
+    <row r="232" spans="1:9">
+      <c s="3" r="C232" t="n"/>
+      <c s="3" r="D232" t="n"/>
+      <c s="4" r="G232" t="n"/>
+    </row>
+    <row r="233" spans="1:9">
+      <c s="4" r="C233" t="n"/>
+      <c s="4" r="D233" t="n"/>
+      <c s="3" r="G233" t="n"/>
+    </row>
+    <row r="234" spans="1:9">
+      <c s="4" r="C234" t="n"/>
+      <c s="4" r="D234" t="n"/>
+      <c s="4" r="G234" t="n"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c s="4" r="C235" t="n"/>
+      <c s="4" r="D235" t="n"/>
+      <c s="3" r="G235" t="n"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c s="3" r="C236" t="n"/>
+      <c s="3" r="D236" t="n"/>
+      <c s="4" r="G236" t="n"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
         <v>9</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B237" t="n">
         <v>12.74</v>
       </c>
-      <c s="8" r="C207" t="n">
+      <c s="8" r="C237" t="n">
         <v>1.66</v>
       </c>
-      <c s="8" r="D207" t="n">
+      <c s="8" r="D237" t="n">
         <v>13.03</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E237" t="n">
         <v>2240</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F237" t="n">
         <v>1400</v>
       </c>
-      <c s="8" r="G207" t="n">
+      <c s="8" r="G237" t="n">
         <v>0.62</v>
       </c>
-      <c r="H207" t="n">
+      <c r="H237" t="n">
         <v>3.95</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I237" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
-      <c r="A208" t="s">
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1998.1</v>
+      </c>
+      <c s="8" r="C238" t="n">
+        <v>65.28</v>
+      </c>
+      <c s="8" r="D238" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2724</v>
+      </c>
+      <c s="8" r="G238" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I238" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" t="n">
+        <v>62.13</v>
+      </c>
+      <c s="8" r="C239" t="n">
+        <v>10.63</v>
+      </c>
+      <c s="8" r="D239" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1583</v>
+      </c>
+      <c s="8" r="G239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H239" t="s">
+        <v>18</v>
+      </c>
+      <c r="I239" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" t="n">
+        <v>222.98</v>
+      </c>
+      <c s="8" r="C240" t="n">
+        <v>3.28</v>
+      </c>
+      <c s="8" r="D240" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1153</v>
+      </c>
+      <c s="8" r="G240" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I240" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
         <v>10</v>
       </c>
-      <c r="B208" t="n">
-        <v>1998.1</v>
-      </c>
-      <c s="8" r="C208" t="n">
-        <v>65.28</v>
-      </c>
-      <c s="8" r="D208" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E208" t="n">
-        <v>2791</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2724</v>
-      </c>
-      <c s="8" r="G208" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I208" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" t="n">
-        <v>62.13</v>
-      </c>
-      <c s="8" r="C209" t="n">
-        <v>10.63</v>
-      </c>
-      <c s="8" r="D209" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="E209" t="n">
-        <v>2390</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1583</v>
-      </c>
-      <c s="8" r="G209" t="n">
+      <c r="B241" t="n">
+        <v>25.2</v>
+      </c>
+      <c s="8" r="C241" t="n">
+        <v>0.15</v>
+      </c>
+      <c s="8" r="D241" t="n">
         <v>0.6</v>
       </c>
-      <c r="H209" t="s">
-        <v>18</v>
-      </c>
-      <c r="I209" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
-      <c r="A210" t="s">
-        <v>12</v>
-      </c>
-      <c r="B210" t="n">
-        <v>222.98</v>
-      </c>
-      <c s="8" r="C210" t="n">
-        <v>3.28</v>
-      </c>
-      <c s="8" r="D210" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1715</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1153</v>
-      </c>
-      <c s="8" r="G210" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="I210" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
-      <c r="A211" t="s">
-        <v>13</v>
-      </c>
-      <c r="B211" t="n">
-        <v>25.2</v>
-      </c>
-      <c s="8" r="C211" t="n">
-        <v>0.15</v>
-      </c>
-      <c s="8" r="D211" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E211" t="n">
+      <c r="E241" t="n">
         <v>2477</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F241" t="n">
         <v>2465</v>
       </c>
-      <c s="8" r="G211" t="n">
+      <c s="8" r="G241" t="n">
         <v>0.5</v>
       </c>
-      <c r="H211" t="n">
+      <c r="H241" t="n">
         <v>3.6</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I241" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6164,8 +7094,8 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6177,56 +7107,93 @@
       <c r="B1" t="s">
         <v>41</v>
       </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c s="12" r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c s="30" r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c s="30" r="B2" t="n"/>
+      <c s="31" r="C2" t="s">
         <v>43</v>
       </c>
-      <c s="20" r="C2" t="n"/>
-      <c s="19" r="D2" t="n"/>
+      <c s="33" r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c s="33" r="E2" t="s">
+        <v>45</v>
+      </c>
       <c s="28" r="N2" t="n"/>
     </row>
     <row r="3" spans="1:14">
       <c s="12" r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c s="30" r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c s="19" r="C3" t="n"/>
-      <c s="20" r="E3" t="n"/>
+        <v>46</v>
+      </c>
+      <c s="30" r="B3" t="n"/>
+      <c s="32" r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c s="34" r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c s="34" r="E3" t="s">
+        <v>49</v>
+      </c>
       <c s="28" r="N3" t="n"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c s="29" r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c s="19" r="D4" t="n"/>
-      <c s="19" r="E4" t="n"/>
+      <c s="29" r="B4" t="n"/>
+      <c s="31" r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c s="33" r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c s="33" r="E4" t="s">
+        <v>52</v>
+      </c>
       <c s="27" r="N4" t="n"/>
     </row>
     <row r="5" spans="1:14">
       <c s="12" r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c s="30" r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="E5" t="n"/>
+        <v>11</v>
+      </c>
+      <c s="30" r="B5" t="n"/>
+      <c s="32" r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c s="34" r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c s="34" r="E5" t="s">
+        <v>55</v>
+      </c>
       <c s="28" r="N5" t="n"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c s="29" r="B6" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c s="29" r="B6" t="n"/>
+      <c s="31" r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c s="33" r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c s="33" r="E6" t="s">
+        <v>58</v>
       </c>
       <c s="28" r="N6" t="n"/>
     </row>
@@ -6234,8 +7201,15 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c s="30" r="B7" t="s">
-        <v>49</v>
+      <c s="30" r="B7" t="n"/>
+      <c s="32" r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c s="34" r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c s="34" r="E7" t="s">
+        <v>61</v>
       </c>
       <c s="27" r="N7" t="n"/>
     </row>
@@ -6254,8 +7228,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6267,44 +7241,84 @@
       <c r="B1" t="s">
         <v>41</v>
       </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c s="12" r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c s="19" r="B2" t="n"/>
       <c s="20" r="C2" t="n"/>
-      <c s="19" r="D2" t="n"/>
+      <c s="19" r="D2" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.18</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c s="12" r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c s="19" r="B3" t="n"/>
       <c s="19" r="C3" t="n"/>
-      <c s="20" r="E3" t="n"/>
+      <c r="D3" t="n">
+        <v>1203.16</v>
+      </c>
+      <c s="20" r="E3" t="n">
+        <v>1203.16</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c s="19" r="D4" t="n"/>
-      <c s="19" r="E4" t="n"/>
+      <c s="19" r="D4" t="n">
+        <v>7.06</v>
+      </c>
+      <c s="19" r="E4" t="n">
+        <v>7.06</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c s="12" r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c s="20" r="E5" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1855.91</v>
+      </c>
+      <c s="20" r="E5" t="n">
+        <v>1855.91</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>145.93</v>
+      </c>
+      <c r="E6" t="n">
+        <v>145.93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>203.48</v>
+      </c>
+      <c r="E7" t="n">
+        <v>203.48</v>
       </c>
     </row>
     <row r="8" spans="1:5"/>
@@ -6320,55 +7334,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A5:A7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c s="12" r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c s="19" r="B2" t="n"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c s="12" r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c s="19" r="B3" t="n"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" t="n">
+        <v>1113.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c s="12" r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1645.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2"/>
+      <c r="E7" t="n">
+        <v>185.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
